--- a/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
+++ b/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
@@ -15,7 +15,7 @@
     <sheet name="スクリーンオブジェクトをJSONで返却する方法" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$A$1:$AS$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$A$1:$AS$52</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LayoutDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DetailLayout001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -181,10 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>screenObjDtoList</t>
   </si>
   <si>
@@ -193,10 +185,6 @@
   </si>
   <si>
     <t>screenObjGrpDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -214,10 +202,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015/1/14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①の情報が入ってる</t>
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
@@ -283,6 +267,154 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regionId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facilityId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facilityGrpId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>langDiv(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>screenObjId(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェブサーバからモバイルクライアントに返却するオブジェクトに概要を下記にまとめる。</t>
+    <rPh sb="19" eb="21">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モバイルクライアントからウェブサーバに渡すリクエストパラメータの概要を下記にまとめる。</t>
+    <rPh sb="19" eb="20">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>httpRequestでモバイルクライアントからウェブサーバに渡す情報は下記となる。</t>
+    <rPh sb="31" eb="32">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須でない項目については、httpリクエストに含める必要はない。（例：http://melip.com/mobile/getScreenDto?langDiv=ja&amp;screenObjId=123&amp;regionId=123）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/1/15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Integer</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -290,7 +422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +463,21 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -659,7 +806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,6 +927,132 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,130 +1089,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,9 +1388,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT38"/>
+  <dimension ref="A1:AT52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -1252,7 +1408,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -1334,7 +1490,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -1390,7 +1546,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="8" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -1558,262 +1714,168 @@
       <c r="AS6" s="26"/>
       <c r="AT6" s="28"/>
     </row>
-    <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:46" s="96" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-    </row>
-    <row r="10" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="C10" s="40" t="s">
+      <c r="O10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+    </row>
+    <row r="12" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="30"/>
+      <c r="C12" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="35"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-    </row>
-    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="35"/>
-      <c r="O11" s="30"/>
-      <c r="Q11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X11" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="82"/>
-      <c r="AO11" s="83"/>
-    </row>
-    <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="30"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="84"/>
       <c r="M12" s="35"/>
       <c r="O12" s="30"/>
-      <c r="Q12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X12" s="68" t="s">
-        <v>33</v>
+      <c r="P12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="59" t="s">
+        <v>42</v>
       </c>
       <c r="Y12" s="27"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
-      <c r="AB12" s="69"/>
+      <c r="AB12" s="27"/>
       <c r="AC12" s="35"/>
       <c r="AD12" s="27"/>
-      <c r="AE12" s="84"/>
+      <c r="AE12" s="69" t="s">
+        <v>44</v>
+      </c>
       <c r="AF12" s="27"/>
       <c r="AG12" s="27"/>
       <c r="AH12" s="27"/>
       <c r="AI12" s="27"/>
       <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="85"/>
     </row>
     <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="30"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="35"/>
       <c r="O13" s="30"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="71"/>
+      <c r="Q13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="46"/>
       <c r="AC13" s="35"/>
       <c r="AD13" s="27"/>
-      <c r="AE13" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF13" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="85"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="62"/>
     </row>
     <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
-      <c r="C14" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
       <c r="M14" s="35"/>
       <c r="O14" s="30"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="63"/>
+      <c r="Q14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="35"/>
       <c r="AD14" s="27"/>
-      <c r="AE14" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF14" s="27" t="s">
-        <v>45</v>
-      </c>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="27"/>
       <c r="AG14" s="27"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
@@ -1822,12 +1884,12 @@
       <c r="AL14" s="27"/>
       <c r="AM14" s="27"/>
       <c r="AN14" s="27"/>
-      <c r="AO14" s="85"/>
+      <c r="AO14" s="64"/>
     </row>
     <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="30"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -1838,15 +1900,31 @@
       <c r="L15" s="27"/>
       <c r="M15" s="35"/>
       <c r="O15" s="30"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="69"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="50"/>
       <c r="AC15" s="35"/>
       <c r="AD15" s="27"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="27"/>
+      <c r="AE15" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF15" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="AG15" s="27"/>
       <c r="AH15" s="27"/>
       <c r="AI15" s="27"/>
@@ -1855,43 +1933,51 @@
       <c r="AL15" s="27"/>
       <c r="AM15" s="27"/>
       <c r="AN15" s="27"/>
-      <c r="AO15" s="85"/>
+      <c r="AO15" s="64"/>
     </row>
     <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="30"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="77"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="60"/>
+      <c r="F16" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="75"/>
       <c r="M16" s="35"/>
       <c r="O16" s="30"/>
-      <c r="P16" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="35"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="42"/>
       <c r="AD16" s="27"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="27"/>
+      <c r="AE16" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF16" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="AG16" s="27"/>
       <c r="AH16" s="27"/>
       <c r="AI16" s="27"/>
@@ -1900,12 +1986,12 @@
       <c r="AL16" s="27"/>
       <c r="AM16" s="27"/>
       <c r="AN16" s="27"/>
-      <c r="AO16" s="85"/>
+      <c r="AO16" s="64"/>
     </row>
     <row r="17" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="30"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -1916,26 +2002,14 @@
       <c r="L17" s="27"/>
       <c r="M17" s="35"/>
       <c r="O17" s="30"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="75"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="48"/>
       <c r="AC17" s="35"/>
       <c r="AD17" s="27"/>
-      <c r="AE17" s="84"/>
+      <c r="AE17" s="63"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="27"/>
       <c r="AH17" s="27"/>
@@ -1945,42 +2019,42 @@
       <c r="AL17" s="27"/>
       <c r="AM17" s="27"/>
       <c r="AN17" s="27"/>
-      <c r="AO17" s="85"/>
+      <c r="AO17" s="64"/>
     </row>
     <row r="18" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="30"/>
-      <c r="C18" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="53"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="60"/>
+      <c r="F18" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="75"/>
       <c r="M18" s="35"/>
       <c r="O18" s="30"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="75"/>
+      <c r="P18" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="54"/>
       <c r="AC18" s="35"/>
       <c r="AD18" s="27"/>
-      <c r="AE18" s="84"/>
+      <c r="AE18" s="63"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="27"/>
       <c r="AH18" s="27"/>
@@ -1990,12 +2064,12 @@
       <c r="AL18" s="27"/>
       <c r="AM18" s="27"/>
       <c r="AN18" s="27"/>
-      <c r="AO18" s="85"/>
+      <c r="AO18" s="64"/>
     </row>
     <row r="19" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="30"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
@@ -2006,24 +2080,26 @@
       <c r="L19" s="27"/>
       <c r="M19" s="35"/>
       <c r="O19" s="30"/>
-      <c r="P19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="69"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="54"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="27"/>
-      <c r="AE19" s="84"/>
+      <c r="AE19" s="63"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="27"/>
       <c r="AH19" s="27"/>
@@ -2033,44 +2109,42 @@
       <c r="AL19" s="27"/>
       <c r="AM19" s="27"/>
       <c r="AN19" s="27"/>
-      <c r="AO19" s="85"/>
+      <c r="AO19" s="64"/>
     </row>
     <row r="20" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="30"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
+      <c r="C20" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="77"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="60"/>
+      <c r="F20" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="75"/>
       <c r="M20" s="35"/>
       <c r="O20" s="30"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="69"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="54"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="27"/>
-      <c r="AE20" s="84"/>
+      <c r="AE20" s="63"/>
       <c r="AF20" s="27"/>
       <c r="AG20" s="27"/>
       <c r="AH20" s="27"/>
@@ -2080,12 +2154,12 @@
       <c r="AL20" s="27"/>
       <c r="AM20" s="27"/>
       <c r="AN20" s="27"/>
-      <c r="AO20" s="85"/>
+      <c r="AO20" s="64"/>
     </row>
     <row r="21" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="30"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -2096,20 +2170,24 @@
       <c r="L21" s="27"/>
       <c r="M21" s="35"/>
       <c r="O21" s="30"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X21" s="68" t="s">
-        <v>32</v>
-      </c>
+      <c r="P21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="47"/>
       <c r="Y21" s="27"/>
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
-      <c r="AB21" s="69"/>
+      <c r="AB21" s="48"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="27"/>
-      <c r="AE21" s="84"/>
+      <c r="AE21" s="63"/>
       <c r="AF21" s="27"/>
       <c r="AG21" s="27"/>
       <c r="AH21" s="27"/>
@@ -2119,46 +2197,45 @@
       <c r="AL21" s="27"/>
       <c r="AM21" s="27"/>
       <c r="AN21" s="27"/>
-      <c r="AO21" s="85"/>
+      <c r="AO21" s="64"/>
     </row>
     <row r="22" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="30"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="F22" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="75"/>
       <c r="M22" s="35"/>
       <c r="O22" s="30"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y22" s="38"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y22" s="27"/>
       <c r="Z22" s="27"/>
       <c r="AA22" s="27"/>
-      <c r="AB22" s="69"/>
+      <c r="AB22" s="48"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="27"/>
-      <c r="AE22" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF22" s="38">
-        <v>1</v>
-      </c>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="27"/>
       <c r="AG22" s="27"/>
       <c r="AH22" s="27"/>
       <c r="AI22" s="27"/>
@@ -2167,7 +2244,7 @@
       <c r="AL22" s="27"/>
       <c r="AM22" s="27"/>
       <c r="AN22" s="27"/>
-      <c r="AO22" s="85"/>
+      <c r="AO22" s="64"/>
     </row>
     <row r="23" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="30"/>
@@ -2185,28 +2262,19 @@
       <c r="O23" s="30"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y23" s="38"/>
+        <v>61</v>
+      </c>
+      <c r="X23" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y23" s="27"/>
       <c r="Z23" s="27"/>
       <c r="AA23" s="27"/>
-      <c r="AB23" s="69"/>
+      <c r="AB23" s="48"/>
       <c r="AC23" s="35"/>
       <c r="AD23" s="27"/>
-      <c r="AE23" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF23" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="27"/>
       <c r="AG23" s="27"/>
       <c r="AH23" s="27"/>
       <c r="AI23" s="27"/>
@@ -2215,7 +2283,7 @@
       <c r="AL23" s="27"/>
       <c r="AM23" s="27"/>
       <c r="AN23" s="27"/>
-      <c r="AO23" s="85"/>
+      <c r="AO23" s="64"/>
     </row>
     <row r="24" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="30"/>
@@ -2233,27 +2301,27 @@
       <c r="O24" s="30"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
-      <c r="X24" s="68" t="s">
+      <c r="X24" s="47" t="s">
         <v>17</v>
       </c>
       <c r="Y24" s="38"/>
       <c r="Z24" s="27"/>
       <c r="AA24" s="27"/>
-      <c r="AB24" s="69"/>
+      <c r="AB24" s="48"/>
       <c r="AC24" s="35"/>
       <c r="AD24" s="27"/>
-      <c r="AE24" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF24" s="38" t="s">
-        <v>23</v>
+      <c r="AE24" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF24" s="38">
+        <v>1</v>
       </c>
       <c r="AG24" s="27"/>
       <c r="AH24" s="27"/>
@@ -2263,7 +2331,7 @@
       <c r="AL24" s="27"/>
       <c r="AM24" s="27"/>
       <c r="AN24" s="27"/>
-      <c r="AO24" s="85"/>
+      <c r="AO24" s="64"/>
     </row>
     <row r="25" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="30"/>
@@ -2281,27 +2349,27 @@
       <c r="O25" s="30"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
-      <c r="X25" s="68" t="s">
-        <v>19</v>
+      <c r="X25" s="47" t="s">
+        <v>20</v>
       </c>
       <c r="Y25" s="38"/>
       <c r="Z25" s="27"/>
       <c r="AA25" s="27"/>
-      <c r="AB25" s="69"/>
+      <c r="AB25" s="48"/>
       <c r="AC25" s="35"/>
       <c r="AD25" s="27"/>
-      <c r="AE25" s="84" t="s">
-        <v>44</v>
+      <c r="AE25" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="AF25" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG25" s="27"/>
       <c r="AH25" s="27"/>
@@ -2311,9 +2379,9 @@
       <c r="AL25" s="27"/>
       <c r="AM25" s="27"/>
       <c r="AN25" s="27"/>
-      <c r="AO25" s="85"/>
-    </row>
-    <row r="26" spans="2:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AO25" s="64"/>
+    </row>
+    <row r="26" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="30"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -2329,346 +2397,342 @@
       <c r="O26" s="30"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="79"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="48"/>
       <c r="AC26" s="35"/>
       <c r="AD26" s="27"/>
-      <c r="AE26" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF26" s="87" t="s">
+      <c r="AE26" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF26" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="64"/>
+    </row>
+    <row r="27" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="30"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="35"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="88"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="88"/>
-      <c r="AK26" s="88"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="88"/>
-      <c r="AN26" s="88"/>
-      <c r="AO26" s="89"/>
-    </row>
-    <row r="27" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="36"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="37"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
       <c r="AG27" s="27"/>
       <c r="AH27" s="27"/>
       <c r="AI27" s="27"/>
       <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="64"/>
+    </row>
+    <row r="28" spans="2:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="30"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="35"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF28" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="67"/>
+      <c r="AJ28" s="67"/>
+      <c r="AK28" s="67"/>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="67"/>
+      <c r="AN28" s="67"/>
+      <c r="AO28" s="68"/>
     </row>
     <row r="29" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="37"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+    </row>
+    <row r="31" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="34"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="34"/>
-    </row>
-    <row r="31" spans="2:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="30"/>
-      <c r="C31" s="40" t="s">
+      <c r="O31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="34"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="34"/>
+    </row>
+    <row r="33" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="30"/>
+      <c r="C33" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="35"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="35"/>
-      <c r="AE31" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
-      <c r="AJ31" s="27"/>
-    </row>
-    <row r="32" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="30"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="35"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="35"/>
-      <c r="AE32" s="81"/>
-      <c r="AF32" s="82"/>
-      <c r="AG32" s="82"/>
-      <c r="AH32" s="82"/>
-      <c r="AI32" s="82"/>
-      <c r="AJ32" s="82"/>
-      <c r="AK32" s="82"/>
-      <c r="AL32" s="82"/>
-      <c r="AM32" s="82"/>
-      <c r="AN32" s="82"/>
-      <c r="AO32" s="83"/>
-    </row>
-    <row r="33" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="30"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="48"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="84"/>
       <c r="M33" s="35"/>
       <c r="O33" s="30"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="P33" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="27"/>
       <c r="T33" s="27"/>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
       <c r="W33" s="27"/>
-      <c r="X33" s="68" t="s">
-        <v>33</v>
+      <c r="X33" s="59" t="s">
+        <v>42</v>
       </c>
       <c r="Y33" s="27"/>
       <c r="Z33" s="27"/>
       <c r="AA33" s="27"/>
-      <c r="AB33" s="69"/>
+      <c r="AB33" s="27"/>
       <c r="AC33" s="35"/>
-      <c r="AE33" s="84"/>
+      <c r="AE33" s="69" t="s">
+        <v>44</v>
+      </c>
       <c r="AF33" s="27"/>
       <c r="AG33" s="27"/>
       <c r="AH33" s="27"/>
       <c r="AI33" s="27"/>
       <c r="AJ33" s="27"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="27"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="27"/>
-      <c r="AO33" s="85"/>
-    </row>
-    <row r="34" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="30"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="87"/>
       <c r="M34" s="35"/>
       <c r="O34" s="30"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="71"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="46"/>
       <c r="AC34" s="35"/>
-      <c r="AE34" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF34" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="27"/>
-      <c r="AJ34" s="27"/>
-      <c r="AK34" s="27"/>
-      <c r="AL34" s="27"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="27"/>
-      <c r="AO34" s="85"/>
-    </row>
-    <row r="35" spans="2:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="61"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="61"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="61"/>
+      <c r="AO34" s="62"/>
+    </row>
+    <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="30"/>
-      <c r="C35" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="90"/>
       <c r="M35" s="35"/>
       <c r="O35" s="30"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y35" s="92"/>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="92"/>
-      <c r="AB35" s="93"/>
-      <c r="AC35" s="63"/>
-      <c r="AE35" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF35" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="88"/>
-      <c r="AI35" s="88"/>
-      <c r="AJ35" s="88"/>
-      <c r="AK35" s="88"/>
-      <c r="AL35" s="88"/>
-      <c r="AM35" s="88"/>
-      <c r="AN35" s="88"/>
-      <c r="AO35" s="89"/>
-    </row>
-    <row r="36" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="35"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="27"/>
+      <c r="AN35" s="27"/>
+      <c r="AO35" s="64"/>
+    </row>
+    <row r="36" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="30"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="45"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
@@ -2678,95 +2742,256 @@
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
       <c r="M36" s="35"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="37"/>
-    </row>
-    <row r="37" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O36" s="30"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="35"/>
+      <c r="AE36" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF36" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="27"/>
+      <c r="AN36" s="27"/>
+      <c r="AO36" s="64"/>
+    </row>
+    <row r="37" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="30"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="48"/>
+      <c r="C37" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="84"/>
       <c r="E37" s="27"/>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="35"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="71"/>
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="42"/>
+      <c r="AE37" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF37" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG37" s="67"/>
+      <c r="AH37" s="67"/>
+      <c r="AI37" s="67"/>
+      <c r="AJ37" s="67"/>
+      <c r="AK37" s="67"/>
+      <c r="AL37" s="67"/>
+      <c r="AM37" s="67"/>
+      <c r="AN37" s="67"/>
+      <c r="AO37" s="68"/>
+    </row>
+    <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="30"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="35"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="37"/>
+    </row>
+    <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="30"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="35"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-    </row>
-    <row r="38" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="36"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="37"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="35"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+    </row>
+    <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="36"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="37"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+    </row>
+    <row r="43" spans="1:41" s="96" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="C12:L14"/>
+    <mergeCell ref="C33:L35"/>
+    <mergeCell ref="C37:D39"/>
+    <mergeCell ref="F37:L37"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="C16:D18"/>
     <mergeCell ref="F16:L16"/>
-    <mergeCell ref="C18:D20"/>
     <mergeCell ref="F18:L18"/>
+    <mergeCell ref="C20:D22"/>
     <mergeCell ref="F20:L20"/>
-    <mergeCell ref="C10:L12"/>
-    <mergeCell ref="C31:L33"/>
-    <mergeCell ref="C35:D37"/>
-    <mergeCell ref="F35:L35"/>
-    <mergeCell ref="F37:L37"/>
-    <mergeCell ref="C14:D16"/>
+    <mergeCell ref="F22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
+++ b/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -166,19 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウェブサーバからモバイルクライアントに返却するオブジェクトに概要を下記にまとめる。</t>
-    <rPh sb="19" eb="21">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -286,34 +273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>attDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AttDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attGrpId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attGrpType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attGrpNm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attVal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attCdVal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>layoutObjGrp02</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -443,10 +402,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>layoutObj05 (list)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>→</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -456,16 +411,6 @@
   </si>
   <si>
     <t>multiple</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ layoutObj05はlistなので複数のAttDtoを保持する</t>
-    <rPh sb="21" eb="23">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ホジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -561,7 +506,80 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015/1/22</t>
+    <t>AttrDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrGrpId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrGrpType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrGrpNm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrVal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrCdVal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェブサーバからモバイルクライアントに返却するオブジェクトの概要を下記にまとめる。</t>
+    <rPh sb="19" eb="21">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjGrpDto[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ layoutObj06はlistなので複数のAttDtoを保持する</t>
+    <rPh sb="21" eb="23">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjDto[1]</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>screenObjDto[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj06 (list)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj05 (txt)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/1/23</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1454,6 +1472,99 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1481,72 +1592,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1573,33 +1618,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1997,7 +2015,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -2053,7 +2071,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2226,12 +2244,12 @@
         <v>17</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="26" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -2250,7 +2268,7 @@
     </row>
     <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="26" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2315,7 +2333,7 @@
     <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -2324,7 +2342,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -2333,7 +2351,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
@@ -2341,7 +2359,7 @@
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
@@ -2351,10 +2369,10 @@
     <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -2362,10 +2380,10 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -2373,20 +2391,20 @@
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
@@ -2395,10 +2413,10 @@
     <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -2406,10 +2424,10 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2417,20 +2435,20 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
@@ -2439,10 +2457,10 @@
     <row r="17" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -2450,7 +2468,7 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K17" s="18" t="s">
         <v>10</v>
@@ -2461,20 +2479,20 @@
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
@@ -2503,10 +2521,10 @@
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
       <c r="W18" s="18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
@@ -2535,10 +2553,10 @@
       <c r="U19" s="18"/>
       <c r="V19" s="18"/>
       <c r="W19" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="X19" s="18" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
@@ -2591,7 +2609,7 @@
     </row>
     <row r="22" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="26" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -2610,7 +2628,7 @@
     </row>
     <row r="23" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -2629,7 +2647,7 @@
     </row>
     <row r="24" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -2709,8 +2727,8 @@
     </row>
     <row r="27" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="17"/>
-      <c r="C27" s="64" t="s">
-        <v>46</v>
+      <c r="C27" s="52" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -2727,7 +2745,7 @@
       <c r="P27" s="19"/>
       <c r="R27" s="17"/>
       <c r="S27" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
@@ -2757,24 +2775,24 @@
     </row>
     <row r="28" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="17"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="67"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55"/>
       <c r="P28" s="19"/>
       <c r="R28" s="17"/>
       <c r="S28" s="18"/>
       <c r="T28" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
@@ -2803,26 +2821,26 @@
     </row>
     <row r="29" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="17"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="69"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="57"/>
       <c r="P29" s="19"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
       <c r="T29" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
@@ -2851,7 +2869,7 @@
     </row>
     <row r="30" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="17"/>
-      <c r="C30" s="68"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
@@ -2863,31 +2881,31 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
-      <c r="O30" s="69"/>
+      <c r="O30" s="57"/>
       <c r="P30" s="19"/>
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
-      <c r="U30" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="83"/>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="83"/>
-      <c r="AF30" s="83"/>
-      <c r="AG30" s="83"/>
-      <c r="AH30" s="83"/>
-      <c r="AI30" s="83"/>
-      <c r="AJ30" s="84"/>
-      <c r="AK30" s="64" t="s">
-        <v>70</v>
+      <c r="U30" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="62"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="52" t="s">
+        <v>60</v>
       </c>
       <c r="AL30" s="18"/>
       <c r="AM30" s="18"/>
@@ -2899,49 +2917,49 @@
     </row>
     <row r="31" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="17"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="87"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="69"/>
+      <c r="J31" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="57"/>
       <c r="P31" s="19"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86"/>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC31" s="86"/>
-      <c r="AD31" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE31" s="86"/>
-      <c r="AF31" s="86"/>
-      <c r="AG31" s="86"/>
-      <c r="AH31" s="86"/>
-      <c r="AI31" s="86"/>
-      <c r="AJ31" s="87"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="65"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="66"/>
       <c r="AK31" s="18"/>
       <c r="AL31" s="18"/>
       <c r="AM31" s="18"/>
@@ -2953,45 +2971,45 @@
     </row>
     <row r="32" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="17"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="81"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="69"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="57"/>
       <c r="P32" s="19"/>
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="W32" s="86"/>
-      <c r="X32" s="86"/>
-      <c r="Y32" s="86"/>
-      <c r="Z32" s="86"/>
-      <c r="AA32" s="86"/>
-      <c r="AB32" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC32" s="86"/>
-      <c r="AD32" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE32" s="86"/>
-      <c r="AF32" s="86"/>
-      <c r="AG32" s="86"/>
-      <c r="AH32" s="86"/>
-      <c r="AI32" s="86"/>
-      <c r="AJ32" s="87"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="66"/>
       <c r="AK32" s="18"/>
       <c r="AL32" s="18"/>
       <c r="AM32" s="18"/>
@@ -3003,41 +3021,41 @@
     </row>
     <row r="33" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="17"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="72"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="60"/>
       <c r="P33" s="19"/>
       <c r="R33" s="17"/>
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="W33" s="86"/>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="86"/>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="86"/>
-      <c r="AC33" s="86"/>
-      <c r="AD33" s="86"/>
-      <c r="AE33" s="86"/>
-      <c r="AF33" s="86"/>
-      <c r="AG33" s="86"/>
-      <c r="AH33" s="86"/>
-      <c r="AI33" s="86"/>
-      <c r="AJ33" s="87"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="65"/>
+      <c r="AI33" s="65"/>
+      <c r="AJ33" s="66"/>
       <c r="AK33" s="18"/>
       <c r="AL33" s="18"/>
       <c r="AM33" s="18"/>
@@ -3066,28 +3084,28 @@
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="86"/>
-      <c r="W34" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="X34" s="86"/>
-      <c r="Y34" s="86"/>
-      <c r="Z34" s="86"/>
-      <c r="AA34" s="86"/>
-      <c r="AB34" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC34" s="86"/>
-      <c r="AD34" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE34" s="86"/>
-      <c r="AF34" s="86"/>
-      <c r="AG34" s="86"/>
-      <c r="AH34" s="86"/>
-      <c r="AI34" s="86"/>
-      <c r="AJ34" s="87"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="66"/>
       <c r="AK34" s="18"/>
       <c r="AL34" s="18"/>
       <c r="AM34" s="18"/>
@@ -3100,7 +3118,7 @@
     <row r="35" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="17"/>
       <c r="C35" s="33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -3118,28 +3136,28 @@
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="86" t="s">
+      <c r="U35" s="64"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="X35" s="86"/>
-      <c r="Y35" s="86"/>
-      <c r="Z35" s="86"/>
-      <c r="AA35" s="86"/>
-      <c r="AB35" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC35" s="86"/>
-      <c r="AD35" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE35" s="86"/>
-      <c r="AF35" s="86"/>
-      <c r="AG35" s="86"/>
-      <c r="AH35" s="86"/>
-      <c r="AI35" s="86"/>
-      <c r="AJ35" s="87"/>
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="65"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="65"/>
+      <c r="AJ35" s="66"/>
       <c r="AK35" s="18"/>
       <c r="AL35" s="18"/>
       <c r="AM35" s="18"/>
@@ -3168,28 +3186,28 @@
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
-      <c r="U36" s="88"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
-      <c r="AA36" s="89"/>
-      <c r="AB36" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC36" s="89"/>
-      <c r="AD36" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE36" s="89"/>
-      <c r="AF36" s="89"/>
-      <c r="AG36" s="89"/>
-      <c r="AH36" s="89"/>
-      <c r="AI36" s="89"/>
-      <c r="AJ36" s="90"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE36" s="68"/>
+      <c r="AF36" s="68"/>
+      <c r="AG36" s="68"/>
+      <c r="AH36" s="68"/>
+      <c r="AI36" s="68"/>
+      <c r="AJ36" s="69"/>
       <c r="AK36" s="18"/>
       <c r="AL36" s="18"/>
       <c r="AM36" s="18"/>
@@ -3202,21 +3220,21 @@
     <row r="37" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="17"/>
       <c r="C37" s="37"/>
-      <c r="D37" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="44"/>
+      <c r="D37" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="54"/>
+      <c r="I37" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="72"/>
       <c r="O37" s="38"/>
       <c r="P37" s="19"/>
       <c r="R37" s="17"/>
@@ -3250,42 +3268,42 @@
     <row r="38" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="17"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="78"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
       <c r="O38" s="38"/>
       <c r="P38" s="19"/>
       <c r="R38" s="17"/>
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
-      <c r="U38" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="56"/>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="56"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
-      <c r="AJ38" s="57"/>
+      <c r="U38" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="45"/>
       <c r="AK38" s="33" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AL38" s="18"/>
       <c r="AM38" s="18"/>
@@ -3298,46 +3316,46 @@
     <row r="39" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="17"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="44"/>
+      <c r="I39" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="75"/>
       <c r="O39" s="38"/>
       <c r="P39" s="19"/>
       <c r="R39" s="17"/>
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
-      <c r="AI39" s="59"/>
-      <c r="AJ39" s="60"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="48"/>
       <c r="AK39" s="18"/>
       <c r="AL39" s="18"/>
       <c r="AM39" s="18"/>
@@ -3350,44 +3368,44 @@
     <row r="40" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="17"/>
       <c r="C40" s="37"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="50"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="18"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="50"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="81"/>
       <c r="O40" s="38"/>
       <c r="P40" s="19"/>
       <c r="R40" s="17"/>
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
-      <c r="AI40" s="59"/>
-      <c r="AJ40" s="60"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE40" s="47"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="47"/>
+      <c r="AJ40" s="48"/>
       <c r="AK40" s="18"/>
       <c r="AL40" s="18"/>
       <c r="AM40" s="18"/>
@@ -3416,24 +3434,24 @@
       <c r="R41" s="17"/>
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="59"/>
-      <c r="AH41" s="59"/>
-      <c r="AI41" s="59"/>
-      <c r="AJ41" s="60"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="W41" s="47"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="47"/>
+      <c r="AE41" s="47"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="47"/>
+      <c r="AH41" s="47"/>
+      <c r="AI41" s="47"/>
+      <c r="AJ41" s="48"/>
       <c r="AK41" s="18"/>
       <c r="AL41" s="18"/>
       <c r="AM41" s="18"/>
@@ -3446,48 +3464,48 @@
     <row r="42" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="17"/>
       <c r="C42" s="37"/>
-      <c r="D42" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
+      <c r="D42" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="75"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="54"/>
+      <c r="I42" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="72"/>
       <c r="O42" s="38"/>
       <c r="P42" s="19"/>
       <c r="R42" s="17"/>
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC42" s="59"/>
-      <c r="AD42" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE42" s="59"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="59"/>
-      <c r="AH42" s="59"/>
-      <c r="AI42" s="59"/>
-      <c r="AJ42" s="60"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE42" s="47"/>
+      <c r="AF42" s="47"/>
+      <c r="AG42" s="47"/>
+      <c r="AH42" s="47"/>
+      <c r="AI42" s="47"/>
+      <c r="AJ42" s="48"/>
       <c r="AK42" s="18"/>
       <c r="AL42" s="18"/>
       <c r="AM42" s="18"/>
@@ -3500,44 +3518,44 @@
     <row r="43" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="17"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="78"/>
       <c r="H43" s="18"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
       <c r="O43" s="38"/>
       <c r="P43" s="19"/>
       <c r="R43" s="17"/>
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
-      <c r="U43" s="61"/>
-      <c r="V43" s="62"/>
-      <c r="W43" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="62"/>
-      <c r="AH43" s="62"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="63"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC43" s="47"/>
+      <c r="AD43" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE43" s="47"/>
+      <c r="AF43" s="47"/>
+      <c r="AG43" s="47"/>
+      <c r="AH43" s="47"/>
+      <c r="AI43" s="47"/>
+      <c r="AJ43" s="48"/>
       <c r="AK43" s="18"/>
       <c r="AL43" s="18"/>
       <c r="AM43" s="18"/>
@@ -3550,40 +3568,46 @@
     <row r="44" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="78"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="44"/>
+      <c r="I44" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="75"/>
       <c r="O44" s="38"/>
       <c r="P44" s="19"/>
       <c r="R44" s="17"/>
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="18"/>
-      <c r="AI44" s="18"/>
-      <c r="AJ44" s="18"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
+      <c r="AH44" s="50"/>
+      <c r="AI44" s="50"/>
+      <c r="AJ44" s="51"/>
       <c r="AK44" s="18"/>
       <c r="AL44" s="18"/>
       <c r="AM44" s="18"/>
@@ -3596,17 +3620,17 @@
     <row r="45" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="17"/>
       <c r="C45" s="37"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="81"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="50"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="81"/>
       <c r="O45" s="38"/>
       <c r="P45" s="19"/>
       <c r="R45" s="17"/>
@@ -3621,10 +3645,8 @@
       <c r="AA45" s="18"/>
       <c r="AB45" s="18"/>
       <c r="AC45" s="18"/>
-      <c r="AD45" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE45" s="32"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="18"/>
       <c r="AF45" s="18"/>
       <c r="AG45" s="18"/>
       <c r="AH45" s="18"/>
@@ -3655,33 +3677,35 @@
       <c r="N46" s="40"/>
       <c r="O46" s="41"/>
       <c r="P46" s="19"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="24"/>
-      <c r="AI46" s="24"/>
-      <c r="AJ46" s="24"/>
-      <c r="AK46" s="24"/>
-      <c r="AL46" s="24"/>
-      <c r="AM46" s="24"/>
-      <c r="AN46" s="24"/>
-      <c r="AO46" s="24"/>
-      <c r="AP46" s="24"/>
-      <c r="AQ46" s="24"/>
-      <c r="AR46" s="25"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE46" s="32"/>
+      <c r="AF46" s="18"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="18"/>
+      <c r="AI46" s="18"/>
+      <c r="AJ46" s="18"/>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="18"/>
+      <c r="AM46" s="18"/>
+      <c r="AN46" s="18"/>
+      <c r="AO46" s="18"/>
+      <c r="AP46" s="18"/>
+      <c r="AQ46" s="18"/>
+      <c r="AR46" s="19"/>
     </row>
     <row r="47" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23"/>
@@ -3699,13 +3723,40 @@
       <c r="N47" s="24"/>
       <c r="O47" s="24"/>
       <c r="P47" s="25"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="24"/>
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24"/>
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="24"/>
+      <c r="AI47" s="24"/>
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="24"/>
+      <c r="AL47" s="24"/>
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="24"/>
+      <c r="AP47" s="24"/>
+      <c r="AQ47" s="24"/>
+      <c r="AR47" s="25"/>
     </row>
     <row r="50" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>20</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
@@ -3768,50 +3819,50 @@
     </row>
     <row r="52" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="30"/>
-      <c r="Y52" s="30"/>
-      <c r="Z52" s="30"/>
-      <c r="AA52" s="30"/>
-      <c r="AB52" s="30"/>
-      <c r="AC52" s="30"/>
-      <c r="AD52" s="30"/>
-      <c r="AE52" s="30"/>
-      <c r="AF52" s="30"/>
-      <c r="AG52" s="30"/>
-      <c r="AH52" s="30"/>
-      <c r="AI52" s="30"/>
-      <c r="AJ52" s="30"/>
-      <c r="AK52" s="30"/>
-      <c r="AL52" s="30"/>
-      <c r="AM52" s="30"/>
-      <c r="AN52" s="30"/>
-      <c r="AO52" s="30"/>
-      <c r="AP52" s="30"/>
-      <c r="AQ52" s="30"/>
-      <c r="AR52" s="30"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="53" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="30"/>
+      <c r="AG53" s="30"/>
+      <c r="AH53" s="30"/>
+      <c r="AI53" s="30"/>
+      <c r="AJ53" s="30"/>
+      <c r="AK53" s="30"/>
+      <c r="AL53" s="30"/>
+      <c r="AM53" s="30"/>
+      <c r="AN53" s="30"/>
+      <c r="AO53" s="30"/>
+      <c r="AP53" s="30"/>
+      <c r="AQ53" s="30"/>
+      <c r="AR53" s="30"/>
     </row>
     <row r="54" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3819,7 +3870,7 @@
         <v>12</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3827,7 +3878,7 @@
         <v>14</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3835,25 +3886,25 @@
         <v>13</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D29:N29"/>
+    <mergeCell ref="D31:H32"/>
+    <mergeCell ref="J31:N32"/>
     <mergeCell ref="I37:N37"/>
     <mergeCell ref="D42:G45"/>
     <mergeCell ref="I42:N42"/>
     <mergeCell ref="I44:N45"/>
     <mergeCell ref="I39:N40"/>
     <mergeCell ref="D37:G40"/>
-    <mergeCell ref="D29:N29"/>
-    <mergeCell ref="D31:H32"/>
-    <mergeCell ref="J31:N32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
+++ b/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -580,6 +580,18 @@
   </si>
   <si>
     <t>2015/1/23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObjGrpAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObjAlias</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1556,6 +1568,33 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1591,33 +1630,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2416,7 +2428,7 @@
         <v>65</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -2427,7 +2439,7 @@
         <v>65</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2438,7 +2450,7 @@
         <v>65</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
@@ -2457,10 +2469,10 @@
     <row r="17" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -2468,10 +2480,10 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
@@ -2479,10 +2491,10 @@
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
@@ -2500,22 +2512,34 @@
     </row>
     <row r="18" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
+      <c r="Q18" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
@@ -2822,19 +2846,19 @@
     <row r="29" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="17"/>
       <c r="C29" s="56"/>
-      <c r="D29" s="82" t="s">
+      <c r="D29" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="84"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
       <c r="O29" s="57"/>
       <c r="P29" s="19"/>
       <c r="R29" s="17"/>
@@ -2918,21 +2942,21 @@
     <row r="31" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="17"/>
       <c r="C31" s="56"/>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="87"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="85" t="s">
+      <c r="J31" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="87"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="75"/>
       <c r="O31" s="57"/>
       <c r="P31" s="19"/>
       <c r="R31" s="17"/>
@@ -2972,17 +2996,17 @@
     <row r="32" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="17"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="78"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="90"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="78"/>
       <c r="O32" s="57"/>
       <c r="P32" s="19"/>
       <c r="R32" s="17"/>
@@ -3220,21 +3244,21 @@
     <row r="37" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="17"/>
       <c r="C37" s="37"/>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="75"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="70" t="s">
+      <c r="I37" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="72"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="81"/>
       <c r="O37" s="38"/>
       <c r="P37" s="19"/>
       <c r="R37" s="17"/>
@@ -3268,10 +3292,10 @@
     <row r="38" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="17"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="78"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="87"/>
       <c r="H38" s="18"/>
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
@@ -3316,19 +3340,19 @@
     <row r="39" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="17"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="78"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="87"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="73" t="s">
+      <c r="I39" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="75"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="84"/>
       <c r="O39" s="38"/>
       <c r="P39" s="19"/>
       <c r="R39" s="17"/>
@@ -3368,17 +3392,17 @@
     <row r="40" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="17"/>
       <c r="C40" s="37"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="81"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="18"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="81"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="90"/>
       <c r="O40" s="38"/>
       <c r="P40" s="19"/>
       <c r="R40" s="17"/>
@@ -3464,21 +3488,21 @@
     <row r="42" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="17"/>
       <c r="C42" s="37"/>
-      <c r="D42" s="73" t="s">
+      <c r="D42" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="75"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="84"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="70" t="s">
+      <c r="I42" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="72"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="81"/>
       <c r="O42" s="38"/>
       <c r="P42" s="19"/>
       <c r="R42" s="17"/>
@@ -3518,10 +3542,10 @@
     <row r="43" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="17"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="78"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="87"/>
       <c r="H43" s="18"/>
       <c r="I43" s="42"/>
       <c r="J43" s="42"/>
@@ -3568,19 +3592,19 @@
     <row r="44" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="78"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="87"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="73" t="s">
+      <c r="I44" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="75"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="84"/>
       <c r="O44" s="38"/>
       <c r="P44" s="19"/>
       <c r="R44" s="17"/>
@@ -3620,17 +3644,17 @@
     <row r="45" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="17"/>
       <c r="C45" s="37"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="90"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="81"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="90"/>
       <c r="O45" s="38"/>
       <c r="P45" s="19"/>
       <c r="R45" s="17"/>

--- a/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
+++ b/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
@@ -15,7 +15,7 @@
     <sheet name="スクリーンオブジェクトをJSONで返却する方法" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$A$1:$AS$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$A$1:$AS$83</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -83,9 +83,6 @@
   <si>
     <t>IF</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjDtoList</t>
   </si>
   <si>
     <t>スクリーンオブジェクトをJSONで返却する方法</t>
@@ -166,10 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モバイルクライアントからウェブサーバに渡すリクエストパラメータの概要を下記にまとめる。</t>
     <rPh sb="19" eb="20">
       <t>ワタ</t>
@@ -398,10 +391,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>layoutObj04 (img)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>→</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -567,31 +556,113 @@
     <t>→</t>
   </si>
   <si>
+    <t>2015/1/23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObjGrpAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObjAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjDtoListList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjDto[0]</t>
+  </si>
+  <si>
+    <t>layoutObj04 (img)</t>
+  </si>
+  <si>
+    <t>layoutObj05 (txt)</t>
+  </si>
+  <si>
     <t>screenObjDto[2]</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>layoutObj06 (list)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj05 (txt)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2015/1/23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutAlias</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObjGrpAlias</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObjAlias</t>
+  </si>
+  <si>
+    <t>attDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attDto[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像パス</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト文</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attDto[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attDto[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト文01</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト文02</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト文03</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjDtoList[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjDtoList[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenObjDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>displayNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>displayNum</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -652,7 +723,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,8 +760,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -868,66 +945,9 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF0000FF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0000FF"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF0000FF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="mediumDashed">
         <color rgb="FF0000FF"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0000FF"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -939,28 +959,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0000FF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF0000FF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0000FF"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1001,15 +999,6 @@
         <color rgb="FF0000FF"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0000FF"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1351,13 +1340,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1472,164 +1702,272 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1639,8 +1977,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFCCCCFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFCCFFCC"/>
@@ -1925,9 +2264,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT58"/>
+  <dimension ref="A1:AT84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -1945,7 +2284,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -2027,7 +2366,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -2083,7 +2422,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2253,15 +2592,15 @@
     </row>
     <row r="8" spans="1:46" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -2280,7 +2619,7 @@
     </row>
     <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2340,12 +2679,18 @@
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
-      <c r="AA13" s="13"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="13"/>
     </row>
     <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -2354,7 +2699,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -2362,29 +2707,37 @@
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
-      <c r="Q14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
+      <c r="Q14" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="126"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="126"/>
+      <c r="U14" s="126"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
-      <c r="AA14" s="19"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="19"/>
     </row>
     <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -2392,43 +2745,53 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
-      <c r="Q15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="R15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
+      <c r="Q15" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="S15" s="126"/>
+      <c r="T15" s="126"/>
+      <c r="U15" s="126"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
-      <c r="AA15" s="19"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="19"/>
     </row>
     <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -2436,43 +2799,53 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
-      <c r="Q16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
+      <c r="Q16" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="S16" s="126"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="126"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
-      <c r="AA16" s="19"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="19"/>
     </row>
     <row r="17" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -2480,43 +2853,49 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
-      <c r="Q17" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
-      <c r="AA17" s="19"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="19"/>
     </row>
     <row r="18" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -2524,35 +2903,41 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>74</v>
-      </c>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
       <c r="W18" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
-      <c r="AA18" s="19"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD18" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="19"/>
     </row>
     <row r="19" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="17"/>
@@ -2576,65 +2961,96 @@
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
       <c r="V19" s="18"/>
-      <c r="W19" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="X19" s="18" t="s">
-        <v>73</v>
-      </c>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
-      <c r="AA19" s="19"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD19" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="19"/>
     </row>
     <row r="20" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="25"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD20" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="19"/>
     </row>
     <row r="21" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="25"/>
     </row>
     <row r="22" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="26" t="s">
-        <v>66</v>
-      </c>
+      <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -2651,8 +3067,8 @@
       <c r="P22" s="26"/>
     </row>
     <row r="23" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
-        <v>45</v>
+      <c r="B23" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -2671,7 +3087,7 @@
     </row>
     <row r="24" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -2689,7 +3105,9 @@
       <c r="P24" s="26"/>
     </row>
     <row r="25" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="26"/>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -2706,118 +3124,89 @@
       <c r="P25" s="26"/>
     </row>
     <row r="26" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
-      <c r="AN26" s="12"/>
-      <c r="AO26" s="12"/>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="13"/>
-    </row>
-    <row r="27" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="19"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="18"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="18"/>
-      <c r="AO27" s="18"/>
-      <c r="AP27" s="18"/>
-      <c r="AQ27" s="18"/>
-      <c r="AR27" s="19"/>
-    </row>
-    <row r="28" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+    </row>
+    <row r="27" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="13"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="13"/>
+    </row>
+    <row r="28" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="55"/>
+      <c r="C28" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
       <c r="P28" s="19"/>
       <c r="R28" s="17"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="S28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="18"/>
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
@@ -2845,26 +3234,24 @@
     </row>
     <row r="29" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="17"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="57"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="54"/>
       <c r="P29" s="19"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
       <c r="T29" s="18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
@@ -2893,44 +3280,44 @@
     </row>
     <row r="30" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="17"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="57"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="56"/>
       <c r="P30" s="19"/>
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="62"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="52" t="s">
-        <v>60</v>
-      </c>
+      <c r="T30" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
       <c r="AL30" s="18"/>
       <c r="AM30" s="18"/>
       <c r="AN30" s="18"/>
@@ -2941,50 +3328,44 @@
     </row>
     <row r="31" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="17"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="57"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="56"/>
       <c r="P31" s="19"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65" t="s">
+      <c r="U31" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="62"/>
+      <c r="AK31" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-      <c r="AG31" s="65"/>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="65"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="18"/>
       <c r="AL31" s="18"/>
       <c r="AM31" s="18"/>
       <c r="AN31" s="18"/>
@@ -2995,45 +3376,49 @@
     </row>
     <row r="32" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="17"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="57"/>
+      <c r="J32" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="56"/>
       <c r="P32" s="19"/>
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="65"/>
-      <c r="AB32" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="65" t="s">
+      <c r="U32" s="63"/>
+      <c r="V32" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="64"/>
+      <c r="AC32" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="65"/>
-      <c r="AG32" s="65"/>
-      <c r="AH32" s="65"/>
-      <c r="AI32" s="65"/>
-      <c r="AJ32" s="66"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="65"/>
       <c r="AK32" s="18"/>
       <c r="AL32" s="18"/>
       <c r="AM32" s="18"/>
@@ -3043,43 +3428,47 @@
       <c r="AQ32" s="18"/>
       <c r="AR32" s="19"/>
     </row>
-    <row r="33" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="17"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="60"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="56"/>
       <c r="P33" s="19"/>
       <c r="R33" s="17"/>
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="65"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="65"/>
-      <c r="AF33" s="65"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="65"/>
-      <c r="AJ33" s="66"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="64"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="65"/>
       <c r="AK33" s="18"/>
       <c r="AL33" s="18"/>
       <c r="AM33" s="18"/>
@@ -3089,47 +3478,43 @@
       <c r="AQ33" s="18"/>
       <c r="AR33" s="19"/>
     </row>
-    <row r="34" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="59"/>
       <c r="P34" s="19"/>
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="65"/>
-      <c r="AG34" s="65"/>
-      <c r="AH34" s="65"/>
-      <c r="AI34" s="65"/>
-      <c r="AJ34" s="66"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="64"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="64"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="65"/>
       <c r="AK34" s="18"/>
       <c r="AL34" s="18"/>
       <c r="AM34" s="18"/>
@@ -3139,11 +3524,9 @@
       <c r="AQ34" s="18"/>
       <c r="AR34" s="19"/>
     </row>
-    <row r="35" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="17"/>
-      <c r="C35" s="33" t="s">
-        <v>37</v>
-      </c>
+      <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
@@ -3160,28 +3543,24 @@
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="65"/>
-      <c r="AI35" s="65"/>
-      <c r="AJ35" s="66"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="65"/>
       <c r="AK35" s="18"/>
       <c r="AL35" s="18"/>
       <c r="AM35" s="18"/>
@@ -3191,47 +3570,49 @@
       <c r="AQ35" s="18"/>
       <c r="AR35" s="19"/>
     </row>
-    <row r="36" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="36"/>
+      <c r="C36" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
       <c r="P36" s="19"/>
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="68"/>
-      <c r="AB36" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE36" s="68"/>
-      <c r="AF36" s="68"/>
-      <c r="AG36" s="68"/>
-      <c r="AH36" s="68"/>
-      <c r="AI36" s="68"/>
-      <c r="AJ36" s="69"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="64"/>
+      <c r="AC36" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="64"/>
+      <c r="AH36" s="64"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="65"/>
       <c r="AK36" s="18"/>
       <c r="AL36" s="18"/>
       <c r="AM36" s="18"/>
@@ -3241,45 +3622,47 @@
       <c r="AQ36" s="18"/>
       <c r="AR36" s="19"/>
     </row>
-    <row r="37" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="17"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="38"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="36"/>
       <c r="P37" s="19"/>
       <c r="R37" s="17"/>
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="18"/>
-      <c r="AF37" s="18"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="18"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
+      <c r="AC37" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD37" s="64"/>
+      <c r="AE37" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="65"/>
       <c r="AK37" s="18"/>
       <c r="AL37" s="18"/>
       <c r="AM37" s="18"/>
@@ -3292,43 +3675,49 @@
     <row r="38" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="17"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
+      <c r="D38" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="116"/>
       <c r="O38" s="38"/>
       <c r="P38" s="19"/>
       <c r="R38" s="17"/>
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
-      <c r="U38" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="44"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="44"/>
-      <c r="AI38" s="44"/>
-      <c r="AJ38" s="45"/>
-      <c r="AK38" s="33" t="s">
-        <v>61</v>
-      </c>
+      <c r="U38" s="66"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD38" s="67"/>
+      <c r="AE38" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF38" s="67"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="67"/>
+      <c r="AI38" s="67"/>
+      <c r="AJ38" s="68"/>
+      <c r="AK38" s="18"/>
       <c r="AL38" s="18"/>
       <c r="AM38" s="18"/>
       <c r="AN38" s="18"/>
@@ -3340,46 +3729,38 @@
     <row r="39" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="17"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="87"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="84"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="118"/>
       <c r="O39" s="38"/>
       <c r="P39" s="19"/>
       <c r="R39" s="17"/>
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="48"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
       <c r="AK39" s="18"/>
       <c r="AL39" s="18"/>
       <c r="AM39" s="18"/>
@@ -3392,45 +3773,45 @@
     <row r="40" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="17"/>
       <c r="C40" s="37"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="90"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
       <c r="H40" s="18"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="90"/>
+      <c r="I40" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="119"/>
       <c r="O40" s="38"/>
       <c r="P40" s="19"/>
       <c r="R40" s="17"/>
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="W40" s="47"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="47"/>
-      <c r="Z40" s="47"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="47"/>
-      <c r="AI40" s="47"/>
-      <c r="AJ40" s="48"/>
-      <c r="AK40" s="18"/>
+      <c r="U40" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="43"/>
+      <c r="AH40" s="43"/>
+      <c r="AI40" s="43"/>
+      <c r="AJ40" s="44"/>
+      <c r="AK40" s="33" t="s">
+        <v>58</v>
+      </c>
       <c r="AL40" s="18"/>
       <c r="AM40" s="18"/>
       <c r="AN40" s="18"/>
@@ -3439,43 +3820,47 @@
       <c r="AQ40" s="18"/>
       <c r="AR40" s="19"/>
     </row>
-    <row r="41" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="17"/>
       <c r="C41" s="37"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="121"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="121"/>
+      <c r="N41" s="123"/>
       <c r="O41" s="38"/>
       <c r="P41" s="19"/>
       <c r="R41" s="17"/>
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="47"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="47"/>
-      <c r="AH41" s="47"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="48"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AA41" s="46"/>
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD41" s="46"/>
+      <c r="AE41" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF41" s="46"/>
+      <c r="AG41" s="46"/>
+      <c r="AH41" s="46"/>
+      <c r="AI41" s="46"/>
+      <c r="AJ41" s="47"/>
       <c r="AK41" s="18"/>
       <c r="AL41" s="18"/>
       <c r="AM41" s="18"/>
@@ -3485,51 +3870,47 @@
       <c r="AQ41" s="18"/>
       <c r="AR41" s="19"/>
     </row>
-    <row r="42" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B42" s="17"/>
       <c r="C42" s="37"/>
-      <c r="D42" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="84"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="81"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
       <c r="O42" s="38"/>
       <c r="P42" s="19"/>
       <c r="R42" s="17"/>
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="47"/>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47" t="s">
+      <c r="U42" s="45"/>
+      <c r="V42" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="46"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="47"/>
-      <c r="AH42" s="47"/>
-      <c r="AI42" s="47"/>
-      <c r="AJ42" s="48"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="46"/>
+      <c r="AH42" s="46"/>
+      <c r="AI42" s="46"/>
+      <c r="AJ42" s="47"/>
       <c r="AK42" s="18"/>
       <c r="AL42" s="18"/>
       <c r="AM42" s="18"/>
@@ -3539,47 +3920,47 @@
       <c r="AQ42" s="18"/>
       <c r="AR42" s="19"/>
     </row>
-    <row r="43" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="17"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
+      <c r="D43" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="104"/>
       <c r="O43" s="38"/>
       <c r="P43" s="19"/>
       <c r="R43" s="17"/>
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="X43" s="47"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="47"/>
-      <c r="AA43" s="47"/>
-      <c r="AB43" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC43" s="47"/>
-      <c r="AD43" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE43" s="47"/>
-      <c r="AF43" s="47"/>
-      <c r="AG43" s="47"/>
-      <c r="AH43" s="47"/>
-      <c r="AI43" s="47"/>
-      <c r="AJ43" s="48"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="46"/>
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="46"/>
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="46"/>
+      <c r="AI43" s="46"/>
+      <c r="AJ43" s="47"/>
       <c r="AK43" s="18"/>
       <c r="AL43" s="18"/>
       <c r="AM43" s="18"/>
@@ -3592,46 +3973,40 @@
     <row r="44" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="87"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="81"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="84"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="95"/>
       <c r="O44" s="38"/>
       <c r="P44" s="19"/>
       <c r="R44" s="17"/>
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="50"/>
-      <c r="Z44" s="50"/>
-      <c r="AA44" s="50"/>
-      <c r="AB44" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC44" s="50"/>
-      <c r="AD44" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE44" s="50"/>
-      <c r="AF44" s="50"/>
-      <c r="AG44" s="50"/>
-      <c r="AH44" s="50"/>
-      <c r="AI44" s="50"/>
-      <c r="AJ44" s="51"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="X44" s="106"/>
+      <c r="Y44" s="106"/>
+      <c r="Z44" s="106"/>
+      <c r="AA44" s="106"/>
+      <c r="AB44" s="106"/>
+      <c r="AC44" s="106"/>
+      <c r="AD44" s="106"/>
+      <c r="AE44" s="106"/>
+      <c r="AF44" s="106"/>
+      <c r="AG44" s="106"/>
+      <c r="AH44" s="106"/>
+      <c r="AI44" s="107"/>
+      <c r="AJ44" s="47"/>
       <c r="AK44" s="18"/>
       <c r="AL44" s="18"/>
       <c r="AM44" s="18"/>
@@ -3644,38 +4019,46 @@
     <row r="45" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="17"/>
       <c r="C45" s="37"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="90"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="81"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="90"/>
+      <c r="I45" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="124"/>
       <c r="O45" s="38"/>
       <c r="P45" s="19"/>
       <c r="R45" s="17"/>
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="18"/>
-      <c r="AA45" s="18"/>
-      <c r="AB45" s="18"/>
-      <c r="AC45" s="18"/>
-      <c r="AD45" s="18"/>
-      <c r="AE45" s="18"/>
-      <c r="AF45" s="18"/>
-      <c r="AG45" s="18"/>
-      <c r="AH45" s="18"/>
-      <c r="AI45" s="18"/>
-      <c r="AJ45" s="18"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="46"/>
+      <c r="AB45" s="46"/>
+      <c r="AC45" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD45" s="46"/>
+      <c r="AE45" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF45" s="46"/>
+      <c r="AG45" s="46"/>
+      <c r="AH45" s="46"/>
+      <c r="AI45" s="109"/>
+      <c r="AJ45" s="47"/>
       <c r="AK45" s="18"/>
       <c r="AL45" s="18"/>
       <c r="AM45" s="18"/>
@@ -3687,41 +4070,41 @@
     </row>
     <row r="46" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B46" s="17"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="41"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="38"/>
       <c r="P46" s="19"/>
       <c r="R46" s="17"/>
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="18"/>
-      <c r="AA46" s="18"/>
-      <c r="AB46" s="18"/>
-      <c r="AC46" s="18"/>
-      <c r="AD46" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE46" s="32"/>
-      <c r="AF46" s="18"/>
-      <c r="AG46" s="18"/>
-      <c r="AH46" s="18"/>
-      <c r="AI46" s="18"/>
-      <c r="AJ46" s="18"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="108"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z46" s="46"/>
+      <c r="AA46" s="46"/>
+      <c r="AB46" s="46"/>
+      <c r="AC46" s="46"/>
+      <c r="AD46" s="46"/>
+      <c r="AE46" s="46"/>
+      <c r="AF46" s="46"/>
+      <c r="AG46" s="46"/>
+      <c r="AH46" s="46"/>
+      <c r="AI46" s="109"/>
+      <c r="AJ46" s="47"/>
       <c r="AK46" s="18"/>
       <c r="AL46" s="18"/>
       <c r="AM46" s="18"/>
@@ -3731,204 +4114,1007 @@
       <c r="AQ46" s="18"/>
       <c r="AR46" s="19"/>
     </row>
-    <row r="47" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="25"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24"/>
-      <c r="AI47" s="24"/>
-      <c r="AJ47" s="24"/>
-      <c r="AK47" s="24"/>
-      <c r="AL47" s="24"/>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24"/>
-      <c r="AQ47" s="24"/>
-      <c r="AR47" s="25"/>
-    </row>
-    <row r="50" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="29" t="s">
+    <row r="47" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="17"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="19"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="108"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA47" s="46"/>
+      <c r="AB47" s="46"/>
+      <c r="AC47" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD47" s="46"/>
+      <c r="AE47" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF47" s="46"/>
+      <c r="AG47" s="46"/>
+      <c r="AH47" s="46"/>
+      <c r="AI47" s="109"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="18"/>
+      <c r="AL47" s="18"/>
+      <c r="AM47" s="18"/>
+      <c r="AN47" s="18"/>
+      <c r="AO47" s="18"/>
+      <c r="AP47" s="18"/>
+      <c r="AQ47" s="18"/>
+      <c r="AR47" s="19"/>
+    </row>
+    <row r="48" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="25"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="108"/>
+      <c r="X48" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD48" s="46"/>
+      <c r="AE48" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF48" s="46"/>
+      <c r="AG48" s="46"/>
+      <c r="AH48" s="46"/>
+      <c r="AI48" s="109"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="18"/>
+      <c r="AL48" s="18"/>
+      <c r="AM48" s="18"/>
+      <c r="AN48" s="18"/>
+      <c r="AO48" s="18"/>
+      <c r="AP48" s="18"/>
+      <c r="AQ48" s="18"/>
+      <c r="AR48" s="19"/>
+    </row>
+    <row r="49" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R49" s="17"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="108"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="46"/>
+      <c r="AD49" s="46"/>
+      <c r="AE49" s="46"/>
+      <c r="AF49" s="46"/>
+      <c r="AG49" s="46"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="109"/>
+      <c r="AJ49" s="47"/>
+      <c r="AK49" s="18"/>
+      <c r="AL49" s="18"/>
+      <c r="AM49" s="18"/>
+      <c r="AN49" s="18"/>
+      <c r="AO49" s="18"/>
+      <c r="AP49" s="18"/>
+      <c r="AQ49" s="18"/>
+      <c r="AR49" s="19"/>
+    </row>
+    <row r="50" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R50" s="17"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="108"/>
+      <c r="X50" s="46"/>
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA50" s="46"/>
+      <c r="AB50" s="46"/>
+      <c r="AC50" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD50" s="46"/>
+      <c r="AE50" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF50" s="46"/>
+      <c r="AG50" s="46"/>
+      <c r="AH50" s="46"/>
+      <c r="AI50" s="109"/>
+      <c r="AJ50" s="47"/>
+      <c r="AK50" s="18"/>
+      <c r="AL50" s="18"/>
+      <c r="AM50" s="18"/>
+      <c r="AN50" s="18"/>
+      <c r="AO50" s="18"/>
+      <c r="AP50" s="18"/>
+      <c r="AQ50" s="18"/>
+      <c r="AR50" s="19"/>
+    </row>
+    <row r="51" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R51" s="17"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="108"/>
+      <c r="X51" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="46"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD51" s="46"/>
+      <c r="AE51" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="46"/>
+      <c r="AH51" s="46"/>
+      <c r="AI51" s="109"/>
+      <c r="AJ51" s="47"/>
+      <c r="AK51" s="18"/>
+      <c r="AL51" s="18"/>
+      <c r="AM51" s="18"/>
+      <c r="AN51" s="18"/>
+      <c r="AO51" s="18"/>
+      <c r="AP51" s="18"/>
+      <c r="AQ51" s="18"/>
+      <c r="AR51" s="19"/>
+    </row>
+    <row r="52" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R52" s="17"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="108"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="46"/>
+      <c r="AB52" s="46"/>
+      <c r="AC52" s="46"/>
+      <c r="AD52" s="46"/>
+      <c r="AE52" s="46"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="46"/>
+      <c r="AH52" s="46"/>
+      <c r="AI52" s="109"/>
+      <c r="AJ52" s="47"/>
+      <c r="AK52" s="18"/>
+      <c r="AL52" s="18"/>
+      <c r="AM52" s="18"/>
+      <c r="AN52" s="18"/>
+      <c r="AO52" s="18"/>
+      <c r="AP52" s="18"/>
+      <c r="AQ52" s="18"/>
+      <c r="AR52" s="19"/>
+    </row>
+    <row r="53" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R53" s="17"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="108"/>
+      <c r="X53" s="46"/>
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA53" s="46"/>
+      <c r="AB53" s="46"/>
+      <c r="AC53" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD53" s="46"/>
+      <c r="AE53" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF53" s="46"/>
+      <c r="AG53" s="46"/>
+      <c r="AH53" s="46"/>
+      <c r="AI53" s="109"/>
+      <c r="AJ53" s="47"/>
+      <c r="AK53" s="18"/>
+      <c r="AL53" s="18"/>
+      <c r="AM53" s="18"/>
+      <c r="AN53" s="18"/>
+      <c r="AO53" s="18"/>
+      <c r="AP53" s="18"/>
+      <c r="AQ53" s="18"/>
+      <c r="AR53" s="19"/>
+    </row>
+    <row r="54" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R54" s="17"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="108"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA54" s="46"/>
+      <c r="AB54" s="46"/>
+      <c r="AC54" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD54" s="46"/>
+      <c r="AE54" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF54" s="46"/>
+      <c r="AG54" s="46"/>
+      <c r="AH54" s="46"/>
+      <c r="AI54" s="109"/>
+      <c r="AJ54" s="47"/>
+      <c r="AK54" s="18"/>
+      <c r="AL54" s="18"/>
+      <c r="AM54" s="18"/>
+      <c r="AN54" s="18"/>
+      <c r="AO54" s="18"/>
+      <c r="AP54" s="18"/>
+      <c r="AQ54" s="18"/>
+      <c r="AR54" s="19"/>
+    </row>
+    <row r="55" spans="18:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="R55" s="17"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="110"/>
+      <c r="X55" s="111"/>
+      <c r="Y55" s="111"/>
+      <c r="Z55" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA55" s="111"/>
+      <c r="AB55" s="111"/>
+      <c r="AC55" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD55" s="111"/>
+      <c r="AE55" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF55" s="111"/>
+      <c r="AG55" s="111"/>
+      <c r="AH55" s="111"/>
+      <c r="AI55" s="112"/>
+      <c r="AJ55" s="47"/>
+      <c r="AK55" s="18"/>
+      <c r="AL55" s="18"/>
+      <c r="AM55" s="18"/>
+      <c r="AN55" s="18"/>
+      <c r="AO55" s="18"/>
+      <c r="AP55" s="18"/>
+      <c r="AQ55" s="18"/>
+      <c r="AR55" s="19"/>
+    </row>
+    <row r="56" spans="18:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="R56" s="17"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="46"/>
+      <c r="AB56" s="46"/>
+      <c r="AC56" s="46"/>
+      <c r="AD56" s="46"/>
+      <c r="AE56" s="46"/>
+      <c r="AF56" s="46"/>
+      <c r="AG56" s="46"/>
+      <c r="AH56" s="46"/>
+      <c r="AI56" s="46"/>
+      <c r="AJ56" s="47"/>
+      <c r="AK56" s="18"/>
+      <c r="AL56" s="18"/>
+      <c r="AM56" s="18"/>
+      <c r="AN56" s="18"/>
+      <c r="AO56" s="18"/>
+      <c r="AP56" s="18"/>
+      <c r="AQ56" s="18"/>
+      <c r="AR56" s="19"/>
+    </row>
+    <row r="57" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R57" s="17"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="X57" s="84"/>
+      <c r="Y57" s="84"/>
+      <c r="Z57" s="84"/>
+      <c r="AA57" s="84"/>
+      <c r="AB57" s="84"/>
+      <c r="AC57" s="84"/>
+      <c r="AD57" s="84"/>
+      <c r="AE57" s="84"/>
+      <c r="AF57" s="84"/>
+      <c r="AG57" s="84"/>
+      <c r="AH57" s="84"/>
+      <c r="AI57" s="85"/>
+      <c r="AJ57" s="47"/>
+      <c r="AK57" s="18"/>
+      <c r="AL57" s="18"/>
+      <c r="AM57" s="18"/>
+      <c r="AN57" s="18"/>
+      <c r="AO57" s="18"/>
+      <c r="AP57" s="18"/>
+      <c r="AQ57" s="18"/>
+      <c r="AR57" s="19"/>
+    </row>
+    <row r="58" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R58" s="17"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="86"/>
+      <c r="X58" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="46"/>
+      <c r="AA58" s="46"/>
+      <c r="AB58" s="46"/>
+      <c r="AC58" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD58" s="46"/>
+      <c r="AE58" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF58" s="46"/>
+      <c r="AG58" s="46"/>
+      <c r="AH58" s="46"/>
+      <c r="AI58" s="87"/>
+      <c r="AJ58" s="47"/>
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="18"/>
+      <c r="AM58" s="18"/>
+      <c r="AN58" s="18"/>
+      <c r="AO58" s="18"/>
+      <c r="AP58" s="18"/>
+      <c r="AQ58" s="18"/>
+      <c r="AR58" s="19"/>
+    </row>
+    <row r="59" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R59" s="17"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="86"/>
+      <c r="X59" s="46"/>
+      <c r="Y59" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z59" s="46"/>
+      <c r="AA59" s="46"/>
+      <c r="AB59" s="46"/>
+      <c r="AC59" s="46"/>
+      <c r="AD59" s="46"/>
+      <c r="AE59" s="46"/>
+      <c r="AF59" s="46"/>
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="46"/>
+      <c r="AI59" s="87"/>
+      <c r="AJ59" s="47"/>
+      <c r="AK59" s="18"/>
+      <c r="AL59" s="18"/>
+      <c r="AM59" s="18"/>
+      <c r="AN59" s="18"/>
+      <c r="AO59" s="18"/>
+      <c r="AP59" s="18"/>
+      <c r="AQ59" s="18"/>
+      <c r="AR59" s="19"/>
+    </row>
+    <row r="60" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R60" s="17"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="86"/>
+      <c r="X60" s="46"/>
+      <c r="Y60" s="46"/>
+      <c r="Z60" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA60" s="46"/>
+      <c r="AB60" s="46"/>
+      <c r="AC60" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD60" s="46"/>
+      <c r="AE60" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF60" s="46"/>
+      <c r="AG60" s="46"/>
+      <c r="AH60" s="46"/>
+      <c r="AI60" s="87"/>
+      <c r="AJ60" s="47"/>
+      <c r="AK60" s="18"/>
+      <c r="AL60" s="18"/>
+      <c r="AM60" s="18"/>
+      <c r="AN60" s="18"/>
+      <c r="AO60" s="18"/>
+      <c r="AP60" s="18"/>
+      <c r="AQ60" s="18"/>
+      <c r="AR60" s="19"/>
+    </row>
+    <row r="61" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R61" s="17"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="86"/>
+      <c r="X61" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y61" s="46"/>
+      <c r="Z61" s="46"/>
+      <c r="AA61" s="46"/>
+      <c r="AB61" s="46"/>
+      <c r="AC61" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD61" s="46"/>
+      <c r="AE61" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF61" s="46"/>
+      <c r="AG61" s="46"/>
+      <c r="AH61" s="46"/>
+      <c r="AI61" s="87"/>
+      <c r="AJ61" s="47"/>
+      <c r="AK61" s="18"/>
+      <c r="AL61" s="18"/>
+      <c r="AM61" s="18"/>
+      <c r="AN61" s="18"/>
+      <c r="AO61" s="18"/>
+      <c r="AP61" s="18"/>
+      <c r="AQ61" s="18"/>
+      <c r="AR61" s="19"/>
+    </row>
+    <row r="62" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R62" s="17"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="86"/>
+      <c r="X62" s="46"/>
+      <c r="Y62" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z62" s="46"/>
+      <c r="AA62" s="46"/>
+      <c r="AB62" s="46"/>
+      <c r="AC62" s="46"/>
+      <c r="AD62" s="46"/>
+      <c r="AE62" s="46"/>
+      <c r="AF62" s="46"/>
+      <c r="AG62" s="46"/>
+      <c r="AH62" s="46"/>
+      <c r="AI62" s="87"/>
+      <c r="AJ62" s="47"/>
+      <c r="AK62" s="18"/>
+      <c r="AL62" s="18"/>
+      <c r="AM62" s="18"/>
+      <c r="AN62" s="18"/>
+      <c r="AO62" s="18"/>
+      <c r="AP62" s="18"/>
+      <c r="AQ62" s="18"/>
+      <c r="AR62" s="19"/>
+    </row>
+    <row r="63" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R63" s="17"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="86"/>
+      <c r="X63" s="46"/>
+      <c r="Y63" s="46"/>
+      <c r="Z63" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA63" s="46"/>
+      <c r="AB63" s="46"/>
+      <c r="AC63" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD63" s="46"/>
+      <c r="AE63" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF63" s="46"/>
+      <c r="AG63" s="46"/>
+      <c r="AH63" s="46"/>
+      <c r="AI63" s="87"/>
+      <c r="AJ63" s="47"/>
+      <c r="AK63" s="18"/>
+      <c r="AL63" s="18"/>
+      <c r="AM63" s="18"/>
+      <c r="AN63" s="18"/>
+      <c r="AO63" s="18"/>
+      <c r="AP63" s="18"/>
+      <c r="AQ63" s="18"/>
+      <c r="AR63" s="19"/>
+    </row>
+    <row r="64" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R64" s="17"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="86"/>
+      <c r="X64" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y64" s="46"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="46"/>
+      <c r="AB64" s="46"/>
+      <c r="AC64" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD64" s="46"/>
+      <c r="AE64" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF64" s="46"/>
+      <c r="AG64" s="46"/>
+      <c r="AH64" s="46"/>
+      <c r="AI64" s="87"/>
+      <c r="AJ64" s="47"/>
+      <c r="AK64" s="18"/>
+      <c r="AL64" s="18"/>
+      <c r="AM64" s="18"/>
+      <c r="AN64" s="18"/>
+      <c r="AO64" s="18"/>
+      <c r="AP64" s="18"/>
+      <c r="AQ64" s="18"/>
+      <c r="AR64" s="19"/>
+    </row>
+    <row r="65" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R65" s="17"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="86"/>
+      <c r="X65" s="46"/>
+      <c r="Y65" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z65" s="46"/>
+      <c r="AA65" s="46"/>
+      <c r="AB65" s="46"/>
+      <c r="AC65" s="46"/>
+      <c r="AD65" s="46"/>
+      <c r="AE65" s="46"/>
+      <c r="AF65" s="46"/>
+      <c r="AG65" s="46"/>
+      <c r="AH65" s="46"/>
+      <c r="AI65" s="87"/>
+      <c r="AJ65" s="47"/>
+      <c r="AK65" s="18"/>
+      <c r="AL65" s="18"/>
+      <c r="AM65" s="18"/>
+      <c r="AN65" s="18"/>
+      <c r="AO65" s="18"/>
+      <c r="AP65" s="18"/>
+      <c r="AQ65" s="18"/>
+      <c r="AR65" s="19"/>
+    </row>
+    <row r="66" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R66" s="17"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="86"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="46"/>
+      <c r="Z66" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA66" s="46"/>
+      <c r="AB66" s="46"/>
+      <c r="AC66" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD66" s="46"/>
+      <c r="AE66" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF66" s="46"/>
+      <c r="AG66" s="46"/>
+      <c r="AH66" s="46"/>
+      <c r="AI66" s="87"/>
+      <c r="AJ66" s="47"/>
+      <c r="AK66" s="18"/>
+      <c r="AL66" s="18"/>
+      <c r="AM66" s="18"/>
+      <c r="AN66" s="18"/>
+      <c r="AO66" s="18"/>
+      <c r="AP66" s="18"/>
+      <c r="AQ66" s="18"/>
+      <c r="AR66" s="19"/>
+    </row>
+    <row r="67" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R67" s="17"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="86"/>
+      <c r="X67" s="46"/>
+      <c r="Y67" s="46"/>
+      <c r="Z67" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA67" s="46"/>
+      <c r="AB67" s="46"/>
+      <c r="AC67" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD67" s="46"/>
+      <c r="AE67" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF67" s="46"/>
+      <c r="AG67" s="46"/>
+      <c r="AH67" s="46"/>
+      <c r="AI67" s="87"/>
+      <c r="AJ67" s="47"/>
+      <c r="AK67" s="18"/>
+      <c r="AL67" s="18"/>
+      <c r="AM67" s="18"/>
+      <c r="AN67" s="18"/>
+      <c r="AO67" s="18"/>
+      <c r="AP67" s="18"/>
+      <c r="AQ67" s="18"/>
+      <c r="AR67" s="19"/>
+    </row>
+    <row r="68" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="R68" s="17"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="45"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="88"/>
+      <c r="X68" s="89"/>
+      <c r="Y68" s="89"/>
+      <c r="Z68" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA68" s="89"/>
+      <c r="AB68" s="89"/>
+      <c r="AC68" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD68" s="89"/>
+      <c r="AE68" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF68" s="89"/>
+      <c r="AG68" s="89"/>
+      <c r="AH68" s="89"/>
+      <c r="AI68" s="90"/>
+      <c r="AJ68" s="47"/>
+      <c r="AK68" s="18"/>
+      <c r="AL68" s="18"/>
+      <c r="AM68" s="18"/>
+      <c r="AN68" s="18"/>
+      <c r="AO68" s="18"/>
+      <c r="AP68" s="18"/>
+      <c r="AQ68" s="18"/>
+      <c r="AR68" s="19"/>
+    </row>
+    <row r="69" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R69" s="17"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="49"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="49"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+      <c r="AD69" s="49"/>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="49"/>
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="49"/>
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="50"/>
+      <c r="AK69" s="18"/>
+      <c r="AL69" s="18"/>
+      <c r="AM69" s="18"/>
+      <c r="AN69" s="18"/>
+      <c r="AO69" s="18"/>
+      <c r="AP69" s="18"/>
+      <c r="AQ69" s="18"/>
+      <c r="AR69" s="19"/>
+    </row>
+    <row r="70" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R70" s="17"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="18"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="18"/>
+      <c r="X70" s="18"/>
+      <c r="Y70" s="18"/>
+      <c r="Z70" s="18"/>
+      <c r="AA70" s="18"/>
+      <c r="AB70" s="18"/>
+      <c r="AC70" s="18"/>
+      <c r="AD70" s="18"/>
+      <c r="AE70" s="18"/>
+      <c r="AF70" s="18"/>
+      <c r="AG70" s="18"/>
+      <c r="AH70" s="18"/>
+      <c r="AI70" s="18"/>
+      <c r="AJ70" s="18"/>
+      <c r="AK70" s="18"/>
+      <c r="AL70" s="18"/>
+      <c r="AM70" s="18"/>
+      <c r="AN70" s="18"/>
+      <c r="AO70" s="18"/>
+      <c r="AP70" s="18"/>
+      <c r="AQ70" s="18"/>
+      <c r="AR70" s="19"/>
+      <c r="AS70" s="30"/>
+    </row>
+    <row r="71" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R71" s="17"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="18"/>
+      <c r="V71" s="18"/>
+      <c r="W71" s="18"/>
+      <c r="X71" s="18"/>
+      <c r="Y71" s="18"/>
+      <c r="Z71" s="18"/>
+      <c r="AA71" s="18"/>
+      <c r="AB71" s="18"/>
+      <c r="AC71" s="18"/>
+      <c r="AD71" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE71" s="32"/>
+      <c r="AF71" s="18"/>
+      <c r="AG71" s="18"/>
+      <c r="AH71" s="18"/>
+      <c r="AI71" s="18"/>
+      <c r="AJ71" s="18"/>
+      <c r="AK71" s="18"/>
+      <c r="AL71" s="18"/>
+      <c r="AM71" s="18"/>
+      <c r="AN71" s="18"/>
+      <c r="AO71" s="18"/>
+      <c r="AP71" s="18"/>
+      <c r="AQ71" s="18"/>
+      <c r="AR71" s="19"/>
+    </row>
+    <row r="72" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R72" s="23"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="24"/>
+      <c r="AB72" s="24"/>
+      <c r="AC72" s="24"/>
+      <c r="AD72" s="24"/>
+      <c r="AE72" s="24"/>
+      <c r="AF72" s="24"/>
+      <c r="AG72" s="24"/>
+      <c r="AH72" s="24"/>
+      <c r="AI72" s="24"/>
+      <c r="AJ72" s="24"/>
+      <c r="AK72" s="24"/>
+      <c r="AL72" s="24"/>
+      <c r="AM72" s="24"/>
+      <c r="AN72" s="24"/>
+      <c r="AO72" s="24"/>
+      <c r="AP72" s="24"/>
+      <c r="AQ72" s="24"/>
+      <c r="AR72" s="25"/>
+    </row>
+    <row r="75" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="30"/>
+    </row>
+    <row r="76" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q76" s="30"/>
+    </row>
+    <row r="77" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="30" t="s">
+    </row>
+    <row r="78" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-    </row>
-    <row r="51" spans="1:44" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
-      <c r="AM51" s="1"/>
-      <c r="AN51" s="1"/>
-      <c r="AO51" s="1"/>
-      <c r="AP51" s="1"/>
-      <c r="AQ51" s="1"/>
-      <c r="AR51" s="1"/>
-    </row>
-    <row r="52" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="30"/>
-      <c r="Y53" s="30"/>
-      <c r="Z53" s="30"/>
-      <c r="AA53" s="30"/>
-      <c r="AB53" s="30"/>
-      <c r="AC53" s="30"/>
-      <c r="AD53" s="30"/>
-      <c r="AE53" s="30"/>
-      <c r="AF53" s="30"/>
-      <c r="AG53" s="30"/>
-      <c r="AH53" s="30"/>
-      <c r="AI53" s="30"/>
-      <c r="AJ53" s="30"/>
-      <c r="AK53" s="30"/>
-      <c r="AL53" s="30"/>
-      <c r="AM53" s="30"/>
-      <c r="AN53" s="30"/>
-      <c r="AO53" s="30"/>
-      <c r="AP53" s="30"/>
-      <c r="AQ53" s="30"/>
-      <c r="AR53" s="30"/>
-    </row>
-    <row r="54" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="1" t="s">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="84" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R84" s="30"/>
+      <c r="S84" s="30"/>
+      <c r="T84" s="30"/>
+      <c r="U84" s="30"/>
+      <c r="V84" s="30"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="30"/>
+      <c r="AA84" s="30"/>
+      <c r="AB84" s="30"/>
+      <c r="AC84" s="30"/>
+      <c r="AD84" s="30"/>
+      <c r="AE84" s="30"/>
+      <c r="AF84" s="30"/>
+      <c r="AG84" s="30"/>
+      <c r="AH84" s="30"/>
+      <c r="AI84" s="30"/>
+      <c r="AJ84" s="30"/>
+      <c r="AK84" s="30"/>
+      <c r="AL84" s="30"/>
+      <c r="AM84" s="30"/>
+      <c r="AN84" s="30"/>
+      <c r="AO84" s="30"/>
+      <c r="AP84" s="30"/>
+      <c r="AQ84" s="30"/>
+      <c r="AR84" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D29:N29"/>
-    <mergeCell ref="D31:H32"/>
-    <mergeCell ref="J31:N32"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="D42:G45"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I44:N45"/>
-    <mergeCell ref="I39:N40"/>
-    <mergeCell ref="D37:G40"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="D32:H33"/>
+    <mergeCell ref="J32:N33"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I45:N46"/>
+    <mergeCell ref="I40:N41"/>
+    <mergeCell ref="D38:G41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
+++ b/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -232,10 +232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ScreenObjGrpDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>layoutObjGrpId</t>
   </si>
   <si>
@@ -285,20 +281,6 @@
   <si>
     <t>layoutObj03
 (img)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj04
-(img)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj05 (txt)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj06
-(list)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -556,10 +538,6 @@
     <t>→</t>
   </si>
   <si>
-    <t>2015/1/23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>layoutAlias</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -569,10 +547,6 @@
   </si>
   <si>
     <t>layoutObjAlias</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjDtoListList</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -642,27 +616,60 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>screenObjDtoList[0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjDtoList[1]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ScreenObjDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>displayNum</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>displayNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjGrpDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenObjGrpDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenObjBunchDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjBunchDtoList</t>
+  </si>
+  <si>
+    <t>screenObjBunchDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjBunchDto[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjBunchDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjBunchDto[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj04
+(img)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj05 (txt)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj06
+(list)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/1/26</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -670,7 +677,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,8 +729,38 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,12 +781,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCECFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -762,12 +793,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFDDEBF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -1342,145 +1373,6 @@
     </border>
     <border>
       <left style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF0000FF"/>
-      </right>
-      <top style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF0000FF"/>
-      </right>
-      <top/>
-      <bottom style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0000FF"/>
-      </left>
-      <right/>
-      <top style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
         <color theme="9" tint="-0.24994659260841701"/>
       </left>
       <right/>
@@ -1561,8 +1453,8 @@
     </border>
     <border>
       <left/>
-      <right style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
       </right>
       <top style="thin">
         <color rgb="FF0000FF"/>
@@ -1576,8 +1468,154 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="7" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="7" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="7" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="7" tint="-0.499984740745262"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="7" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="7" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="7" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="7" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="mediumDashed">
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color theme="7" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="7" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="7" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="7" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1587,7 +1625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1714,259 +1752,277 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1977,9 +2033,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDDEBF7"/>
       <color rgb="FF0000FF"/>
+      <color rgb="FFCCCCFF"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FFCCCCFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFCCFFCC"/>
@@ -2264,9 +2321,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT84"/>
+  <dimension ref="A1:AT91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -2366,7 +2423,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -2422,7 +2479,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="31" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2595,12 +2652,12 @@
         <v>16</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -2619,7 +2676,7 @@
     </row>
     <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2699,7 +2756,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -2707,16 +2764,16 @@
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
-      <c r="Q14" s="126" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="126"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="126"/>
-      <c r="U14" s="126"/>
+      <c r="Q14" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
@@ -2724,7 +2781,7 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AD14" s="18"/>
       <c r="AE14" s="18"/>
@@ -2734,7 +2791,7 @@
     <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>22</v>
@@ -2745,41 +2802,41 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
-      <c r="Q15" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="R15" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="S15" s="126"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126"/>
+      <c r="Q15" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
       <c r="AC15" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD15" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="AD15" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="AE15" s="18"/>
       <c r="AF15" s="18"/>
@@ -2788,10 +2845,10 @@
     <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -2799,50 +2856,50 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
-      <c r="Q16" s="126" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="S16" s="126"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="126"/>
+      <c r="Q16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AD16" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AE16" s="18"/>
       <c r="AF16" s="18"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>23</v>
@@ -2853,10 +2910,10 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
@@ -2870,32 +2927,32 @@
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AD17" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AE17" s="18"/>
       <c r="AF17" s="18"/>
       <c r="AG17" s="19"/>
     </row>
-    <row r="18" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -2903,10 +2960,10 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -2920,26 +2977,26 @@
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
       <c r="W18" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
       <c r="AA18" s="18"/>
       <c r="AB18" s="18"/>
       <c r="AC18" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AD18" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AE18" s="18"/>
       <c r="AF18" s="18"/>
       <c r="AG18" s="19"/>
     </row>
-    <row r="19" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -2968,16 +3025,16 @@
       <c r="AA19" s="18"/>
       <c r="AB19" s="18"/>
       <c r="AC19" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AD19" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AE19" s="18"/>
       <c r="AF19" s="18"/>
       <c r="AG19" s="19"/>
     </row>
-    <row r="20" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -3006,16 +3063,16 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
       <c r="AC20" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AD20" s="18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AE20" s="18"/>
       <c r="AF20" s="18"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -3049,7 +3106,7 @@
       <c r="AF21" s="24"/>
       <c r="AG21" s="25"/>
     </row>
-    <row r="22" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -3066,9 +3123,9 @@
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
     </row>
-    <row r="23" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -3085,9 +3142,9 @@
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
     </row>
-    <row r="24" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -3104,9 +3161,9 @@
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
     </row>
-    <row r="25" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -3123,7 +3180,7 @@
       <c r="O25" s="26"/>
       <c r="P25" s="26"/>
     </row>
-    <row r="26" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -3140,7 +3197,7 @@
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
     </row>
-    <row r="27" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -3155,10 +3212,10 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="13"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="13"/>
+      <c r="T27" s="11"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
@@ -3182,12 +3239,13 @@
       <c r="AO27" s="12"/>
       <c r="AP27" s="12"/>
       <c r="AQ27" s="12"/>
-      <c r="AR27" s="13"/>
-    </row>
-    <row r="28" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="13"/>
+    </row>
+    <row r="28" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
       <c r="C28" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -3201,13 +3259,13 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="18" t="s">
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="19"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
       <c r="X28" s="18"/>
@@ -3230,31 +3288,32 @@
       <c r="AO28" s="18"/>
       <c r="AP28" s="18"/>
       <c r="AQ28" s="18"/>
-      <c r="AR28" s="19"/>
-    </row>
-    <row r="29" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR28" s="18"/>
+      <c r="AS28" s="19"/>
+    </row>
+    <row r="29" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="17"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="19"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18" t="s">
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="19"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
       <c r="W29" s="18"/>
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
@@ -3276,33 +3335,34 @@
       <c r="AO29" s="18"/>
       <c r="AP29" s="18"/>
       <c r="AQ29" s="18"/>
-      <c r="AR29" s="19"/>
-    </row>
-    <row r="30" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR29" s="18"/>
+      <c r="AS29" s="19"/>
+    </row>
+    <row r="30" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="17"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="19"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18" t="s">
+      <c r="C30" s="80"/>
+      <c r="D30" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="19"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
       <c r="W30" s="18"/>
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
@@ -3324,207 +3384,212 @@
       <c r="AO30" s="18"/>
       <c r="AP30" s="18"/>
       <c r="AQ30" s="18"/>
-      <c r="AR30" s="19"/>
-    </row>
-    <row r="31" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR30" s="18"/>
+      <c r="AS30" s="19"/>
+    </row>
+    <row r="31" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="17"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="19"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="61"/>
-      <c r="AA31" s="61"/>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="61"/>
-      <c r="AD31" s="61"/>
-      <c r="AE31" s="61"/>
-      <c r="AF31" s="61"/>
-      <c r="AG31" s="61"/>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL31" s="18"/>
-      <c r="AM31" s="18"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="19"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="56"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="51" t="s">
+        <v>53</v>
+      </c>
       <c r="AN31" s="18"/>
       <c r="AO31" s="18"/>
       <c r="AP31" s="18"/>
       <c r="AQ31" s="18"/>
-      <c r="AR31" s="19"/>
-    </row>
-    <row r="32" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR31" s="18"/>
+      <c r="AS31" s="19"/>
+    </row>
+    <row r="32" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="17"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="72" t="s">
+      <c r="C32" s="80"/>
+      <c r="D32" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="19"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="65"/>
-      <c r="AK32" s="18"/>
-      <c r="AL32" s="18"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="19"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="59"/>
+      <c r="AJ32" s="59"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="60"/>
       <c r="AM32" s="18"/>
       <c r="AN32" s="18"/>
       <c r="AO32" s="18"/>
       <c r="AP32" s="18"/>
       <c r="AQ32" s="18"/>
-      <c r="AR32" s="19"/>
-    </row>
-    <row r="33" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR32" s="18"/>
+      <c r="AS32" s="19"/>
+    </row>
+    <row r="33" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="17"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="19"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="64"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="64"/>
-      <c r="AH33" s="64"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="65"/>
-      <c r="AK33" s="18"/>
-      <c r="AL33" s="18"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="19"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="60"/>
       <c r="AM33" s="18"/>
       <c r="AN33" s="18"/>
       <c r="AO33" s="18"/>
       <c r="AP33" s="18"/>
       <c r="AQ33" s="18"/>
-      <c r="AR33" s="19"/>
-    </row>
-    <row r="34" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AR33" s="18"/>
+      <c r="AS33" s="19"/>
+    </row>
+    <row r="34" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="17"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="19"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="W34" s="82"/>
-      <c r="X34" s="82"/>
-      <c r="Y34" s="82"/>
-      <c r="Z34" s="82"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="18"/>
-      <c r="AL34" s="18"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="19"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="60"/>
       <c r="AM34" s="18"/>
       <c r="AN34" s="18"/>
       <c r="AO34" s="18"/>
       <c r="AP34" s="18"/>
       <c r="AQ34" s="18"/>
-      <c r="AR34" s="19"/>
-    </row>
-    <row r="35" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR34" s="18"/>
+      <c r="AS34" s="19"/>
+    </row>
+    <row r="35" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -3539,41 +3604,42 @@
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
-      <c r="P35" s="19"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="63"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="64"/>
-      <c r="AC35" s="64"/>
-      <c r="AD35" s="64"/>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="64"/>
-      <c r="AH35" s="64"/>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="65"/>
-      <c r="AK35" s="18"/>
-      <c r="AL35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="19"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="60"/>
       <c r="AM35" s="18"/>
       <c r="AN35" s="18"/>
       <c r="AO35" s="18"/>
       <c r="AP35" s="18"/>
       <c r="AQ35" s="18"/>
-      <c r="AR35" s="19"/>
-    </row>
-    <row r="36" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AR35" s="18"/>
+      <c r="AS35" s="19"/>
+    </row>
+    <row r="36" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
       <c r="C36" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3587,42 +3653,43 @@
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
-      <c r="P36" s="19"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64" t="s">
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="19"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="64"/>
-      <c r="AB36" s="64"/>
-      <c r="AC36" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="64"/>
-      <c r="AH36" s="64"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="65"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="18"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="60"/>
       <c r="AM36" s="18"/>
       <c r="AN36" s="18"/>
       <c r="AO36" s="18"/>
       <c r="AP36" s="18"/>
       <c r="AQ36" s="18"/>
-      <c r="AR36" s="19"/>
-    </row>
-    <row r="37" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AR36" s="18"/>
+      <c r="AS36" s="19"/>
+    </row>
+    <row r="37" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="17"/>
       <c r="C37" s="34"/>
       <c r="D37" s="35"/>
@@ -3636,115 +3703,115 @@
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="19"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="63"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="64"/>
-      <c r="AC37" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64" t="s">
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="19"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="64"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="65"/>
-      <c r="AK37" s="18"/>
-      <c r="AL37" s="18"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="60"/>
       <c r="AM37" s="18"/>
       <c r="AN37" s="18"/>
       <c r="AO37" s="18"/>
       <c r="AP37" s="18"/>
       <c r="AQ37" s="18"/>
-      <c r="AR37" s="19"/>
-    </row>
-    <row r="38" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR37" s="18"/>
+      <c r="AS37" s="19"/>
+    </row>
+    <row r="38" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="17"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="19"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y38" s="67"/>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="67"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF38" s="67"/>
-      <c r="AG38" s="67"/>
-      <c r="AH38" s="67"/>
-      <c r="AI38" s="67"/>
-      <c r="AJ38" s="68"/>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="18"/>
+      <c r="D38" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="19"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="62"/>
+      <c r="AE38" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF38" s="62"/>
+      <c r="AG38" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH38" s="62"/>
+      <c r="AI38" s="62"/>
+      <c r="AJ38" s="62"/>
+      <c r="AK38" s="62"/>
+      <c r="AL38" s="63"/>
       <c r="AM38" s="18"/>
       <c r="AN38" s="18"/>
       <c r="AO38" s="18"/>
       <c r="AP38" s="18"/>
       <c r="AQ38" s="18"/>
-      <c r="AR38" s="19"/>
-    </row>
-    <row r="39" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR38" s="18"/>
+      <c r="AS38" s="19"/>
+    </row>
+    <row r="39" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="17"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="19"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="19"/>
+      <c r="T39" s="17"/>
       <c r="U39" s="18"/>
       <c r="V39" s="18"/>
       <c r="W39" s="18"/>
@@ -3768,34 +3835,37 @@
       <c r="AO39" s="18"/>
       <c r="AP39" s="18"/>
       <c r="AQ39" s="18"/>
-      <c r="AR39" s="19"/>
-    </row>
-    <row r="40" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR39" s="18"/>
+      <c r="AS39" s="19"/>
+    </row>
+    <row r="40" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="17"/>
       <c r="C40" s="37"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="19"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="19"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="42" t="s">
+        <v>69</v>
+      </c>
       <c r="X40" s="43"/>
       <c r="Y40" s="43"/>
       <c r="Z40" s="43"/>
@@ -3808,294 +3878,296 @@
       <c r="AG40" s="43"/>
       <c r="AH40" s="43"/>
       <c r="AI40" s="43"/>
-      <c r="AJ40" s="44"/>
-      <c r="AK40" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL40" s="18"/>
-      <c r="AM40" s="18"/>
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="43"/>
+      <c r="AL40" s="44"/>
+      <c r="AM40" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="AN40" s="18"/>
       <c r="AO40" s="18"/>
       <c r="AP40" s="18"/>
       <c r="AQ40" s="18"/>
-      <c r="AR40" s="19"/>
-    </row>
-    <row r="41" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AR40" s="18"/>
+      <c r="AS40" s="19"/>
+    </row>
+    <row r="41" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="17"/>
       <c r="C41" s="37"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="121"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="121"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="19"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="19"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="46" t="s">
+        <v>27</v>
+      </c>
       <c r="Y41" s="46"/>
       <c r="Z41" s="46"/>
       <c r="AA41" s="46"/>
       <c r="AB41" s="46"/>
-      <c r="AC41" s="46" t="s">
-        <v>54</v>
-      </c>
+      <c r="AC41" s="46"/>
       <c r="AD41" s="46"/>
       <c r="AE41" s="46" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF41" s="46"/>
-      <c r="AG41" s="46"/>
+      <c r="AG41" s="46" t="s">
+        <v>51</v>
+      </c>
       <c r="AH41" s="46"/>
       <c r="AI41" s="46"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="18"/>
-      <c r="AL41" s="18"/>
+      <c r="AJ41" s="46"/>
+      <c r="AK41" s="46"/>
+      <c r="AL41" s="47"/>
       <c r="AM41" s="18"/>
       <c r="AN41" s="18"/>
       <c r="AO41" s="18"/>
       <c r="AP41" s="18"/>
       <c r="AQ41" s="18"/>
-      <c r="AR41" s="19"/>
-    </row>
-    <row r="42" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AR41" s="18"/>
+      <c r="AS41" s="19"/>
+    </row>
+    <row r="42" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="17"/>
       <c r="C42" s="37"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="100"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="19"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
+      <c r="J42" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="19"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="46" t="s">
+        <v>29</v>
+      </c>
       <c r="Y42" s="46"/>
       <c r="Z42" s="46"/>
       <c r="AA42" s="46"/>
       <c r="AB42" s="46"/>
-      <c r="AC42" s="46" t="s">
-        <v>54</v>
-      </c>
+      <c r="AC42" s="46"/>
       <c r="AD42" s="46"/>
       <c r="AE42" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AF42" s="46"/>
-      <c r="AG42" s="46"/>
+      <c r="AG42" s="46" t="s">
+        <v>52</v>
+      </c>
       <c r="AH42" s="46"/>
       <c r="AI42" s="46"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="18"/>
-      <c r="AL42" s="18"/>
+      <c r="AJ42" s="46"/>
+      <c r="AK42" s="46"/>
+      <c r="AL42" s="47"/>
       <c r="AM42" s="18"/>
       <c r="AN42" s="18"/>
       <c r="AO42" s="18"/>
       <c r="AP42" s="18"/>
       <c r="AQ42" s="18"/>
-      <c r="AR42" s="19"/>
-    </row>
-    <row r="43" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AR42" s="18"/>
+      <c r="AS42" s="19"/>
+    </row>
+    <row r="43" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="17"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="19"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="46"/>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="46"/>
-      <c r="AE43" s="46"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="19"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="132" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y43" s="132"/>
+      <c r="Z43" s="132"/>
+      <c r="AA43" s="132"/>
+      <c r="AB43" s="132"/>
+      <c r="AC43" s="132"/>
+      <c r="AD43" s="132"/>
+      <c r="AE43" s="132"/>
       <c r="AF43" s="46"/>
       <c r="AG43" s="46"/>
       <c r="AH43" s="46"/>
       <c r="AI43" s="46"/>
-      <c r="AJ43" s="47"/>
-      <c r="AK43" s="18"/>
-      <c r="AL43" s="18"/>
+      <c r="AJ43" s="46"/>
+      <c r="AK43" s="46"/>
+      <c r="AL43" s="47"/>
       <c r="AM43" s="18"/>
       <c r="AN43" s="18"/>
       <c r="AO43" s="18"/>
       <c r="AP43" s="18"/>
       <c r="AQ43" s="18"/>
-      <c r="AR43" s="19"/>
-    </row>
-    <row r="44" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR43" s="18"/>
+      <c r="AS43" s="19"/>
+    </row>
+    <row r="44" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="19"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="105" t="s">
-        <v>96</v>
-      </c>
-      <c r="X44" s="106"/>
-      <c r="Y44" s="106"/>
-      <c r="Z44" s="106"/>
-      <c r="AA44" s="106"/>
-      <c r="AB44" s="106"/>
-      <c r="AC44" s="106"/>
-      <c r="AD44" s="106"/>
-      <c r="AE44" s="106"/>
-      <c r="AF44" s="106"/>
-      <c r="AG44" s="106"/>
-      <c r="AH44" s="106"/>
-      <c r="AI44" s="107"/>
-      <c r="AJ44" s="47"/>
-      <c r="AK44" s="18"/>
-      <c r="AL44" s="18"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="19"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z44" s="65"/>
+      <c r="AA44" s="65"/>
+      <c r="AB44" s="65"/>
+      <c r="AC44" s="65"/>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="65"/>
+      <c r="AG44" s="65"/>
+      <c r="AH44" s="65"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="65"/>
+      <c r="AK44" s="66"/>
+      <c r="AL44" s="47"/>
       <c r="AM44" s="18"/>
       <c r="AN44" s="18"/>
       <c r="AO44" s="18"/>
       <c r="AP44" s="18"/>
       <c r="AQ44" s="18"/>
-      <c r="AR44" s="19"/>
-    </row>
-    <row r="45" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR44" s="18"/>
+      <c r="AS44" s="19"/>
+    </row>
+    <row r="45" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="17"/>
       <c r="C45" s="37"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="124"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="19"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="45"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="108"/>
-      <c r="X45" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="46"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="19"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="46"/>
+      <c r="Y45" s="67"/>
+      <c r="Z45" s="46" t="s">
+        <v>76</v>
+      </c>
       <c r="AA45" s="46"/>
       <c r="AB45" s="46"/>
-      <c r="AC45" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AC45" s="46"/>
       <c r="AD45" s="46"/>
       <c r="AE45" s="46" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AF45" s="46"/>
-      <c r="AG45" s="46"/>
+      <c r="AG45" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="AH45" s="46"/>
-      <c r="AI45" s="109"/>
-      <c r="AJ45" s="47"/>
-      <c r="AK45" s="18"/>
-      <c r="AL45" s="18"/>
+      <c r="AI45" s="46"/>
+      <c r="AJ45" s="46"/>
+      <c r="AK45" s="68"/>
+      <c r="AL45" s="47"/>
       <c r="AM45" s="18"/>
       <c r="AN45" s="18"/>
       <c r="AO45" s="18"/>
       <c r="AP45" s="18"/>
       <c r="AQ45" s="18"/>
-      <c r="AR45" s="19"/>
-    </row>
-    <row r="46" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AR45" s="18"/>
+      <c r="AS45" s="19"/>
+    </row>
+    <row r="46" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="17"/>
       <c r="C46" s="37"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="97"/>
-      <c r="M46" s="97"/>
-      <c r="N46" s="99"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="19"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="108"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="19"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="45"/>
       <c r="X46" s="46"/>
-      <c r="Y46" s="46" t="s">
-        <v>87</v>
-      </c>
+      <c r="Y46" s="67"/>
       <c r="Z46" s="46"/>
-      <c r="AA46" s="46"/>
+      <c r="AA46" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="AB46" s="46"/>
       <c r="AC46" s="46"/>
       <c r="AD46" s="46"/>
@@ -4103,130 +4175,154 @@
       <c r="AF46" s="46"/>
       <c r="AG46" s="46"/>
       <c r="AH46" s="46"/>
-      <c r="AI46" s="109"/>
-      <c r="AJ46" s="47"/>
-      <c r="AK46" s="18"/>
-      <c r="AL46" s="18"/>
+      <c r="AI46" s="46"/>
+      <c r="AJ46" s="46"/>
+      <c r="AK46" s="68"/>
+      <c r="AL46" s="47"/>
       <c r="AM46" s="18"/>
       <c r="AN46" s="18"/>
       <c r="AO46" s="18"/>
       <c r="AP46" s="18"/>
       <c r="AQ46" s="18"/>
-      <c r="AR46" s="19"/>
-    </row>
-    <row r="47" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AR46" s="18"/>
+      <c r="AS46" s="19"/>
+    </row>
+    <row r="47" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="17"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="19"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="108"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="19"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="45"/>
       <c r="X47" s="46"/>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="46" t="s">
-        <v>88</v>
-      </c>
+      <c r="Y47" s="67"/>
+      <c r="Z47" s="46"/>
       <c r="AA47" s="46"/>
-      <c r="AB47" s="46"/>
-      <c r="AC47" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AB47" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC47" s="46"/>
       <c r="AD47" s="46"/>
       <c r="AE47" s="46" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="AF47" s="46"/>
-      <c r="AG47" s="46"/>
+      <c r="AG47" s="46" t="s">
+        <v>83</v>
+      </c>
       <c r="AH47" s="46"/>
-      <c r="AI47" s="109"/>
-      <c r="AJ47" s="47"/>
-      <c r="AK47" s="18"/>
-      <c r="AL47" s="18"/>
+      <c r="AI47" s="46"/>
+      <c r="AJ47" s="46"/>
+      <c r="AK47" s="68"/>
+      <c r="AL47" s="47"/>
       <c r="AM47" s="18"/>
       <c r="AN47" s="18"/>
       <c r="AO47" s="18"/>
       <c r="AP47" s="18"/>
       <c r="AQ47" s="18"/>
-      <c r="AR47" s="19"/>
-    </row>
-    <row r="48" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="25"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="45"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="108"/>
-      <c r="X48" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
+      <c r="AR47" s="18"/>
+      <c r="AS47" s="19"/>
+    </row>
+    <row r="48" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="17"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="110"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="110"/>
+      <c r="O48" s="110"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="19"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="67"/>
+      <c r="Z48" s="46" t="s">
+        <v>71</v>
+      </c>
       <c r="AA48" s="46"/>
       <c r="AB48" s="46"/>
-      <c r="AC48" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AC48" s="46"/>
       <c r="AD48" s="46"/>
       <c r="AE48" s="46" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AF48" s="46"/>
-      <c r="AG48" s="46"/>
+      <c r="AG48" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="AH48" s="46"/>
-      <c r="AI48" s="109"/>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="18"/>
-      <c r="AL48" s="18"/>
+      <c r="AI48" s="46"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="68"/>
+      <c r="AL48" s="47"/>
       <c r="AM48" s="18"/>
       <c r="AN48" s="18"/>
       <c r="AO48" s="18"/>
       <c r="AP48" s="18"/>
       <c r="AQ48" s="18"/>
-      <c r="AR48" s="19"/>
-    </row>
-    <row r="49" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R49" s="17"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="108"/>
+      <c r="AR48" s="18"/>
+      <c r="AS48" s="19"/>
+    </row>
+    <row r="49" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="17"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="106"/>
+      <c r="P49" s="113"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="19"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="46"/>
-      <c r="Y49" s="46" t="s">
-        <v>87</v>
-      </c>
+      <c r="Y49" s="67"/>
       <c r="Z49" s="46"/>
-      <c r="AA49" s="46"/>
+      <c r="AA49" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="AB49" s="46"/>
       <c r="AC49" s="46"/>
       <c r="AD49" s="46"/>
@@ -4234,100 +4330,150 @@
       <c r="AF49" s="46"/>
       <c r="AG49" s="46"/>
       <c r="AH49" s="46"/>
-      <c r="AI49" s="109"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="18"/>
-      <c r="AL49" s="18"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="46"/>
+      <c r="AK49" s="68"/>
+      <c r="AL49" s="47"/>
       <c r="AM49" s="18"/>
       <c r="AN49" s="18"/>
       <c r="AO49" s="18"/>
       <c r="AP49" s="18"/>
       <c r="AQ49" s="18"/>
-      <c r="AR49" s="19"/>
-    </row>
-    <row r="50" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R50" s="17"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="108"/>
+      <c r="AR49" s="18"/>
+      <c r="AS49" s="19"/>
+    </row>
+    <row r="50" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="17"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="113"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="19"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="46"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="46" t="s">
-        <v>88</v>
-      </c>
+      <c r="Y50" s="67"/>
+      <c r="Z50" s="46"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="46"/>
-      <c r="AC50" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AB50" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC50" s="46"/>
       <c r="AD50" s="46"/>
       <c r="AE50" s="46" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AF50" s="46"/>
-      <c r="AG50" s="46"/>
+      <c r="AG50" s="46" t="s">
+        <v>84</v>
+      </c>
       <c r="AH50" s="46"/>
-      <c r="AI50" s="109"/>
-      <c r="AJ50" s="47"/>
-      <c r="AK50" s="18"/>
-      <c r="AL50" s="18"/>
+      <c r="AI50" s="46"/>
+      <c r="AJ50" s="46"/>
+      <c r="AK50" s="68"/>
+      <c r="AL50" s="47"/>
       <c r="AM50" s="18"/>
       <c r="AN50" s="18"/>
       <c r="AO50" s="18"/>
       <c r="AP50" s="18"/>
       <c r="AQ50" s="18"/>
-      <c r="AR50" s="19"/>
-    </row>
-    <row r="51" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R51" s="17"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="108"/>
-      <c r="X51" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y51" s="46"/>
-      <c r="Z51" s="46"/>
+      <c r="AR50" s="18"/>
+      <c r="AS50" s="19"/>
+    </row>
+    <row r="51" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="17"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" s="96"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="96"/>
+      <c r="O51" s="97"/>
+      <c r="P51" s="113"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="19"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="67"/>
+      <c r="Z51" s="46" t="s">
+        <v>79</v>
+      </c>
       <c r="AA51" s="46"/>
       <c r="AB51" s="46"/>
-      <c r="AC51" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AC51" s="46"/>
       <c r="AD51" s="46"/>
       <c r="AE51" s="46" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="AF51" s="46"/>
-      <c r="AG51" s="46"/>
+      <c r="AG51" s="46" t="s">
+        <v>80</v>
+      </c>
       <c r="AH51" s="46"/>
-      <c r="AI51" s="109"/>
-      <c r="AJ51" s="47"/>
-      <c r="AK51" s="18"/>
-      <c r="AL51" s="18"/>
+      <c r="AI51" s="46"/>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="68"/>
+      <c r="AL51" s="47"/>
       <c r="AM51" s="18"/>
       <c r="AN51" s="18"/>
       <c r="AO51" s="18"/>
       <c r="AP51" s="18"/>
       <c r="AQ51" s="18"/>
-      <c r="AR51" s="19"/>
-    </row>
-    <row r="52" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R52" s="17"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="108"/>
+      <c r="AR51" s="18"/>
+      <c r="AS51" s="19"/>
+    </row>
+    <row r="52" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="17"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="99"/>
+      <c r="M52" s="99"/>
+      <c r="N52" s="99"/>
+      <c r="O52" s="100"/>
+      <c r="P52" s="113"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="19"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="46"/>
-      <c r="Y52" s="46" t="s">
-        <v>87</v>
-      </c>
+      <c r="Y52" s="67"/>
       <c r="Z52" s="46"/>
-      <c r="AA52" s="46"/>
+      <c r="AA52" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="AB52" s="46"/>
       <c r="AC52" s="46"/>
       <c r="AD52" s="46"/>
@@ -4335,129 +4481,193 @@
       <c r="AF52" s="46"/>
       <c r="AG52" s="46"/>
       <c r="AH52" s="46"/>
-      <c r="AI52" s="109"/>
-      <c r="AJ52" s="47"/>
-      <c r="AK52" s="18"/>
-      <c r="AL52" s="18"/>
+      <c r="AI52" s="46"/>
+      <c r="AJ52" s="46"/>
+      <c r="AK52" s="68"/>
+      <c r="AL52" s="47"/>
       <c r="AM52" s="18"/>
       <c r="AN52" s="18"/>
       <c r="AO52" s="18"/>
       <c r="AP52" s="18"/>
       <c r="AQ52" s="18"/>
-      <c r="AR52" s="19"/>
-    </row>
-    <row r="53" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R53" s="17"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="108"/>
+      <c r="AR52" s="18"/>
+      <c r="AS52" s="19"/>
+    </row>
+    <row r="53" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="17"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="103"/>
+      <c r="P53" s="113"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="19"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="46"/>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="46" t="s">
-        <v>88</v>
-      </c>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="46"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="46"/>
-      <c r="AC53" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AB53" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC53" s="46"/>
       <c r="AD53" s="46"/>
       <c r="AE53" s="46" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AF53" s="46"/>
-      <c r="AG53" s="46"/>
+      <c r="AG53" s="46" t="s">
+        <v>87</v>
+      </c>
       <c r="AH53" s="46"/>
-      <c r="AI53" s="109"/>
-      <c r="AJ53" s="47"/>
-      <c r="AK53" s="18"/>
-      <c r="AL53" s="18"/>
+      <c r="AI53" s="46"/>
+      <c r="AJ53" s="46"/>
+      <c r="AK53" s="68"/>
+      <c r="AL53" s="47"/>
       <c r="AM53" s="18"/>
       <c r="AN53" s="18"/>
       <c r="AO53" s="18"/>
       <c r="AP53" s="18"/>
       <c r="AQ53" s="18"/>
-      <c r="AR53" s="19"/>
-    </row>
-    <row r="54" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R54" s="17"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="108"/>
+      <c r="AR53" s="18"/>
+      <c r="AS53" s="19"/>
+    </row>
+    <row r="54" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="17"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="117"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="117"/>
+      <c r="L54" s="117"/>
+      <c r="M54" s="117"/>
+      <c r="N54" s="117"/>
+      <c r="O54" s="117"/>
+      <c r="P54" s="118"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="19"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="46"/>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="46" t="s">
-        <v>91</v>
-      </c>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="46"/>
       <c r="AA54" s="46"/>
-      <c r="AB54" s="46"/>
-      <c r="AC54" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AB54" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC54" s="46"/>
       <c r="AD54" s="46"/>
       <c r="AE54" s="46" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AF54" s="46"/>
-      <c r="AG54" s="46"/>
+      <c r="AG54" s="46" t="s">
+        <v>88</v>
+      </c>
       <c r="AH54" s="46"/>
-      <c r="AI54" s="109"/>
-      <c r="AJ54" s="47"/>
-      <c r="AK54" s="18"/>
-      <c r="AL54" s="18"/>
+      <c r="AI54" s="46"/>
+      <c r="AJ54" s="46"/>
+      <c r="AK54" s="68"/>
+      <c r="AL54" s="47"/>
       <c r="AM54" s="18"/>
       <c r="AN54" s="18"/>
       <c r="AO54" s="18"/>
       <c r="AP54" s="18"/>
       <c r="AQ54" s="18"/>
-      <c r="AR54" s="19"/>
-    </row>
-    <row r="55" spans="18:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="R55" s="17"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="110"/>
-      <c r="X55" s="111"/>
-      <c r="Y55" s="111"/>
-      <c r="Z55" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA55" s="111"/>
-      <c r="AB55" s="111"/>
-      <c r="AC55" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD55" s="111"/>
-      <c r="AE55" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF55" s="111"/>
-      <c r="AG55" s="111"/>
-      <c r="AH55" s="111"/>
-      <c r="AI55" s="112"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="18"/>
-      <c r="AL55" s="18"/>
+      <c r="AR54" s="18"/>
+      <c r="AS54" s="19"/>
+    </row>
+    <row r="55" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="17"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="19"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="45"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="69"/>
+      <c r="Z55" s="70"/>
+      <c r="AA55" s="70"/>
+      <c r="AB55" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC55" s="70"/>
+      <c r="AD55" s="70"/>
+      <c r="AE55" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF55" s="70"/>
+      <c r="AG55" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH55" s="70"/>
+      <c r="AI55" s="70"/>
+      <c r="AJ55" s="70"/>
+      <c r="AK55" s="71"/>
+      <c r="AL55" s="47"/>
       <c r="AM55" s="18"/>
       <c r="AN55" s="18"/>
       <c r="AO55" s="18"/>
       <c r="AP55" s="18"/>
       <c r="AQ55" s="18"/>
-      <c r="AR55" s="19"/>
-    </row>
-    <row r="56" spans="18:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="R56" s="17"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="45"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
+      <c r="AR55" s="18"/>
+      <c r="AS55" s="19"/>
+    </row>
+    <row r="56" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="25"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="45"/>
       <c r="X56" s="46"/>
       <c r="Y56" s="46"/>
       <c r="Z56" s="46"/>
@@ -4470,95 +4680,92 @@
       <c r="AG56" s="46"/>
       <c r="AH56" s="46"/>
       <c r="AI56" s="46"/>
-      <c r="AJ56" s="47"/>
-      <c r="AK56" s="18"/>
-      <c r="AL56" s="18"/>
+      <c r="AJ56" s="46"/>
+      <c r="AK56" s="46"/>
+      <c r="AL56" s="47"/>
       <c r="AM56" s="18"/>
       <c r="AN56" s="18"/>
       <c r="AO56" s="18"/>
       <c r="AP56" s="18"/>
       <c r="AQ56" s="18"/>
-      <c r="AR56" s="19"/>
-    </row>
-    <row r="57" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R57" s="17"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="45"/>
-      <c r="V57" s="46"/>
-      <c r="W57" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="X57" s="84"/>
-      <c r="Y57" s="84"/>
-      <c r="Z57" s="84"/>
-      <c r="AA57" s="84"/>
-      <c r="AB57" s="84"/>
-      <c r="AC57" s="84"/>
-      <c r="AD57" s="84"/>
-      <c r="AE57" s="84"/>
-      <c r="AF57" s="84"/>
-      <c r="AG57" s="84"/>
-      <c r="AH57" s="84"/>
-      <c r="AI57" s="85"/>
-      <c r="AJ57" s="47"/>
-      <c r="AK57" s="18"/>
-      <c r="AL57" s="18"/>
+      <c r="AR56" s="18"/>
+      <c r="AS56" s="19"/>
+    </row>
+    <row r="57" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T57" s="17"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="45"/>
+      <c r="X57" s="46"/>
+      <c r="Y57" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z57" s="120"/>
+      <c r="AA57" s="120"/>
+      <c r="AB57" s="120"/>
+      <c r="AC57" s="120"/>
+      <c r="AD57" s="120"/>
+      <c r="AE57" s="120"/>
+      <c r="AF57" s="120"/>
+      <c r="AG57" s="120"/>
+      <c r="AH57" s="120"/>
+      <c r="AI57" s="120"/>
+      <c r="AJ57" s="120"/>
+      <c r="AK57" s="121"/>
+      <c r="AL57" s="47"/>
       <c r="AM57" s="18"/>
       <c r="AN57" s="18"/>
       <c r="AO57" s="18"/>
       <c r="AP57" s="18"/>
       <c r="AQ57" s="18"/>
-      <c r="AR57" s="19"/>
-    </row>
-    <row r="58" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R58" s="17"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="45"/>
-      <c r="V58" s="46"/>
-      <c r="W58" s="86"/>
-      <c r="X58" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y58" s="46"/>
-      <c r="Z58" s="46"/>
+      <c r="AR57" s="18"/>
+      <c r="AS57" s="19"/>
+    </row>
+    <row r="58" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T58" s="17"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="45"/>
+      <c r="X58" s="46"/>
+      <c r="Y58" s="122"/>
+      <c r="Z58" s="46" t="s">
+        <v>76</v>
+      </c>
       <c r="AA58" s="46"/>
       <c r="AB58" s="46"/>
-      <c r="AC58" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AC58" s="46"/>
       <c r="AD58" s="46"/>
       <c r="AE58" s="46" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AF58" s="46"/>
-      <c r="AG58" s="46"/>
+      <c r="AG58" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="AH58" s="46"/>
-      <c r="AI58" s="87"/>
-      <c r="AJ58" s="47"/>
-      <c r="AK58" s="18"/>
-      <c r="AL58" s="18"/>
+      <c r="AI58" s="46"/>
+      <c r="AJ58" s="46"/>
+      <c r="AK58" s="123"/>
+      <c r="AL58" s="47"/>
       <c r="AM58" s="18"/>
       <c r="AN58" s="18"/>
       <c r="AO58" s="18"/>
       <c r="AP58" s="18"/>
       <c r="AQ58" s="18"/>
-      <c r="AR58" s="19"/>
-    </row>
-    <row r="59" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R59" s="17"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="45"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="86"/>
+      <c r="AR58" s="18"/>
+      <c r="AS58" s="19"/>
+    </row>
+    <row r="59" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T59" s="17"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="45"/>
       <c r="X59" s="46"/>
-      <c r="Y59" s="46" t="s">
-        <v>87</v>
-      </c>
+      <c r="Y59" s="122"/>
       <c r="Z59" s="46"/>
-      <c r="AA59" s="46"/>
+      <c r="AA59" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="AB59" s="46"/>
       <c r="AC59" s="46"/>
       <c r="AD59" s="46"/>
@@ -4566,100 +4773,97 @@
       <c r="AF59" s="46"/>
       <c r="AG59" s="46"/>
       <c r="AH59" s="46"/>
-      <c r="AI59" s="87"/>
-      <c r="AJ59" s="47"/>
-      <c r="AK59" s="18"/>
-      <c r="AL59" s="18"/>
+      <c r="AI59" s="46"/>
+      <c r="AJ59" s="46"/>
+      <c r="AK59" s="123"/>
+      <c r="AL59" s="47"/>
       <c r="AM59" s="18"/>
       <c r="AN59" s="18"/>
       <c r="AO59" s="18"/>
       <c r="AP59" s="18"/>
       <c r="AQ59" s="18"/>
-      <c r="AR59" s="19"/>
-    </row>
-    <row r="60" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R60" s="17"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="45"/>
-      <c r="V60" s="46"/>
-      <c r="W60" s="86"/>
+      <c r="AR59" s="18"/>
+      <c r="AS59" s="19"/>
+    </row>
+    <row r="60" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T60" s="17"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="45"/>
       <c r="X60" s="46"/>
-      <c r="Y60" s="46"/>
-      <c r="Z60" s="46" t="s">
-        <v>88</v>
-      </c>
+      <c r="Y60" s="122"/>
+      <c r="Z60" s="46"/>
       <c r="AA60" s="46"/>
-      <c r="AB60" s="46"/>
-      <c r="AC60" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AB60" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC60" s="46"/>
       <c r="AD60" s="46"/>
       <c r="AE60" s="46" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="AF60" s="46"/>
-      <c r="AG60" s="46"/>
+      <c r="AG60" s="46" t="s">
+        <v>83</v>
+      </c>
       <c r="AH60" s="46"/>
-      <c r="AI60" s="87"/>
-      <c r="AJ60" s="47"/>
-      <c r="AK60" s="18"/>
-      <c r="AL60" s="18"/>
+      <c r="AI60" s="46"/>
+      <c r="AJ60" s="46"/>
+      <c r="AK60" s="123"/>
+      <c r="AL60" s="47"/>
       <c r="AM60" s="18"/>
       <c r="AN60" s="18"/>
       <c r="AO60" s="18"/>
       <c r="AP60" s="18"/>
       <c r="AQ60" s="18"/>
-      <c r="AR60" s="19"/>
-    </row>
-    <row r="61" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R61" s="17"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="46"/>
-      <c r="W61" s="86"/>
-      <c r="X61" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y61" s="46"/>
-      <c r="Z61" s="46"/>
+      <c r="AR60" s="18"/>
+      <c r="AS60" s="19"/>
+    </row>
+    <row r="61" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T61" s="17"/>
+      <c r="U61" s="18"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="46"/>
+      <c r="Y61" s="122"/>
+      <c r="Z61" s="46" t="s">
+        <v>71</v>
+      </c>
       <c r="AA61" s="46"/>
       <c r="AB61" s="46"/>
-      <c r="AC61" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AC61" s="46"/>
       <c r="AD61" s="46"/>
       <c r="AE61" s="46" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AF61" s="46"/>
-      <c r="AG61" s="46"/>
+      <c r="AG61" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="AH61" s="46"/>
-      <c r="AI61" s="87"/>
-      <c r="AJ61" s="47"/>
-      <c r="AK61" s="18"/>
-      <c r="AL61" s="18"/>
+      <c r="AI61" s="46"/>
+      <c r="AJ61" s="46"/>
+      <c r="AK61" s="123"/>
+      <c r="AL61" s="47"/>
       <c r="AM61" s="18"/>
       <c r="AN61" s="18"/>
       <c r="AO61" s="18"/>
       <c r="AP61" s="18"/>
       <c r="AQ61" s="18"/>
-      <c r="AR61" s="19"/>
-    </row>
-    <row r="62" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R62" s="17"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="45"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="86"/>
+      <c r="AR61" s="18"/>
+      <c r="AS61" s="19"/>
+    </row>
+    <row r="62" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T62" s="17"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="45"/>
       <c r="X62" s="46"/>
-      <c r="Y62" s="46" t="s">
-        <v>87</v>
-      </c>
+      <c r="Y62" s="122"/>
       <c r="Z62" s="46"/>
-      <c r="AA62" s="46"/>
+      <c r="AA62" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="AB62" s="46"/>
       <c r="AC62" s="46"/>
       <c r="AD62" s="46"/>
@@ -4667,100 +4871,97 @@
       <c r="AF62" s="46"/>
       <c r="AG62" s="46"/>
       <c r="AH62" s="46"/>
-      <c r="AI62" s="87"/>
-      <c r="AJ62" s="47"/>
-      <c r="AK62" s="18"/>
-      <c r="AL62" s="18"/>
+      <c r="AI62" s="46"/>
+      <c r="AJ62" s="46"/>
+      <c r="AK62" s="123"/>
+      <c r="AL62" s="47"/>
       <c r="AM62" s="18"/>
       <c r="AN62" s="18"/>
       <c r="AO62" s="18"/>
       <c r="AP62" s="18"/>
       <c r="AQ62" s="18"/>
-      <c r="AR62" s="19"/>
-    </row>
-    <row r="63" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R63" s="17"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="45"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="86"/>
+      <c r="AR62" s="18"/>
+      <c r="AS62" s="19"/>
+    </row>
+    <row r="63" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T63" s="17"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="45"/>
       <c r="X63" s="46"/>
-      <c r="Y63" s="46"/>
-      <c r="Z63" s="46" t="s">
-        <v>88</v>
-      </c>
+      <c r="Y63" s="122"/>
+      <c r="Z63" s="46"/>
       <c r="AA63" s="46"/>
-      <c r="AB63" s="46"/>
-      <c r="AC63" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AB63" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC63" s="46"/>
       <c r="AD63" s="46"/>
       <c r="AE63" s="46" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AF63" s="46"/>
-      <c r="AG63" s="46"/>
+      <c r="AG63" s="46" t="s">
+        <v>84</v>
+      </c>
       <c r="AH63" s="46"/>
-      <c r="AI63" s="87"/>
-      <c r="AJ63" s="47"/>
-      <c r="AK63" s="18"/>
-      <c r="AL63" s="18"/>
+      <c r="AI63" s="46"/>
+      <c r="AJ63" s="46"/>
+      <c r="AK63" s="123"/>
+      <c r="AL63" s="47"/>
       <c r="AM63" s="18"/>
       <c r="AN63" s="18"/>
       <c r="AO63" s="18"/>
       <c r="AP63" s="18"/>
       <c r="AQ63" s="18"/>
-      <c r="AR63" s="19"/>
-    </row>
-    <row r="64" spans="18:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R64" s="17"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="45"/>
-      <c r="V64" s="46"/>
-      <c r="W64" s="86"/>
-      <c r="X64" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y64" s="46"/>
-      <c r="Z64" s="46"/>
+      <c r="AR63" s="18"/>
+      <c r="AS63" s="19"/>
+    </row>
+    <row r="64" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T64" s="17"/>
+      <c r="U64" s="18"/>
+      <c r="V64" s="18"/>
+      <c r="W64" s="45"/>
+      <c r="X64" s="46"/>
+      <c r="Y64" s="122"/>
+      <c r="Z64" s="46" t="s">
+        <v>79</v>
+      </c>
       <c r="AA64" s="46"/>
       <c r="AB64" s="46"/>
-      <c r="AC64" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AC64" s="46"/>
       <c r="AD64" s="46"/>
       <c r="AE64" s="46" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="AF64" s="46"/>
-      <c r="AG64" s="46"/>
+      <c r="AG64" s="46" t="s">
+        <v>80</v>
+      </c>
       <c r="AH64" s="46"/>
-      <c r="AI64" s="87"/>
-      <c r="AJ64" s="47"/>
-      <c r="AK64" s="18"/>
-      <c r="AL64" s="18"/>
+      <c r="AI64" s="46"/>
+      <c r="AJ64" s="46"/>
+      <c r="AK64" s="123"/>
+      <c r="AL64" s="47"/>
       <c r="AM64" s="18"/>
       <c r="AN64" s="18"/>
       <c r="AO64" s="18"/>
       <c r="AP64" s="18"/>
       <c r="AQ64" s="18"/>
-      <c r="AR64" s="19"/>
-    </row>
-    <row r="65" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R65" s="17"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="45"/>
-      <c r="V65" s="46"/>
-      <c r="W65" s="86"/>
+      <c r="AR64" s="18"/>
+      <c r="AS64" s="19"/>
+    </row>
+    <row r="65" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T65" s="17"/>
+      <c r="U65" s="18"/>
+      <c r="V65" s="18"/>
+      <c r="W65" s="45"/>
       <c r="X65" s="46"/>
-      <c r="Y65" s="46" t="s">
-        <v>87</v>
-      </c>
+      <c r="Y65" s="122"/>
       <c r="Z65" s="46"/>
-      <c r="AA65" s="46"/>
+      <c r="AA65" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="AB65" s="46"/>
       <c r="AC65" s="46"/>
       <c r="AD65" s="46"/>
@@ -4768,129 +4969,125 @@
       <c r="AF65" s="46"/>
       <c r="AG65" s="46"/>
       <c r="AH65" s="46"/>
-      <c r="AI65" s="87"/>
-      <c r="AJ65" s="47"/>
-      <c r="AK65" s="18"/>
-      <c r="AL65" s="18"/>
+      <c r="AI65" s="46"/>
+      <c r="AJ65" s="46"/>
+      <c r="AK65" s="123"/>
+      <c r="AL65" s="47"/>
       <c r="AM65" s="18"/>
       <c r="AN65" s="18"/>
       <c r="AO65" s="18"/>
       <c r="AP65" s="18"/>
       <c r="AQ65" s="18"/>
-      <c r="AR65" s="19"/>
-    </row>
-    <row r="66" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R66" s="17"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="45"/>
-      <c r="V66" s="46"/>
-      <c r="W66" s="86"/>
+      <c r="AR65" s="18"/>
+      <c r="AS65" s="19"/>
+    </row>
+    <row r="66" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T66" s="17"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="18"/>
+      <c r="W66" s="45"/>
       <c r="X66" s="46"/>
-      <c r="Y66" s="46"/>
-      <c r="Z66" s="46" t="s">
-        <v>88</v>
-      </c>
+      <c r="Y66" s="122"/>
+      <c r="Z66" s="46"/>
       <c r="AA66" s="46"/>
-      <c r="AB66" s="46"/>
-      <c r="AC66" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AB66" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC66" s="46"/>
       <c r="AD66" s="46"/>
       <c r="AE66" s="46" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AF66" s="46"/>
-      <c r="AG66" s="46"/>
+      <c r="AG66" s="46" t="s">
+        <v>87</v>
+      </c>
       <c r="AH66" s="46"/>
-      <c r="AI66" s="87"/>
-      <c r="AJ66" s="47"/>
-      <c r="AK66" s="18"/>
-      <c r="AL66" s="18"/>
+      <c r="AI66" s="46"/>
+      <c r="AJ66" s="46"/>
+      <c r="AK66" s="123"/>
+      <c r="AL66" s="47"/>
       <c r="AM66" s="18"/>
       <c r="AN66" s="18"/>
       <c r="AO66" s="18"/>
       <c r="AP66" s="18"/>
       <c r="AQ66" s="18"/>
-      <c r="AR66" s="19"/>
-    </row>
-    <row r="67" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R67" s="17"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="45"/>
-      <c r="V67" s="46"/>
-      <c r="W67" s="86"/>
+      <c r="AR66" s="18"/>
+      <c r="AS66" s="19"/>
+    </row>
+    <row r="67" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T67" s="17"/>
+      <c r="U67" s="18"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="45"/>
       <c r="X67" s="46"/>
-      <c r="Y67" s="46"/>
-      <c r="Z67" s="46" t="s">
-        <v>91</v>
-      </c>
+      <c r="Y67" s="122"/>
+      <c r="Z67" s="46"/>
       <c r="AA67" s="46"/>
-      <c r="AB67" s="46"/>
-      <c r="AC67" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="AB67" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC67" s="46"/>
       <c r="AD67" s="46"/>
       <c r="AE67" s="46" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AF67" s="46"/>
-      <c r="AG67" s="46"/>
+      <c r="AG67" s="46" t="s">
+        <v>88</v>
+      </c>
       <c r="AH67" s="46"/>
-      <c r="AI67" s="87"/>
-      <c r="AJ67" s="47"/>
-      <c r="AK67" s="18"/>
-      <c r="AL67" s="18"/>
+      <c r="AI67" s="46"/>
+      <c r="AJ67" s="46"/>
+      <c r="AK67" s="123"/>
+      <c r="AL67" s="47"/>
       <c r="AM67" s="18"/>
       <c r="AN67" s="18"/>
       <c r="AO67" s="18"/>
       <c r="AP67" s="18"/>
       <c r="AQ67" s="18"/>
-      <c r="AR67" s="19"/>
-    </row>
-    <row r="68" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="R68" s="17"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="45"/>
-      <c r="V68" s="46"/>
-      <c r="W68" s="88"/>
-      <c r="X68" s="89"/>
-      <c r="Y68" s="89"/>
-      <c r="Z68" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA68" s="89"/>
-      <c r="AB68" s="89"/>
-      <c r="AC68" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD68" s="89"/>
-      <c r="AE68" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF68" s="89"/>
-      <c r="AG68" s="89"/>
-      <c r="AH68" s="89"/>
-      <c r="AI68" s="90"/>
-      <c r="AJ68" s="47"/>
-      <c r="AK68" s="18"/>
-      <c r="AL68" s="18"/>
+      <c r="AR67" s="18"/>
+      <c r="AS67" s="19"/>
+    </row>
+    <row r="68" spans="20:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="T68" s="17"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="18"/>
+      <c r="W68" s="45"/>
+      <c r="X68" s="46"/>
+      <c r="Y68" s="124"/>
+      <c r="Z68" s="125"/>
+      <c r="AA68" s="125"/>
+      <c r="AB68" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC68" s="125"/>
+      <c r="AD68" s="125"/>
+      <c r="AE68" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF68" s="125"/>
+      <c r="AG68" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH68" s="125"/>
+      <c r="AI68" s="125"/>
+      <c r="AJ68" s="125"/>
+      <c r="AK68" s="126"/>
+      <c r="AL68" s="47"/>
       <c r="AM68" s="18"/>
       <c r="AN68" s="18"/>
       <c r="AO68" s="18"/>
       <c r="AP68" s="18"/>
       <c r="AQ68" s="18"/>
-      <c r="AR68" s="19"/>
-    </row>
-    <row r="69" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R69" s="17"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="48"/>
-      <c r="V69" s="49"/>
-      <c r="W69" s="49"/>
+      <c r="AR68" s="18"/>
+      <c r="AS68" s="19"/>
+    </row>
+    <row r="69" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T69" s="17"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="48"/>
       <c r="X69" s="49"/>
       <c r="Y69" s="49"/>
       <c r="Z69" s="49"/>
@@ -4903,20 +5100,19 @@
       <c r="AG69" s="49"/>
       <c r="AH69" s="49"/>
       <c r="AI69" s="49"/>
-      <c r="AJ69" s="50"/>
-      <c r="AK69" s="18"/>
-      <c r="AL69" s="18"/>
+      <c r="AJ69" s="49"/>
+      <c r="AK69" s="49"/>
+      <c r="AL69" s="50"/>
       <c r="AM69" s="18"/>
       <c r="AN69" s="18"/>
       <c r="AO69" s="18"/>
       <c r="AP69" s="18"/>
       <c r="AQ69" s="18"/>
-      <c r="AR69" s="19"/>
-    </row>
-    <row r="70" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R70" s="17"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
+      <c r="AR69" s="18"/>
+      <c r="AS69" s="19"/>
+    </row>
+    <row r="70" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T70" s="17"/>
       <c r="U70" s="18"/>
       <c r="V70" s="18"/>
       <c r="W70" s="18"/>
@@ -4940,13 +5136,12 @@
       <c r="AO70" s="18"/>
       <c r="AP70" s="18"/>
       <c r="AQ70" s="18"/>
-      <c r="AR70" s="19"/>
-      <c r="AS70" s="30"/>
-    </row>
-    <row r="71" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R71" s="17"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
+      <c r="AR70" s="18"/>
+      <c r="AS70" s="19"/>
+      <c r="AT70" s="30"/>
+    </row>
+    <row r="71" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T71" s="17"/>
       <c r="U71" s="18"/>
       <c r="V71" s="18"/>
       <c r="W71" s="18"/>
@@ -4956,12 +5151,12 @@
       <c r="AA71" s="18"/>
       <c r="AB71" s="18"/>
       <c r="AC71" s="18"/>
-      <c r="AD71" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE71" s="32"/>
-      <c r="AF71" s="18"/>
-      <c r="AG71" s="18"/>
+      <c r="AD71" s="18"/>
+      <c r="AE71" s="18"/>
+      <c r="AF71" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG71" s="32"/>
       <c r="AH71" s="18"/>
       <c r="AI71" s="18"/>
       <c r="AJ71" s="18"/>
@@ -4972,12 +5167,11 @@
       <c r="AO71" s="18"/>
       <c r="AP71" s="18"/>
       <c r="AQ71" s="18"/>
-      <c r="AR71" s="19"/>
-    </row>
-    <row r="72" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R72" s="23"/>
-      <c r="S72" s="24"/>
-      <c r="T72" s="24"/>
+      <c r="AR71" s="18"/>
+      <c r="AS71" s="19"/>
+    </row>
+    <row r="72" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T72" s="23"/>
       <c r="U72" s="24"/>
       <c r="V72" s="24"/>
       <c r="W72" s="24"/>
@@ -5001,82 +5195,30 @@
       <c r="AO72" s="24"/>
       <c r="AP72" s="24"/>
       <c r="AQ72" s="24"/>
-      <c r="AR72" s="25"/>
-    </row>
-    <row r="75" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="30" t="s">
+      <c r="AR72" s="24"/>
+      <c r="AS72" s="25"/>
+    </row>
+    <row r="83" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="30"/>
-    </row>
-    <row r="76" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q76" s="30"/>
-    </row>
-    <row r="77" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
     </row>
     <row r="84" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R84" s="30"/>
+      <c r="Q84" s="30"/>
       <c r="S84" s="30"/>
       <c r="T84" s="30"/>
       <c r="U84" s="30"/>
@@ -5104,17 +5246,68 @@
       <c r="AQ84" s="30"/>
       <c r="AR84" s="30"/>
     </row>
+    <row r="85" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R89" s="30"/>
+    </row>
+    <row r="90" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D30:N30"/>
-    <mergeCell ref="D32:H33"/>
-    <mergeCell ref="J32:N33"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I45:N46"/>
-    <mergeCell ref="I40:N41"/>
-    <mergeCell ref="D38:G41"/>
+    <mergeCell ref="J42:O44"/>
+    <mergeCell ref="E49:H53"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J51:O53"/>
+    <mergeCell ref="D32:I33"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="K32:P33"/>
+    <mergeCell ref="E40:H44"/>
+    <mergeCell ref="J40:O40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
+++ b/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\80_補足資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\80_補足資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="スクリーンオブジェクトをJSONで返却する方法" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$A$1:$AS$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$A$1:$AS$91</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -92,10 +92,6 @@
     <rPh sb="21" eb="23">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>regionId</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -133,6 +129,520 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モバイルクライアントからウェブサーバに渡すリクエストパラメータの概要を下記にまとめる。</t>
+    <rPh sb="19" eb="20">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>httpRequestでモバイルクライアントからウェブサーバに渡す情報は下記となる。</t>
+    <rPh sb="31" eb="32">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須でない項目については、httpリクエストに含める必要はない。（例：http://melip.com/mobile/getScreenDto?langDiv=ja&amp;screenObjId=123&amp;regionId=123）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjGrpDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObjGrpId</t>
+  </si>
+  <si>
+    <t>layoutObjGrpId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multiplicity</t>
+  </si>
+  <si>
+    <t>multiplicity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenObjDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjeId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObjId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObjGrp02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObjGrp01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj01 (txt)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj02
+(img)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj03
+(img)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮に施設一覧を表示する画面とした場合、「layoutObjGrp01」には施設が属する地域の情報が表示される。</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「layoutObjGrp02」にはそれぞれの施設の情報がリスト形式で表示される。</t>
+    <rPh sb="23" eb="25">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjDto[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjGrpDto[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjDto[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjDto[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj01 (txt)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj02 (img)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj03 (img)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutGrp01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutGrp02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multiple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> layoutObjGrp01のデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> layoutObjGrp02のデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>具体的には下記4つのオブジェクトとを使用してデータを返却する。（詳細はオブジェクト定義書参照。）</t>
+    <rPh sb="0" eb="3">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="41" eb="46">
+      <t>テイギショサンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェブサーバからモバイルクライアントはJSON通信を用い、各地域の情報をScreenDtoに詰めて返却する。</t>
+    <rPh sb="23" eb="25">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>└</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>├</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記に一覧のレイアウトを使用し実際に返却されるデータの構成を示す。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jun-nakashima</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AttrDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrGrpId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrGrpType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrGrpNm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrVal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrCdVal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェブサーバからモバイルクライアントに返却するオブジェクトの概要を下記にまとめる。</t>
+    <rPh sb="19" eb="21">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjGrpDto[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ layoutObj06はlistなので複数のAttDtoを保持する</t>
+    <rPh sb="21" eb="23">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjDto[1]</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>layoutAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObjGrpAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObjAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjDto[0]</t>
+  </si>
+  <si>
+    <t>layoutObj04 (img)</t>
+  </si>
+  <si>
+    <t>layoutObj05 (txt)</t>
+  </si>
+  <si>
+    <t>screenObjDto[2]</t>
+  </si>
+  <si>
+    <t>layoutObj06 (list)</t>
+  </si>
+  <si>
+    <t>attDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attDto[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像パス</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト文</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attDto[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attDto[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト文01</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト文02</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト文03</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>displayNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>displayNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjGrpDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenObjGrpDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScreenObjBunchDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjBunchDtoList</t>
+  </si>
+  <si>
+    <t>screenObjBunchDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjBunchDto[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjBunchDtoList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjBunchDto[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj04
+(img)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj05 (txt)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObj06
+(list)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/1/26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>screenObjId(</t>
     </r>
@@ -159,517 +669,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モバイルクライアントからウェブサーバに渡すリクエストパラメータの概要を下記にまとめる。</t>
-    <rPh sb="19" eb="20">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>httpRequestでモバイルクライアントからウェブサーバに渡す情報は下記となる。</t>
-    <rPh sb="31" eb="32">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必須でない項目については、httpリクエストに含める必要はない。（例：http://melip.com/mobile/getScreenDto?langDiv=ja&amp;screenObjId=123&amp;regionId=123）</t>
-    <rPh sb="0" eb="2">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjGrpDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ScreenDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObjGrpId</t>
-  </si>
-  <si>
-    <t>layoutObjGrpId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>multiplicity</t>
-  </si>
-  <si>
-    <t>multiplicity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ScreenObjDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjeId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObjId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObjGrp02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObjGrp01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj01 (txt)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj02
-(img)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj03
-(img)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮に施設一覧を表示する画面とした場合、「layoutObjGrp01」には施設が属する地域の情報が表示される。</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ゾク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>チイキ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「layoutObjGrp02」にはそれぞれの施設の情報がリスト形式で表示される。</t>
-    <rPh sb="23" eb="25">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjDto[0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjGrpDto[0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjDto[1]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjDto[2]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj01 (txt)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj02 (img)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj03 (img)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>single</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutGrp01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutGrp02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>multiple</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> layoutObjGrp01のデータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> layoutObjGrp02のデータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>具体的には下記4つのオブジェクトとを使用してデータを返却する。（詳細はオブジェクト定義書参照。）</t>
-    <rPh sb="0" eb="3">
-      <t>グタイテキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="41" eb="46">
-      <t>テイギショサンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブサーバからモバイルクライアントはJSON通信を用い、各地域の情報をScreenDtoに詰めて返却する。</t>
-    <rPh sb="23" eb="25">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>チイキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヘンキャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>└</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>├</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下記に一覧のレイアウトを使用し実際に返却されるデータの構成を示す。</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>jun-nakashima</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AttrDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attrGrpId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attrGrpType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attrGrpNm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attrVal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attrCdVal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attrDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェブサーバからモバイルクライアントに返却するオブジェクトの概要を下記にまとめる。</t>
-    <rPh sb="19" eb="21">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjGrpDto[1]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ layoutObj06はlistなので複数のAttDtoを保持する</t>
-    <rPh sb="21" eb="23">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjDto[1]</t>
-  </si>
-  <si>
-    <t>→</t>
-  </si>
-  <si>
-    <t>layoutAlias</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObjGrpAlias</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObjAlias</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjDto[0]</t>
-  </si>
-  <si>
-    <t>layoutObj04 (img)</t>
-  </si>
-  <si>
-    <t>layoutObj05 (txt)</t>
-  </si>
-  <si>
-    <t>screenObjDto[2]</t>
-  </si>
-  <si>
-    <t>layoutObj06 (list)</t>
-  </si>
-  <si>
-    <t>attDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attDto[0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像パス</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキスト文</t>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attDto[1]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attDto[2]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキスト文01</t>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキスト文02</t>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキスト文03</t>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>displayNum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>displayNum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjGrpDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ScreenObjGrpDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ScreenObjBunchDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjBunchDtoList</t>
-  </si>
-  <si>
-    <t>screenObjBunchDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjBunchDto[0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjBunchDtoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>screenObjBunchDto[1]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj04
-(img)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj05 (txt)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>layoutObj06
-(list)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2015/1/26</t>
+    <r>
+      <t>regionId(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1848,6 +1870,174 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1856,174 +2046,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2423,7 +2445,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -2479,7 +2501,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2649,15 +2671,15 @@
     </row>
     <row r="8" spans="1:46" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -2676,7 +2698,7 @@
     </row>
     <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2747,7 +2769,7 @@
     <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -2756,7 +2778,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -2765,7 +2787,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
@@ -2773,7 +2795,7 @@
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
@@ -2781,7 +2803,7 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AD14" s="18"/>
       <c r="AE14" s="18"/>
@@ -2791,10 +2813,10 @@
     <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -2802,10 +2824,10 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -2813,30 +2835,30 @@
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
       <c r="AC15" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD15" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AE15" s="18"/>
       <c r="AF15" s="18"/>
@@ -2845,10 +2867,10 @@
     <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -2856,10 +2878,10 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2867,30 +2889,30 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD16" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE16" s="18"/>
       <c r="AF16" s="18"/>
@@ -2899,10 +2921,10 @@
     <row r="17" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -2910,10 +2932,10 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
@@ -2927,20 +2949,20 @@
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD17" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AE17" s="18"/>
       <c r="AF17" s="18"/>
@@ -2949,10 +2971,10 @@
     <row r="18" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -2960,10 +2982,10 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -2977,20 +2999,20 @@
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
       <c r="W18" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
       <c r="AA18" s="18"/>
       <c r="AB18" s="18"/>
       <c r="AC18" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD18" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE18" s="18"/>
       <c r="AF18" s="18"/>
@@ -3025,10 +3047,10 @@
       <c r="AA19" s="18"/>
       <c r="AB19" s="18"/>
       <c r="AC19" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD19" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AE19" s="18"/>
       <c r="AF19" s="18"/>
@@ -3063,10 +3085,10 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
       <c r="AC20" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD20" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AE20" s="18"/>
       <c r="AF20" s="18"/>
@@ -3125,7 +3147,7 @@
     </row>
     <row r="23" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -3144,7 +3166,7 @@
     </row>
     <row r="24" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -3163,7 +3185,7 @@
     </row>
     <row r="25" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -3245,7 +3267,7 @@
     <row r="28" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
       <c r="C28" s="51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -3264,7 +3286,7 @@
       <c r="R28" s="19"/>
       <c r="T28" s="17"/>
       <c r="U28" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
@@ -3293,26 +3315,26 @@
     </row>
     <row r="29" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="17"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
       <c r="Q29" s="52"/>
       <c r="R29" s="19"/>
       <c r="T29" s="17"/>
       <c r="U29" s="18"/>
       <c r="V29" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W29" s="18"/>
       <c r="X29" s="18"/>
@@ -3340,28 +3362,28 @@
     </row>
     <row r="30" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="17"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="132"/>
       <c r="Q30" s="53"/>
       <c r="R30" s="19"/>
       <c r="T30" s="17"/>
       <c r="U30" s="18"/>
       <c r="V30" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W30" s="18"/>
       <c r="X30" s="18"/>
@@ -3389,27 +3411,27 @@
     </row>
     <row r="31" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="17"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
       <c r="Q31" s="53"/>
       <c r="R31" s="19"/>
       <c r="T31" s="17"/>
       <c r="U31" s="18"/>
       <c r="V31" s="18"/>
       <c r="W31" s="55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="X31" s="56"/>
       <c r="Y31" s="56"/>
@@ -3427,7 +3449,7 @@
       <c r="AK31" s="56"/>
       <c r="AL31" s="57"/>
       <c r="AM31" s="51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AN31" s="18"/>
       <c r="AO31" s="18"/>
@@ -3438,24 +3460,24 @@
     </row>
     <row r="32" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="17"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="128"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="125"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="126"/>
       <c r="Q32" s="53"/>
       <c r="R32" s="19"/>
       <c r="T32" s="17"/>
@@ -3463,7 +3485,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="58"/>
       <c r="X32" s="59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y32" s="59"/>
       <c r="Z32" s="59"/>
@@ -3472,11 +3494,11 @@
       <c r="AC32" s="59"/>
       <c r="AD32" s="59"/>
       <c r="AE32" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF32" s="59"/>
       <c r="AG32" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AH32" s="59"/>
       <c r="AI32" s="59"/>
@@ -3493,20 +3515,20 @@
     </row>
     <row r="33" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="17"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="131"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="129"/>
       <c r="Q33" s="53"/>
       <c r="R33" s="19"/>
       <c r="T33" s="17"/>
@@ -3514,7 +3536,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="58"/>
       <c r="X33" s="59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y33" s="59"/>
       <c r="Z33" s="59"/>
@@ -3523,11 +3545,11 @@
       <c r="AC33" s="59"/>
       <c r="AD33" s="59"/>
       <c r="AE33" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF33" s="59"/>
       <c r="AG33" s="59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH33" s="59"/>
       <c r="AI33" s="59"/>
@@ -3544,20 +3566,20 @@
     </row>
     <row r="34" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="17"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
       <c r="Q34" s="54"/>
       <c r="R34" s="19"/>
       <c r="T34" s="17"/>
@@ -3565,7 +3587,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="58"/>
       <c r="X34" s="59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y34" s="59"/>
       <c r="Z34" s="59"/>
@@ -3613,7 +3635,7 @@
       <c r="W35" s="58"/>
       <c r="X35" s="59"/>
       <c r="Y35" s="59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Z35" s="59"/>
       <c r="AA35" s="59"/>
@@ -3639,7 +3661,7 @@
     <row r="36" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
       <c r="C36" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3663,18 +3685,18 @@
       <c r="X36" s="59"/>
       <c r="Y36" s="59"/>
       <c r="Z36" s="59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA36" s="59"/>
       <c r="AB36" s="59"/>
       <c r="AC36" s="59"/>
       <c r="AD36" s="59"/>
       <c r="AE36" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF36" s="59"/>
       <c r="AG36" s="59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AH36" s="59"/>
       <c r="AI36" s="59"/>
@@ -3714,18 +3736,18 @@
       <c r="X37" s="59"/>
       <c r="Y37" s="59"/>
       <c r="Z37" s="59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AA37" s="59"/>
       <c r="AB37" s="59"/>
       <c r="AC37" s="59"/>
       <c r="AD37" s="59"/>
       <c r="AE37" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF37" s="59"/>
       <c r="AG37" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AH37" s="59"/>
       <c r="AI37" s="59"/>
@@ -3743,8 +3765,8 @@
     <row r="38" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="17"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="107" t="s">
-        <v>97</v>
+      <c r="D38" s="91" t="s">
+        <v>95</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
@@ -3767,18 +3789,18 @@
       <c r="X38" s="62"/>
       <c r="Y38" s="62"/>
       <c r="Z38" s="62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA38" s="62"/>
       <c r="AB38" s="62"/>
       <c r="AC38" s="62"/>
       <c r="AD38" s="62"/>
       <c r="AE38" s="62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF38" s="62"/>
       <c r="AG38" s="62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AH38" s="62"/>
       <c r="AI38" s="62"/>
@@ -3796,7 +3818,7 @@
     <row r="39" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="17"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="91"/>
+      <c r="D39" s="87"/>
       <c r="E39" s="72"/>
       <c r="F39" s="72"/>
       <c r="G39" s="72"/>
@@ -3808,7 +3830,7 @@
       <c r="M39" s="72"/>
       <c r="N39" s="72"/>
       <c r="O39" s="72"/>
-      <c r="P39" s="92"/>
+      <c r="P39" s="88"/>
       <c r="Q39" s="38"/>
       <c r="R39" s="19"/>
       <c r="T39" s="17"/>
@@ -3841,22 +3863,22 @@
     <row r="40" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="17"/>
       <c r="C40" s="37"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="97"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="114"/>
       <c r="I40" s="18"/>
-      <c r="J40" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="106"/>
+      <c r="J40" s="121" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40" s="122"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="122"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="123"/>
       <c r="P40" s="73"/>
       <c r="Q40" s="38"/>
       <c r="R40" s="19"/>
@@ -3864,7 +3886,7 @@
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
       <c r="W40" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X40" s="43"/>
       <c r="Y40" s="43"/>
@@ -3882,7 +3904,7 @@
       <c r="AK40" s="43"/>
       <c r="AL40" s="44"/>
       <c r="AM40" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AN40" s="18"/>
       <c r="AO40" s="18"/>
@@ -3894,11 +3916,11 @@
     <row r="41" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="17"/>
       <c r="C41" s="37"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="100"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="117"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
@@ -3914,7 +3936,7 @@
       <c r="V41" s="18"/>
       <c r="W41" s="45"/>
       <c r="X41" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y41" s="46"/>
       <c r="Z41" s="46"/>
@@ -3923,11 +3945,11 @@
       <c r="AC41" s="46"/>
       <c r="AD41" s="46"/>
       <c r="AE41" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF41" s="46"/>
       <c r="AG41" s="46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AH41" s="46"/>
       <c r="AI41" s="46"/>
@@ -3945,20 +3967,20 @@
     <row r="42" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="17"/>
       <c r="C42" s="37"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="100"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="117"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="97"/>
+      <c r="J42" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="114"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="38"/>
       <c r="R42" s="19"/>
@@ -3967,7 +3989,7 @@
       <c r="V42" s="18"/>
       <c r="W42" s="45"/>
       <c r="X42" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y42" s="46"/>
       <c r="Z42" s="46"/>
@@ -3976,11 +3998,11 @@
       <c r="AC42" s="46"/>
       <c r="AD42" s="46"/>
       <c r="AE42" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF42" s="46"/>
       <c r="AG42" s="46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH42" s="46"/>
       <c r="AI42" s="46"/>
@@ -3998,18 +4020,18 @@
     <row r="43" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="17"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="100"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="117"/>
       <c r="I43" s="18"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="100"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="117"/>
       <c r="P43" s="73"/>
       <c r="Q43" s="38"/>
       <c r="R43" s="19"/>
@@ -4017,16 +4039,16 @@
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
       <c r="W43" s="45"/>
-      <c r="X43" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y43" s="132"/>
-      <c r="Z43" s="132"/>
-      <c r="AA43" s="132"/>
-      <c r="AB43" s="132"/>
-      <c r="AC43" s="132"/>
-      <c r="AD43" s="132"/>
-      <c r="AE43" s="132"/>
+      <c r="X43" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y43" s="111"/>
+      <c r="Z43" s="111"/>
+      <c r="AA43" s="111"/>
+      <c r="AB43" s="111"/>
+      <c r="AC43" s="111"/>
+      <c r="AD43" s="111"/>
+      <c r="AE43" s="111"/>
       <c r="AF43" s="46"/>
       <c r="AG43" s="46"/>
       <c r="AH43" s="46"/>
@@ -4045,18 +4067,18 @@
     <row r="44" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="102"/>
-      <c r="O44" s="103"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="119"/>
+      <c r="O44" s="120"/>
       <c r="P44" s="73"/>
       <c r="Q44" s="38"/>
       <c r="R44" s="19"/>
@@ -4066,7 +4088,7 @@
       <c r="W44" s="45"/>
       <c r="X44" s="46"/>
       <c r="Y44" s="64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Z44" s="65"/>
       <c r="AA44" s="65"/>
@@ -4092,19 +4114,19 @@
     <row r="45" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="17"/>
       <c r="C45" s="37"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="94"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="90"/>
       <c r="Q45" s="38"/>
       <c r="R45" s="19"/>
       <c r="T45" s="17"/>
@@ -4114,18 +4136,18 @@
       <c r="X45" s="46"/>
       <c r="Y45" s="67"/>
       <c r="Z45" s="46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA45" s="46"/>
       <c r="AB45" s="46"/>
       <c r="AC45" s="46"/>
       <c r="AD45" s="46"/>
       <c r="AE45" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF45" s="46"/>
       <c r="AG45" s="46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AH45" s="46"/>
       <c r="AI45" s="46"/>
@@ -4143,18 +4165,18 @@
     <row r="46" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="17"/>
       <c r="C46" s="37"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="86"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="82"/>
       <c r="P46" s="18"/>
       <c r="Q46" s="38"/>
       <c r="R46" s="19"/>
@@ -4166,7 +4188,7 @@
       <c r="Y46" s="67"/>
       <c r="Z46" s="46"/>
       <c r="AA46" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB46" s="46"/>
       <c r="AC46" s="46"/>
@@ -4190,8 +4212,8 @@
     <row r="47" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="17"/>
       <c r="C47" s="37"/>
-      <c r="D47" s="108" t="s">
-        <v>97</v>
+      <c r="D47" s="92" t="s">
+        <v>95</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
@@ -4216,16 +4238,16 @@
       <c r="Z47" s="46"/>
       <c r="AA47" s="46"/>
       <c r="AB47" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC47" s="46"/>
       <c r="AD47" s="46"/>
       <c r="AE47" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF47" s="46"/>
       <c r="AG47" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AH47" s="46"/>
       <c r="AI47" s="46"/>
@@ -4243,19 +4265,19 @@
     <row r="48" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="17"/>
       <c r="C48" s="37"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="111"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="95"/>
       <c r="Q48" s="38"/>
       <c r="R48" s="19"/>
       <c r="T48" s="17"/>
@@ -4265,18 +4287,18 @@
       <c r="X48" s="46"/>
       <c r="Y48" s="67"/>
       <c r="Z48" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA48" s="46"/>
       <c r="AB48" s="46"/>
       <c r="AC48" s="46"/>
       <c r="AD48" s="46"/>
       <c r="AE48" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF48" s="46"/>
       <c r="AG48" s="46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH48" s="46"/>
       <c r="AI48" s="46"/>
@@ -4294,23 +4316,23 @@
     <row r="49" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="17"/>
       <c r="C49" s="37"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="97"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="114"/>
       <c r="I49" s="18"/>
-      <c r="J49" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
-      <c r="N49" s="105"/>
-      <c r="O49" s="106"/>
-      <c r="P49" s="113"/>
+      <c r="J49" s="121" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49" s="122"/>
+      <c r="L49" s="122"/>
+      <c r="M49" s="122"/>
+      <c r="N49" s="122"/>
+      <c r="O49" s="123"/>
+      <c r="P49" s="97"/>
       <c r="Q49" s="38"/>
       <c r="R49" s="19"/>
       <c r="T49" s="17"/>
@@ -4321,7 +4343,7 @@
       <c r="Y49" s="67"/>
       <c r="Z49" s="46"/>
       <c r="AA49" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB49" s="46"/>
       <c r="AC49" s="46"/>
@@ -4345,11 +4367,11 @@
     <row r="50" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="17"/>
       <c r="C50" s="37"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="100"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="117"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
@@ -4357,7 +4379,7 @@
       <c r="M50" s="18"/>
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
-      <c r="P50" s="113"/>
+      <c r="P50" s="97"/>
       <c r="Q50" s="38"/>
       <c r="R50" s="19"/>
       <c r="T50" s="17"/>
@@ -4369,16 +4391,16 @@
       <c r="Z50" s="46"/>
       <c r="AA50" s="46"/>
       <c r="AB50" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC50" s="46"/>
       <c r="AD50" s="46"/>
       <c r="AE50" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF50" s="46"/>
       <c r="AG50" s="46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH50" s="46"/>
       <c r="AI50" s="46"/>
@@ -4396,21 +4418,21 @@
     <row r="51" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="17"/>
       <c r="C51" s="37"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="100"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="117"/>
       <c r="I51" s="18"/>
-      <c r="J51" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="97"/>
-      <c r="P51" s="113"/>
+      <c r="J51" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="97"/>
       <c r="Q51" s="38"/>
       <c r="R51" s="19"/>
       <c r="T51" s="17"/>
@@ -4420,18 +4442,18 @@
       <c r="X51" s="46"/>
       <c r="Y51" s="67"/>
       <c r="Z51" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA51" s="46"/>
       <c r="AB51" s="46"/>
       <c r="AC51" s="46"/>
       <c r="AD51" s="46"/>
       <c r="AE51" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF51" s="46"/>
       <c r="AG51" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH51" s="46"/>
       <c r="AI51" s="46"/>
@@ -4449,19 +4471,19 @@
     <row r="52" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="17"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="100"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="117"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="99"/>
-      <c r="L52" s="99"/>
-      <c r="M52" s="99"/>
-      <c r="N52" s="99"/>
-      <c r="O52" s="100"/>
-      <c r="P52" s="113"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="116"/>
+      <c r="N52" s="116"/>
+      <c r="O52" s="117"/>
+      <c r="P52" s="97"/>
       <c r="Q52" s="38"/>
       <c r="R52" s="19"/>
       <c r="T52" s="17"/>
@@ -4472,7 +4494,7 @@
       <c r="Y52" s="67"/>
       <c r="Z52" s="46"/>
       <c r="AA52" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB52" s="46"/>
       <c r="AC52" s="46"/>
@@ -4496,19 +4518,19 @@
     <row r="53" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="17"/>
       <c r="C53" s="37"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="102"/>
-      <c r="L53" s="102"/>
-      <c r="M53" s="102"/>
-      <c r="N53" s="102"/>
-      <c r="O53" s="103"/>
-      <c r="P53" s="113"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="119"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="119"/>
+      <c r="N53" s="119"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="97"/>
       <c r="Q53" s="38"/>
       <c r="R53" s="19"/>
       <c r="T53" s="17"/>
@@ -4520,16 +4542,16 @@
       <c r="Z53" s="46"/>
       <c r="AA53" s="46"/>
       <c r="AB53" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC53" s="46"/>
       <c r="AD53" s="46"/>
       <c r="AE53" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF53" s="46"/>
       <c r="AG53" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH53" s="46"/>
       <c r="AI53" s="46"/>
@@ -4547,19 +4569,19 @@
     <row r="54" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B54" s="17"/>
       <c r="C54" s="37"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="117"/>
-      <c r="I54" s="117"/>
-      <c r="J54" s="117"/>
-      <c r="K54" s="117"/>
-      <c r="L54" s="117"/>
-      <c r="M54" s="117"/>
-      <c r="N54" s="117"/>
-      <c r="O54" s="117"/>
-      <c r="P54" s="118"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="101"/>
+      <c r="M54" s="101"/>
+      <c r="N54" s="101"/>
+      <c r="O54" s="101"/>
+      <c r="P54" s="102"/>
       <c r="Q54" s="38"/>
       <c r="R54" s="19"/>
       <c r="T54" s="17"/>
@@ -4571,16 +4593,16 @@
       <c r="Z54" s="46"/>
       <c r="AA54" s="46"/>
       <c r="AB54" s="46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC54" s="46"/>
       <c r="AD54" s="46"/>
       <c r="AE54" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF54" s="46"/>
       <c r="AG54" s="46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AH54" s="46"/>
       <c r="AI54" s="46"/>
@@ -4622,16 +4644,16 @@
       <c r="Z55" s="70"/>
       <c r="AA55" s="70"/>
       <c r="AB55" s="70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC55" s="70"/>
       <c r="AD55" s="70"/>
       <c r="AE55" s="70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF55" s="70"/>
       <c r="AG55" s="70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AH55" s="70"/>
       <c r="AI55" s="70"/>
@@ -4697,21 +4719,21 @@
       <c r="V57" s="18"/>
       <c r="W57" s="45"/>
       <c r="X57" s="46"/>
-      <c r="Y57" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z57" s="120"/>
-      <c r="AA57" s="120"/>
-      <c r="AB57" s="120"/>
-      <c r="AC57" s="120"/>
-      <c r="AD57" s="120"/>
-      <c r="AE57" s="120"/>
-      <c r="AF57" s="120"/>
-      <c r="AG57" s="120"/>
-      <c r="AH57" s="120"/>
-      <c r="AI57" s="120"/>
-      <c r="AJ57" s="120"/>
-      <c r="AK57" s="121"/>
+      <c r="Y57" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z57" s="104"/>
+      <c r="AA57" s="104"/>
+      <c r="AB57" s="104"/>
+      <c r="AC57" s="104"/>
+      <c r="AD57" s="104"/>
+      <c r="AE57" s="104"/>
+      <c r="AF57" s="104"/>
+      <c r="AG57" s="104"/>
+      <c r="AH57" s="104"/>
+      <c r="AI57" s="104"/>
+      <c r="AJ57" s="104"/>
+      <c r="AK57" s="105"/>
       <c r="AL57" s="47"/>
       <c r="AM57" s="18"/>
       <c r="AN57" s="18"/>
@@ -4727,25 +4749,25 @@
       <c r="V58" s="18"/>
       <c r="W58" s="45"/>
       <c r="X58" s="46"/>
-      <c r="Y58" s="122"/>
+      <c r="Y58" s="106"/>
       <c r="Z58" s="46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA58" s="46"/>
       <c r="AB58" s="46"/>
       <c r="AC58" s="46"/>
       <c r="AD58" s="46"/>
       <c r="AE58" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF58" s="46"/>
       <c r="AG58" s="46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AH58" s="46"/>
       <c r="AI58" s="46"/>
       <c r="AJ58" s="46"/>
-      <c r="AK58" s="123"/>
+      <c r="AK58" s="107"/>
       <c r="AL58" s="47"/>
       <c r="AM58" s="18"/>
       <c r="AN58" s="18"/>
@@ -4761,10 +4783,10 @@
       <c r="V59" s="18"/>
       <c r="W59" s="45"/>
       <c r="X59" s="46"/>
-      <c r="Y59" s="122"/>
+      <c r="Y59" s="106"/>
       <c r="Z59" s="46"/>
       <c r="AA59" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB59" s="46"/>
       <c r="AC59" s="46"/>
@@ -4775,7 +4797,7 @@
       <c r="AH59" s="46"/>
       <c r="AI59" s="46"/>
       <c r="AJ59" s="46"/>
-      <c r="AK59" s="123"/>
+      <c r="AK59" s="107"/>
       <c r="AL59" s="47"/>
       <c r="AM59" s="18"/>
       <c r="AN59" s="18"/>
@@ -4791,25 +4813,25 @@
       <c r="V60" s="18"/>
       <c r="W60" s="45"/>
       <c r="X60" s="46"/>
-      <c r="Y60" s="122"/>
+      <c r="Y60" s="106"/>
       <c r="Z60" s="46"/>
       <c r="AA60" s="46"/>
       <c r="AB60" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC60" s="46"/>
       <c r="AD60" s="46"/>
       <c r="AE60" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF60" s="46"/>
       <c r="AG60" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AH60" s="46"/>
       <c r="AI60" s="46"/>
       <c r="AJ60" s="46"/>
-      <c r="AK60" s="123"/>
+      <c r="AK60" s="107"/>
       <c r="AL60" s="47"/>
       <c r="AM60" s="18"/>
       <c r="AN60" s="18"/>
@@ -4825,25 +4847,25 @@
       <c r="V61" s="18"/>
       <c r="W61" s="45"/>
       <c r="X61" s="46"/>
-      <c r="Y61" s="122"/>
+      <c r="Y61" s="106"/>
       <c r="Z61" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA61" s="46"/>
       <c r="AB61" s="46"/>
       <c r="AC61" s="46"/>
       <c r="AD61" s="46"/>
       <c r="AE61" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF61" s="46"/>
       <c r="AG61" s="46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH61" s="46"/>
       <c r="AI61" s="46"/>
       <c r="AJ61" s="46"/>
-      <c r="AK61" s="123"/>
+      <c r="AK61" s="107"/>
       <c r="AL61" s="47"/>
       <c r="AM61" s="18"/>
       <c r="AN61" s="18"/>
@@ -4859,10 +4881,10 @@
       <c r="V62" s="18"/>
       <c r="W62" s="45"/>
       <c r="X62" s="46"/>
-      <c r="Y62" s="122"/>
+      <c r="Y62" s="106"/>
       <c r="Z62" s="46"/>
       <c r="AA62" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB62" s="46"/>
       <c r="AC62" s="46"/>
@@ -4873,7 +4895,7 @@
       <c r="AH62" s="46"/>
       <c r="AI62" s="46"/>
       <c r="AJ62" s="46"/>
-      <c r="AK62" s="123"/>
+      <c r="AK62" s="107"/>
       <c r="AL62" s="47"/>
       <c r="AM62" s="18"/>
       <c r="AN62" s="18"/>
@@ -4889,25 +4911,25 @@
       <c r="V63" s="18"/>
       <c r="W63" s="45"/>
       <c r="X63" s="46"/>
-      <c r="Y63" s="122"/>
+      <c r="Y63" s="106"/>
       <c r="Z63" s="46"/>
       <c r="AA63" s="46"/>
       <c r="AB63" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC63" s="46"/>
       <c r="AD63" s="46"/>
       <c r="AE63" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF63" s="46"/>
       <c r="AG63" s="46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH63" s="46"/>
       <c r="AI63" s="46"/>
       <c r="AJ63" s="46"/>
-      <c r="AK63" s="123"/>
+      <c r="AK63" s="107"/>
       <c r="AL63" s="47"/>
       <c r="AM63" s="18"/>
       <c r="AN63" s="18"/>
@@ -4923,25 +4945,25 @@
       <c r="V64" s="18"/>
       <c r="W64" s="45"/>
       <c r="X64" s="46"/>
-      <c r="Y64" s="122"/>
+      <c r="Y64" s="106"/>
       <c r="Z64" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA64" s="46"/>
       <c r="AB64" s="46"/>
       <c r="AC64" s="46"/>
       <c r="AD64" s="46"/>
       <c r="AE64" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF64" s="46"/>
       <c r="AG64" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH64" s="46"/>
       <c r="AI64" s="46"/>
       <c r="AJ64" s="46"/>
-      <c r="AK64" s="123"/>
+      <c r="AK64" s="107"/>
       <c r="AL64" s="47"/>
       <c r="AM64" s="18"/>
       <c r="AN64" s="18"/>
@@ -4957,10 +4979,10 @@
       <c r="V65" s="18"/>
       <c r="W65" s="45"/>
       <c r="X65" s="46"/>
-      <c r="Y65" s="122"/>
+      <c r="Y65" s="106"/>
       <c r="Z65" s="46"/>
       <c r="AA65" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB65" s="46"/>
       <c r="AC65" s="46"/>
@@ -4971,7 +4993,7 @@
       <c r="AH65" s="46"/>
       <c r="AI65" s="46"/>
       <c r="AJ65" s="46"/>
-      <c r="AK65" s="123"/>
+      <c r="AK65" s="107"/>
       <c r="AL65" s="47"/>
       <c r="AM65" s="18"/>
       <c r="AN65" s="18"/>
@@ -4987,25 +5009,25 @@
       <c r="V66" s="18"/>
       <c r="W66" s="45"/>
       <c r="X66" s="46"/>
-      <c r="Y66" s="122"/>
+      <c r="Y66" s="106"/>
       <c r="Z66" s="46"/>
       <c r="AA66" s="46"/>
       <c r="AB66" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC66" s="46"/>
       <c r="AD66" s="46"/>
       <c r="AE66" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF66" s="46"/>
       <c r="AG66" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH66" s="46"/>
       <c r="AI66" s="46"/>
       <c r="AJ66" s="46"/>
-      <c r="AK66" s="123"/>
+      <c r="AK66" s="107"/>
       <c r="AL66" s="47"/>
       <c r="AM66" s="18"/>
       <c r="AN66" s="18"/>
@@ -5021,25 +5043,25 @@
       <c r="V67" s="18"/>
       <c r="W67" s="45"/>
       <c r="X67" s="46"/>
-      <c r="Y67" s="122"/>
+      <c r="Y67" s="106"/>
       <c r="Z67" s="46"/>
       <c r="AA67" s="46"/>
       <c r="AB67" s="46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC67" s="46"/>
       <c r="AD67" s="46"/>
       <c r="AE67" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF67" s="46"/>
       <c r="AG67" s="46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AH67" s="46"/>
       <c r="AI67" s="46"/>
       <c r="AJ67" s="46"/>
-      <c r="AK67" s="123"/>
+      <c r="AK67" s="107"/>
       <c r="AL67" s="47"/>
       <c r="AM67" s="18"/>
       <c r="AN67" s="18"/>
@@ -5055,25 +5077,25 @@
       <c r="V68" s="18"/>
       <c r="W68" s="45"/>
       <c r="X68" s="46"/>
-      <c r="Y68" s="124"/>
-      <c r="Z68" s="125"/>
-      <c r="AA68" s="125"/>
-      <c r="AB68" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC68" s="125"/>
-      <c r="AD68" s="125"/>
-      <c r="AE68" s="125" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF68" s="125"/>
-      <c r="AG68" s="125" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH68" s="125"/>
-      <c r="AI68" s="125"/>
-      <c r="AJ68" s="125"/>
-      <c r="AK68" s="126"/>
+      <c r="Y68" s="108"/>
+      <c r="Z68" s="109"/>
+      <c r="AA68" s="109"/>
+      <c r="AB68" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC68" s="109"/>
+      <c r="AD68" s="109"/>
+      <c r="AE68" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF68" s="109"/>
+      <c r="AG68" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH68" s="109"/>
+      <c r="AI68" s="109"/>
+      <c r="AJ68" s="109"/>
+      <c r="AK68" s="110"/>
       <c r="AL68" s="47"/>
       <c r="AM68" s="18"/>
       <c r="AN68" s="18"/>
@@ -5154,7 +5176,7 @@
       <c r="AD71" s="18"/>
       <c r="AE71" s="18"/>
       <c r="AF71" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AG71" s="32"/>
       <c r="AH71" s="18"/>
@@ -5200,7 +5222,7 @@
     </row>
     <row r="83" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C83" s="30"/>
       <c r="D83" s="30"/>
@@ -5248,66 +5270,66 @@
     </row>
     <row r="85" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R89" s="30"/>
     </row>
     <row r="90" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="K32:P33"/>
+    <mergeCell ref="E40:H44"/>
+    <mergeCell ref="J40:O40"/>
     <mergeCell ref="J42:O44"/>
     <mergeCell ref="E49:H53"/>
     <mergeCell ref="J49:O49"/>
     <mergeCell ref="J51:O53"/>
     <mergeCell ref="D32:I33"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="K32:P33"/>
-    <mergeCell ref="E40:H44"/>
-    <mergeCell ref="J40:O40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -5317,5 +5339,8 @@
     <oddHeader>&amp;C&amp;F</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="80" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
+++ b/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\80_補足資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\80_補足資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="スクリーンオブジェクトをJSONで返却する方法" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$A$1:$AS$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$A$1:$AS$83</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>screenObjeId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>layoutObjId</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -636,10 +632,6 @@
   <si>
     <t>layoutObj06
 (list)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2015/1/26</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -692,6 +684,26 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutObjType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/1/27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjBunchDto[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2343,9 +2355,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT91"/>
+  <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -2445,7 +2457,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -2501,7 +2513,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2674,12 +2686,12 @@
         <v>14</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -2698,7 +2710,7 @@
     </row>
     <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2778,7 +2790,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -2787,7 +2799,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
@@ -2803,7 +2815,7 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD14" s="18"/>
       <c r="AE14" s="18"/>
@@ -2813,7 +2825,7 @@
     <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>20</v>
@@ -2824,7 +2836,7 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>24</v>
@@ -2835,30 +2847,30 @@
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
       <c r="AC15" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE15" s="18"/>
       <c r="AF15" s="18"/>
@@ -2867,10 +2879,10 @@
     <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -2878,10 +2890,10 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2889,30 +2901,30 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD16" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE16" s="18"/>
       <c r="AF16" s="18"/>
@@ -2921,7 +2933,7 @@
     <row r="17" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>21</v>
@@ -2932,7 +2944,7 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="18" t="s">
         <v>26</v>
@@ -2949,20 +2961,20 @@
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD17" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE17" s="18"/>
       <c r="AF17" s="18"/>
@@ -2971,10 +2983,10 @@
     <row r="18" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -2982,10 +2994,10 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -3002,17 +3014,17 @@
         <v>55</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
       <c r="AA18" s="18"/>
       <c r="AB18" s="18"/>
       <c r="AC18" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD18" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE18" s="18"/>
       <c r="AF18" s="18"/>
@@ -3040,17 +3052,21 @@
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
       <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
+      <c r="W19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="X19" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="18"/>
       <c r="AB19" s="18"/>
       <c r="AC19" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD19" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE19" s="18"/>
       <c r="AF19" s="18"/>
@@ -3085,10 +3101,10 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
       <c r="AC20" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD20" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE20" s="18"/>
       <c r="AF20" s="18"/>
@@ -3147,7 +3163,7 @@
     </row>
     <row r="23" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -3166,7 +3182,7 @@
     </row>
     <row r="24" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -3185,7 +3201,7 @@
     </row>
     <row r="25" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -3267,7 +3283,7 @@
     <row r="28" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
       <c r="C28" s="51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -3364,7 +3380,7 @@
       <c r="B30" s="17"/>
       <c r="C30" s="76"/>
       <c r="D30" s="130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="131"/>
       <c r="F30" s="131"/>
@@ -3431,7 +3447,7 @@
       <c r="U31" s="18"/>
       <c r="V31" s="18"/>
       <c r="W31" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X31" s="56"/>
       <c r="Y31" s="56"/>
@@ -3449,7 +3465,7 @@
       <c r="AK31" s="56"/>
       <c r="AL31" s="57"/>
       <c r="AM31" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN31" s="18"/>
       <c r="AO31" s="18"/>
@@ -3462,7 +3478,7 @@
       <c r="B32" s="17"/>
       <c r="C32" s="76"/>
       <c r="D32" s="124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="125"/>
       <c r="F32" s="125"/>
@@ -3471,7 +3487,7 @@
       <c r="I32" s="126"/>
       <c r="J32" s="77"/>
       <c r="K32" s="124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L32" s="125"/>
       <c r="M32" s="125"/>
@@ -3494,11 +3510,11 @@
       <c r="AC32" s="59"/>
       <c r="AD32" s="59"/>
       <c r="AE32" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF32" s="59"/>
       <c r="AG32" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH32" s="59"/>
       <c r="AI32" s="59"/>
@@ -3545,11 +3561,11 @@
       <c r="AC33" s="59"/>
       <c r="AD33" s="59"/>
       <c r="AE33" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF33" s="59"/>
       <c r="AG33" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AH33" s="59"/>
       <c r="AI33" s="59"/>
@@ -3587,7 +3603,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="58"/>
       <c r="X34" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y34" s="59"/>
       <c r="Z34" s="59"/>
@@ -3635,7 +3651,7 @@
       <c r="W35" s="58"/>
       <c r="X35" s="59"/>
       <c r="Y35" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z35" s="59"/>
       <c r="AA35" s="59"/>
@@ -3661,7 +3677,7 @@
     <row r="36" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
       <c r="C36" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3685,18 +3701,18 @@
       <c r="X36" s="59"/>
       <c r="Y36" s="59"/>
       <c r="Z36" s="59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA36" s="59"/>
       <c r="AB36" s="59"/>
       <c r="AC36" s="59"/>
       <c r="AD36" s="59"/>
       <c r="AE36" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF36" s="59"/>
       <c r="AG36" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH36" s="59"/>
       <c r="AI36" s="59"/>
@@ -3736,18 +3752,18 @@
       <c r="X37" s="59"/>
       <c r="Y37" s="59"/>
       <c r="Z37" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA37" s="59"/>
       <c r="AB37" s="59"/>
       <c r="AC37" s="59"/>
       <c r="AD37" s="59"/>
       <c r="AE37" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF37" s="59"/>
       <c r="AG37" s="59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH37" s="59"/>
       <c r="AI37" s="59"/>
@@ -3766,7 +3782,7 @@
       <c r="B38" s="17"/>
       <c r="C38" s="37"/>
       <c r="D38" s="91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
@@ -3789,18 +3805,18 @@
       <c r="X38" s="62"/>
       <c r="Y38" s="62"/>
       <c r="Z38" s="62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA38" s="62"/>
       <c r="AB38" s="62"/>
       <c r="AC38" s="62"/>
       <c r="AD38" s="62"/>
       <c r="AE38" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF38" s="62"/>
       <c r="AG38" s="62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH38" s="62"/>
       <c r="AI38" s="62"/>
@@ -3865,14 +3881,14 @@
       <c r="C40" s="37"/>
       <c r="D40" s="89"/>
       <c r="E40" s="112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="113"/>
       <c r="G40" s="113"/>
       <c r="H40" s="114"/>
       <c r="I40" s="18"/>
       <c r="J40" s="121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K40" s="122"/>
       <c r="L40" s="122"/>
@@ -3886,7 +3902,7 @@
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
       <c r="W40" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X40" s="43"/>
       <c r="Y40" s="43"/>
@@ -3904,7 +3920,7 @@
       <c r="AK40" s="43"/>
       <c r="AL40" s="44"/>
       <c r="AM40" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AN40" s="18"/>
       <c r="AO40" s="18"/>
@@ -3945,11 +3961,11 @@
       <c r="AC41" s="46"/>
       <c r="AD41" s="46"/>
       <c r="AE41" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF41" s="46"/>
       <c r="AG41" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH41" s="46"/>
       <c r="AI41" s="46"/>
@@ -3974,7 +3990,7 @@
       <c r="H42" s="117"/>
       <c r="I42" s="18"/>
       <c r="J42" s="112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K42" s="113"/>
       <c r="L42" s="113"/>
@@ -3998,11 +4014,11 @@
       <c r="AC42" s="46"/>
       <c r="AD42" s="46"/>
       <c r="AE42" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF42" s="46"/>
       <c r="AG42" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH42" s="46"/>
       <c r="AI42" s="46"/>
@@ -4040,7 +4056,7 @@
       <c r="V43" s="18"/>
       <c r="W43" s="45"/>
       <c r="X43" s="111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y43" s="111"/>
       <c r="Z43" s="111"/>
@@ -4088,7 +4104,7 @@
       <c r="W44" s="45"/>
       <c r="X44" s="46"/>
       <c r="Y44" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z44" s="65"/>
       <c r="AA44" s="65"/>
@@ -4136,18 +4152,18 @@
       <c r="X45" s="46"/>
       <c r="Y45" s="67"/>
       <c r="Z45" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA45" s="46"/>
       <c r="AB45" s="46"/>
       <c r="AC45" s="46"/>
       <c r="AD45" s="46"/>
       <c r="AE45" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF45" s="46"/>
       <c r="AG45" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH45" s="46"/>
       <c r="AI45" s="46"/>
@@ -4188,7 +4204,7 @@
       <c r="Y46" s="67"/>
       <c r="Z46" s="46"/>
       <c r="AA46" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB46" s="46"/>
       <c r="AC46" s="46"/>
@@ -4213,7 +4229,7 @@
       <c r="B47" s="17"/>
       <c r="C47" s="37"/>
       <c r="D47" s="92" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
@@ -4238,16 +4254,16 @@
       <c r="Z47" s="46"/>
       <c r="AA47" s="46"/>
       <c r="AB47" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC47" s="46"/>
       <c r="AD47" s="46"/>
       <c r="AE47" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF47" s="46"/>
       <c r="AG47" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH47" s="46"/>
       <c r="AI47" s="46"/>
@@ -4287,18 +4303,18 @@
       <c r="X48" s="46"/>
       <c r="Y48" s="67"/>
       <c r="Z48" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA48" s="46"/>
       <c r="AB48" s="46"/>
       <c r="AC48" s="46"/>
       <c r="AD48" s="46"/>
       <c r="AE48" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF48" s="46"/>
       <c r="AG48" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH48" s="46"/>
       <c r="AI48" s="46"/>
@@ -4318,14 +4334,14 @@
       <c r="C49" s="37"/>
       <c r="D49" s="96"/>
       <c r="E49" s="112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" s="113"/>
       <c r="G49" s="113"/>
       <c r="H49" s="114"/>
       <c r="I49" s="18"/>
       <c r="J49" s="121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K49" s="122"/>
       <c r="L49" s="122"/>
@@ -4343,7 +4359,7 @@
       <c r="Y49" s="67"/>
       <c r="Z49" s="46"/>
       <c r="AA49" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB49" s="46"/>
       <c r="AC49" s="46"/>
@@ -4391,16 +4407,16 @@
       <c r="Z50" s="46"/>
       <c r="AA50" s="46"/>
       <c r="AB50" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC50" s="46"/>
       <c r="AD50" s="46"/>
       <c r="AE50" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF50" s="46"/>
       <c r="AG50" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH50" s="46"/>
       <c r="AI50" s="46"/>
@@ -4425,7 +4441,7 @@
       <c r="H51" s="117"/>
       <c r="I51" s="18"/>
       <c r="J51" s="112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
@@ -4442,18 +4458,18 @@
       <c r="X51" s="46"/>
       <c r="Y51" s="67"/>
       <c r="Z51" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA51" s="46"/>
       <c r="AB51" s="46"/>
       <c r="AC51" s="46"/>
       <c r="AD51" s="46"/>
       <c r="AE51" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF51" s="46"/>
       <c r="AG51" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH51" s="46"/>
       <c r="AI51" s="46"/>
@@ -4494,7 +4510,7 @@
       <c r="Y52" s="67"/>
       <c r="Z52" s="46"/>
       <c r="AA52" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB52" s="46"/>
       <c r="AC52" s="46"/>
@@ -4542,16 +4558,16 @@
       <c r="Z53" s="46"/>
       <c r="AA53" s="46"/>
       <c r="AB53" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC53" s="46"/>
       <c r="AD53" s="46"/>
       <c r="AE53" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF53" s="46"/>
       <c r="AG53" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH53" s="46"/>
       <c r="AI53" s="46"/>
@@ -4593,16 +4609,16 @@
       <c r="Z54" s="46"/>
       <c r="AA54" s="46"/>
       <c r="AB54" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC54" s="46"/>
       <c r="AD54" s="46"/>
       <c r="AE54" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF54" s="46"/>
       <c r="AG54" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH54" s="46"/>
       <c r="AI54" s="46"/>
@@ -4644,16 +4660,16 @@
       <c r="Z55" s="70"/>
       <c r="AA55" s="70"/>
       <c r="AB55" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC55" s="70"/>
       <c r="AD55" s="70"/>
       <c r="AE55" s="70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF55" s="70"/>
       <c r="AG55" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH55" s="70"/>
       <c r="AI55" s="70"/>
@@ -4720,7 +4736,7 @@
       <c r="W57" s="45"/>
       <c r="X57" s="46"/>
       <c r="Y57" s="103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z57" s="104"/>
       <c r="AA57" s="104"/>
@@ -4751,18 +4767,18 @@
       <c r="X58" s="46"/>
       <c r="Y58" s="106"/>
       <c r="Z58" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA58" s="46"/>
       <c r="AB58" s="46"/>
       <c r="AC58" s="46"/>
       <c r="AD58" s="46"/>
       <c r="AE58" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF58" s="46"/>
       <c r="AG58" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH58" s="46"/>
       <c r="AI58" s="46"/>
@@ -4786,7 +4802,7 @@
       <c r="Y59" s="106"/>
       <c r="Z59" s="46"/>
       <c r="AA59" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB59" s="46"/>
       <c r="AC59" s="46"/>
@@ -4817,16 +4833,16 @@
       <c r="Z60" s="46"/>
       <c r="AA60" s="46"/>
       <c r="AB60" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC60" s="46"/>
       <c r="AD60" s="46"/>
       <c r="AE60" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF60" s="46"/>
       <c r="AG60" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH60" s="46"/>
       <c r="AI60" s="46"/>
@@ -4849,18 +4865,18 @@
       <c r="X61" s="46"/>
       <c r="Y61" s="106"/>
       <c r="Z61" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA61" s="46"/>
       <c r="AB61" s="46"/>
       <c r="AC61" s="46"/>
       <c r="AD61" s="46"/>
       <c r="AE61" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF61" s="46"/>
       <c r="AG61" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH61" s="46"/>
       <c r="AI61" s="46"/>
@@ -4884,7 +4900,7 @@
       <c r="Y62" s="106"/>
       <c r="Z62" s="46"/>
       <c r="AA62" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB62" s="46"/>
       <c r="AC62" s="46"/>
@@ -4915,16 +4931,16 @@
       <c r="Z63" s="46"/>
       <c r="AA63" s="46"/>
       <c r="AB63" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC63" s="46"/>
       <c r="AD63" s="46"/>
       <c r="AE63" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF63" s="46"/>
       <c r="AG63" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH63" s="46"/>
       <c r="AI63" s="46"/>
@@ -4947,18 +4963,18 @@
       <c r="X64" s="46"/>
       <c r="Y64" s="106"/>
       <c r="Z64" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA64" s="46"/>
       <c r="AB64" s="46"/>
       <c r="AC64" s="46"/>
       <c r="AD64" s="46"/>
       <c r="AE64" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF64" s="46"/>
       <c r="AG64" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH64" s="46"/>
       <c r="AI64" s="46"/>
@@ -4973,7 +4989,7 @@
       <c r="AR64" s="18"/>
       <c r="AS64" s="19"/>
     </row>
-    <row r="65" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T65" s="17"/>
       <c r="U65" s="18"/>
       <c r="V65" s="18"/>
@@ -4982,7 +4998,7 @@
       <c r="Y65" s="106"/>
       <c r="Z65" s="46"/>
       <c r="AA65" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB65" s="46"/>
       <c r="AC65" s="46"/>
@@ -5003,7 +5019,7 @@
       <c r="AR65" s="18"/>
       <c r="AS65" s="19"/>
     </row>
-    <row r="66" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T66" s="17"/>
       <c r="U66" s="18"/>
       <c r="V66" s="18"/>
@@ -5013,16 +5029,16 @@
       <c r="Z66" s="46"/>
       <c r="AA66" s="46"/>
       <c r="AB66" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC66" s="46"/>
       <c r="AD66" s="46"/>
       <c r="AE66" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF66" s="46"/>
       <c r="AG66" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH66" s="46"/>
       <c r="AI66" s="46"/>
@@ -5037,7 +5053,7 @@
       <c r="AR66" s="18"/>
       <c r="AS66" s="19"/>
     </row>
-    <row r="67" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T67" s="17"/>
       <c r="U67" s="18"/>
       <c r="V67" s="18"/>
@@ -5047,16 +5063,16 @@
       <c r="Z67" s="46"/>
       <c r="AA67" s="46"/>
       <c r="AB67" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC67" s="46"/>
       <c r="AD67" s="46"/>
       <c r="AE67" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF67" s="46"/>
       <c r="AG67" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH67" s="46"/>
       <c r="AI67" s="46"/>
@@ -5071,7 +5087,7 @@
       <c r="AR67" s="18"/>
       <c r="AS67" s="19"/>
     </row>
-    <row r="68" spans="20:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="T68" s="17"/>
       <c r="U68" s="18"/>
       <c r="V68" s="18"/>
@@ -5081,16 +5097,16 @@
       <c r="Z68" s="109"/>
       <c r="AA68" s="109"/>
       <c r="AB68" s="109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC68" s="109"/>
       <c r="AD68" s="109"/>
       <c r="AE68" s="109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF68" s="109"/>
       <c r="AG68" s="109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH68" s="109"/>
       <c r="AI68" s="109"/>
@@ -5105,7 +5121,7 @@
       <c r="AR68" s="18"/>
       <c r="AS68" s="19"/>
     </row>
-    <row r="69" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T69" s="17"/>
       <c r="U69" s="18"/>
       <c r="V69" s="18"/>
@@ -5133,7 +5149,7 @@
       <c r="AR69" s="18"/>
       <c r="AS69" s="19"/>
     </row>
-    <row r="70" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T70" s="17"/>
       <c r="U70" s="18"/>
       <c r="V70" s="18"/>
@@ -5162,7 +5178,7 @@
       <c r="AS70" s="19"/>
       <c r="AT70" s="30"/>
     </row>
-    <row r="71" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T71" s="17"/>
       <c r="U71" s="18"/>
       <c r="V71" s="18"/>
@@ -5176,7 +5192,7 @@
       <c r="AD71" s="18"/>
       <c r="AE71" s="18"/>
       <c r="AF71" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG71" s="32"/>
       <c r="AH71" s="18"/>
@@ -5192,7 +5208,7 @@
       <c r="AR71" s="18"/>
       <c r="AS71" s="19"/>
     </row>
-    <row r="72" spans="20:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T72" s="23"/>
       <c r="U72" s="24"/>
       <c r="V72" s="24"/>
@@ -5220,116 +5236,119 @@
       <c r="AR72" s="24"/>
       <c r="AS72" s="25"/>
     </row>
-    <row r="83" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="30" t="s">
+    <row r="75" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="30"/>
-    </row>
-    <row r="84" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q84" s="30"/>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30"/>
-      <c r="V84" s="30"/>
-      <c r="W84" s="30"/>
-      <c r="X84" s="30"/>
-      <c r="Y84" s="30"/>
-      <c r="Z84" s="30"/>
-      <c r="AA84" s="30"/>
-      <c r="AB84" s="30"/>
-      <c r="AC84" s="30"/>
-      <c r="AD84" s="30"/>
-      <c r="AE84" s="30"/>
-      <c r="AF84" s="30"/>
-      <c r="AG84" s="30"/>
-      <c r="AH84" s="30"/>
-      <c r="AI84" s="30"/>
-      <c r="AJ84" s="30"/>
-      <c r="AK84" s="30"/>
-      <c r="AL84" s="30"/>
-      <c r="AM84" s="30"/>
-      <c r="AN84" s="30"/>
-      <c r="AO84" s="30"/>
-      <c r="AP84" s="30"/>
-      <c r="AQ84" s="30"/>
-      <c r="AR84" s="30"/>
-    </row>
-    <row r="85" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="1" t="s">
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="30"/>
+    </row>
+    <row r="76" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q76" s="30"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="30"/>
+      <c r="U76" s="30"/>
+      <c r="V76" s="30"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="30"/>
+      <c r="AA76" s="30"/>
+      <c r="AB76" s="30"/>
+      <c r="AC76" s="30"/>
+      <c r="AD76" s="30"/>
+      <c r="AE76" s="30"/>
+      <c r="AF76" s="30"/>
+      <c r="AG76" s="30"/>
+      <c r="AH76" s="30"/>
+      <c r="AI76" s="30"/>
+      <c r="AJ76" s="30"/>
+      <c r="AK76" s="30"/>
+      <c r="AL76" s="30"/>
+      <c r="AM76" s="30"/>
+      <c r="AN76" s="30"/>
+      <c r="AO76" s="30"/>
+      <c r="AP76" s="30"/>
+      <c r="AQ76" s="30"/>
+      <c r="AR76" s="30"/>
+    </row>
+    <row r="77" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="1" t="s">
+    <row r="78" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H87" s="1" t="s">
+    <row r="79" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H88" s="1" t="s">
+    <row r="80" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="28" t="s">
+    <row r="81" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R89" s="30"/>
-    </row>
-    <row r="90" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="28" t="s">
+      <c r="R81" s="30"/>
+    </row>
+    <row r="82" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="1" t="s">
+    <row r="83" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E49:H53"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J51:O53"/>
+    <mergeCell ref="D32:I33"/>
     <mergeCell ref="D30:P30"/>
     <mergeCell ref="K32:P33"/>
     <mergeCell ref="E40:H44"/>
     <mergeCell ref="J40:O40"/>
     <mergeCell ref="J42:O44"/>
-    <mergeCell ref="E49:H53"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J51:O53"/>
-    <mergeCell ref="D32:I33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -5339,8 +5358,5 @@
     <oddHeader>&amp;C&amp;F</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="80" max="16383" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
--- a/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
+++ b/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="107">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>attrGrpId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>attrGrpType</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -553,14 +549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>attDto[1]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attDto[2]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキスト文01</t>
     <rPh sb="4" eb="5">
       <t>ブン</t>
@@ -572,21 +560,6 @@
     <rPh sb="4" eb="5">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキスト文03</t>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>displayNum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>displayNum</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -695,15 +668,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015/1/27</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>screenObjBunchDto[1]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regionId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facilityGrpId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facilityId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attrGrpId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/1/28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>screenObjGrpId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attDto[1]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2686,7 +2683,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2790,7 +2787,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -2799,7 +2796,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
@@ -2850,7 +2847,7 @@
         <v>55</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
@@ -2870,7 +2867,7 @@
         <v>55</v>
       </c>
       <c r="AD15" s="18" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="AE15" s="18"/>
       <c r="AF15" s="18"/>
@@ -2882,7 +2879,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -2893,7 +2890,7 @@
         <v>55</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2901,10 +2898,10 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
@@ -2914,7 +2911,7 @@
         <v>55</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
@@ -2924,7 +2921,7 @@
         <v>55</v>
       </c>
       <c r="AD16" s="18" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AE16" s="18"/>
       <c r="AF16" s="18"/>
@@ -2954,8 +2951,12 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
+      <c r="Q17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
@@ -2964,7 +2965,7 @@
         <v>55</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
@@ -2974,7 +2975,7 @@
         <v>55</v>
       </c>
       <c r="AD17" s="18" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AE17" s="18"/>
       <c r="AF17" s="18"/>
@@ -2986,7 +2987,7 @@
         <v>54</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -2994,18 +2995,22 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
+      <c r="Q18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
@@ -3014,7 +3019,7 @@
         <v>55</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
@@ -3024,7 +3029,7 @@
         <v>55</v>
       </c>
       <c r="AD18" s="18" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="AE18" s="18"/>
       <c r="AF18" s="18"/>
@@ -3039,8 +3044,12 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -3056,7 +3065,7 @@
         <v>54</v>
       </c>
       <c r="X19" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
@@ -3066,7 +3075,7 @@
         <v>55</v>
       </c>
       <c r="AD19" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AE19" s="18"/>
       <c r="AF19" s="18"/>
@@ -3101,89 +3110,127 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
       <c r="AC20" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD20" s="18" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE20" s="18"/>
       <c r="AF20" s="18"/>
       <c r="AG20" s="19"/>
     </row>
     <row r="21" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="25"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="19"/>
     </row>
     <row r="22" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="19"/>
     </row>
     <row r="23" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="25"/>
     </row>
     <row r="24" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -3200,8 +3247,8 @@
       <c r="P24" s="26"/>
     </row>
     <row r="25" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
-        <v>37</v>
+      <c r="B25" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -3219,7 +3266,9 @@
       <c r="P25" s="26"/>
     </row>
     <row r="26" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="26"/>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -3236,171 +3285,111 @@
       <c r="P26" s="26"/>
     </row>
     <row r="27" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="13"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
-      <c r="AN27" s="12"/>
-      <c r="AO27" s="12"/>
-      <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
-      <c r="AS27" s="13"/>
-    </row>
-    <row r="28" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
-      <c r="C28" s="51" t="s">
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+    </row>
+    <row r="28" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+    </row>
+    <row r="29" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="13"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="13"/>
+    </row>
+    <row r="30" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="17"/>
+      <c r="C30" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="19"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="18"/>
-      <c r="AM28" s="18"/>
-      <c r="AN28" s="18"/>
-      <c r="AO28" s="18"/>
-      <c r="AP28" s="18"/>
-      <c r="AQ28" s="18"/>
-      <c r="AR28" s="18"/>
-      <c r="AS28" s="19"/>
-    </row>
-    <row r="29" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="19"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="18"/>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="18"/>
-      <c r="AM29" s="18"/>
-      <c r="AN29" s="18"/>
-      <c r="AO29" s="18"/>
-      <c r="AP29" s="18"/>
-      <c r="AQ29" s="18"/>
-      <c r="AR29" s="18"/>
-      <c r="AS29" s="19"/>
-    </row>
-    <row r="30" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="132"/>
-      <c r="Q30" s="53"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
       <c r="R30" s="19"/>
       <c r="T30" s="17"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="U30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="V30" s="18"/>
       <c r="W30" s="18"/>
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
@@ -3427,46 +3416,44 @@
     </row>
     <row r="31" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="17"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="53"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="52"/>
       <c r="R31" s="19"/>
       <c r="T31" s="17"/>
       <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="56"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="56"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="V31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="18"/>
       <c r="AN31" s="18"/>
       <c r="AO31" s="18"/>
       <c r="AP31" s="18"/>
@@ -3477,50 +3464,44 @@
     <row r="32" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="17"/>
       <c r="C32" s="76"/>
-      <c r="D32" s="124" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="126"/>
+      <c r="D32" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="132"/>
       <c r="Q32" s="53"/>
       <c r="R32" s="19"/>
       <c r="T32" s="17"/>
       <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH32" s="59"/>
-      <c r="AI32" s="59"/>
-      <c r="AJ32" s="59"/>
-      <c r="AK32" s="59"/>
-      <c r="AL32" s="60"/>
+      <c r="V32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
+      <c r="AJ32" s="18"/>
+      <c r="AK32" s="18"/>
+      <c r="AL32" s="18"/>
       <c r="AM32" s="18"/>
       <c r="AN32" s="18"/>
       <c r="AO32" s="18"/>
@@ -3532,47 +3513,45 @@
     <row r="33" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="17"/>
       <c r="C33" s="76"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="129"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
       <c r="Q33" s="53"/>
       <c r="R33" s="19"/>
       <c r="T33" s="17"/>
       <c r="U33" s="18"/>
       <c r="V33" s="18"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH33" s="59"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="60"/>
-      <c r="AM33" s="18"/>
+      <c r="W33" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="51" t="s">
+        <v>50</v>
+      </c>
       <c r="AN33" s="18"/>
       <c r="AO33" s="18"/>
       <c r="AP33" s="18"/>
@@ -3580,30 +3559,34 @@
       <c r="AR33" s="18"/>
       <c r="AS33" s="19"/>
     </row>
-    <row r="34" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="17"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="54"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="125"/>
+      <c r="M34" s="125"/>
+      <c r="N34" s="125"/>
+      <c r="O34" s="125"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="53"/>
       <c r="R34" s="19"/>
       <c r="T34" s="17"/>
       <c r="U34" s="18"/>
       <c r="V34" s="18"/>
       <c r="W34" s="58"/>
       <c r="X34" s="59" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="Y34" s="59"/>
       <c r="Z34" s="59"/>
@@ -3611,9 +3594,13 @@
       <c r="AB34" s="59"/>
       <c r="AC34" s="59"/>
       <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
+      <c r="AE34" s="59" t="s">
+        <v>47</v>
+      </c>
       <c r="AF34" s="59"/>
-      <c r="AG34" s="59"/>
+      <c r="AG34" s="59" t="s">
+        <v>46</v>
+      </c>
       <c r="AH34" s="59"/>
       <c r="AI34" s="59"/>
       <c r="AJ34" s="59"/>
@@ -3629,38 +3616,42 @@
     </row>
     <row r="35" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="53"/>
       <c r="R35" s="19"/>
       <c r="T35" s="17"/>
       <c r="U35" s="18"/>
       <c r="V35" s="18"/>
       <c r="W35" s="58"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59" t="s">
-        <v>94</v>
-      </c>
+      <c r="X35" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y35" s="59"/>
       <c r="Z35" s="59"/>
       <c r="AA35" s="59"/>
       <c r="AB35" s="59"/>
       <c r="AC35" s="59"/>
       <c r="AD35" s="59"/>
-      <c r="AE35" s="59"/>
+      <c r="AE35" s="59" t="s">
+        <v>47</v>
+      </c>
       <c r="AF35" s="59"/>
-      <c r="AG35" s="59"/>
+      <c r="AG35" s="59" t="s">
+        <v>45</v>
+      </c>
       <c r="AH35" s="59"/>
       <c r="AI35" s="59"/>
       <c r="AJ35" s="59"/>
@@ -3676,44 +3667,38 @@
     </row>
     <row r="36" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
-      <c r="C36" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="54"/>
       <c r="R36" s="19"/>
       <c r="T36" s="17"/>
       <c r="U36" s="18"/>
       <c r="V36" s="18"/>
       <c r="W36" s="58"/>
-      <c r="X36" s="59"/>
+      <c r="X36" s="59" t="s">
+        <v>89</v>
+      </c>
       <c r="Y36" s="59"/>
-      <c r="Z36" s="59" t="s">
-        <v>38</v>
-      </c>
+      <c r="Z36" s="59"/>
       <c r="AA36" s="59"/>
       <c r="AB36" s="59"/>
       <c r="AC36" s="59"/>
       <c r="AD36" s="59"/>
-      <c r="AE36" s="59" t="s">
-        <v>47</v>
-      </c>
+      <c r="AE36" s="59"/>
       <c r="AF36" s="59"/>
-      <c r="AG36" s="59" t="s">
-        <v>42</v>
-      </c>
+      <c r="AG36" s="59"/>
       <c r="AH36" s="59"/>
       <c r="AI36" s="59"/>
       <c r="AJ36" s="59"/>
@@ -3729,42 +3714,38 @@
     </row>
     <row r="37" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="17"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="36"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
       <c r="R37" s="19"/>
       <c r="T37" s="17"/>
       <c r="U37" s="18"/>
       <c r="V37" s="18"/>
       <c r="W37" s="58"/>
       <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y37" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z37" s="59"/>
       <c r="AA37" s="59"/>
       <c r="AB37" s="59"/>
       <c r="AC37" s="59"/>
       <c r="AD37" s="59"/>
-      <c r="AE37" s="59" t="s">
-        <v>47</v>
-      </c>
+      <c r="AE37" s="59"/>
       <c r="AF37" s="59"/>
-      <c r="AG37" s="59" t="s">
-        <v>43</v>
-      </c>
+      <c r="AG37" s="59"/>
       <c r="AH37" s="59"/>
       <c r="AI37" s="59"/>
       <c r="AJ37" s="59"/>
@@ -3780,10 +3761,10 @@
     </row>
     <row r="38" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="17"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="91" t="s">
-        <v>94</v>
-      </c>
+      <c r="C38" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -3796,33 +3777,33 @@
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
-      <c r="Q38" s="38"/>
+      <c r="Q38" s="18"/>
       <c r="R38" s="19"/>
       <c r="T38" s="17"/>
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="62"/>
-      <c r="AE38" s="62" t="s">
+      <c r="W38" s="58"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH38" s="62"/>
-      <c r="AI38" s="62"/>
-      <c r="AJ38" s="62"/>
-      <c r="AK38" s="62"/>
-      <c r="AL38" s="63"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="60"/>
       <c r="AM38" s="18"/>
       <c r="AN38" s="18"/>
       <c r="AO38" s="18"/>
@@ -3833,41 +3814,47 @@
     </row>
     <row r="39" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="17"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="38"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="36"/>
       <c r="R39" s="19"/>
       <c r="T39" s="17"/>
       <c r="U39" s="18"/>
       <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="18"/>
-      <c r="AI39" s="18"/>
-      <c r="AJ39" s="18"/>
-      <c r="AK39" s="18"/>
-      <c r="AL39" s="18"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="60"/>
       <c r="AM39" s="18"/>
       <c r="AN39" s="18"/>
       <c r="AO39" s="18"/>
@@ -3876,52 +3863,52 @@
       <c r="AR39" s="18"/>
       <c r="AS39" s="19"/>
     </row>
-    <row r="40" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="17"/>
       <c r="C40" s="37"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="112" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="114"/>
+      <c r="D40" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="18"/>
-      <c r="J40" s="121" t="s">
-        <v>98</v>
-      </c>
-      <c r="K40" s="122"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="122"/>
-      <c r="N40" s="122"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="73"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
       <c r="Q40" s="38"/>
       <c r="R40" s="19"/>
       <c r="T40" s="17"/>
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
-      <c r="W40" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" s="43"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="43"/>
-      <c r="AC40" s="43"/>
-      <c r="AD40" s="43"/>
-      <c r="AE40" s="43"/>
-      <c r="AF40" s="43"/>
-      <c r="AG40" s="43"/>
-      <c r="AH40" s="43"/>
-      <c r="AI40" s="43"/>
-      <c r="AJ40" s="43"/>
-      <c r="AK40" s="43"/>
-      <c r="AL40" s="44"/>
-      <c r="AM40" s="33" t="s">
-        <v>51</v>
-      </c>
+      <c r="W40" s="61"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="62"/>
+      <c r="AE40" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF40" s="62"/>
+      <c r="AG40" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH40" s="62"/>
+      <c r="AI40" s="62"/>
+      <c r="AJ40" s="62"/>
+      <c r="AK40" s="62"/>
+      <c r="AL40" s="63"/>
+      <c r="AM40" s="18"/>
       <c r="AN40" s="18"/>
       <c r="AO40" s="18"/>
       <c r="AP40" s="18"/>
@@ -3932,46 +3919,40 @@
     <row r="41" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="17"/>
       <c r="C41" s="37"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="73"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="88"/>
       <c r="Q41" s="38"/>
       <c r="R41" s="19"/>
       <c r="T41" s="17"/>
       <c r="U41" s="18"/>
       <c r="V41" s="18"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="46"/>
-      <c r="AB41" s="46"/>
-      <c r="AC41" s="46"/>
-      <c r="AD41" s="46"/>
-      <c r="AE41" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF41" s="46"/>
-      <c r="AG41" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH41" s="46"/>
-      <c r="AI41" s="46"/>
-      <c r="AJ41" s="46"/>
-      <c r="AK41" s="46"/>
-      <c r="AL41" s="47"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18"/>
       <c r="AM41" s="18"/>
       <c r="AN41" s="18"/>
       <c r="AO41" s="18"/>
@@ -3984,48 +3965,48 @@
       <c r="B42" s="17"/>
       <c r="C42" s="37"/>
       <c r="D42" s="89"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="117"/>
+      <c r="E42" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="114"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="112" t="s">
-        <v>99</v>
-      </c>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="114"/>
+      <c r="J42" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="123"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="38"/>
       <c r="R42" s="19"/>
       <c r="T42" s="17"/>
       <c r="U42" s="18"/>
       <c r="V42" s="18"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH42" s="46"/>
-      <c r="AI42" s="46"/>
-      <c r="AJ42" s="46"/>
-      <c r="AK42" s="46"/>
-      <c r="AL42" s="47"/>
-      <c r="AM42" s="18"/>
+      <c r="W42" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="43"/>
+      <c r="AF42" s="43"/>
+      <c r="AG42" s="43"/>
+      <c r="AH42" s="43"/>
+      <c r="AI42" s="43"/>
+      <c r="AJ42" s="43"/>
+      <c r="AK42" s="43"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="33" t="s">
+        <v>51</v>
+      </c>
       <c r="AN42" s="18"/>
       <c r="AO42" s="18"/>
       <c r="AP42" s="18"/>
@@ -4033,7 +4014,7 @@
       <c r="AR42" s="18"/>
       <c r="AS42" s="19"/>
     </row>
-    <row r="43" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="17"/>
       <c r="C43" s="37"/>
       <c r="D43" s="89"/>
@@ -4042,12 +4023,12 @@
       <c r="G43" s="116"/>
       <c r="H43" s="117"/>
       <c r="I43" s="18"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="117"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
       <c r="P43" s="73"/>
       <c r="Q43" s="38"/>
       <c r="R43" s="19"/>
@@ -4055,18 +4036,22 @@
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
       <c r="W43" s="45"/>
-      <c r="X43" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y43" s="111"/>
-      <c r="Z43" s="111"/>
-      <c r="AA43" s="111"/>
-      <c r="AB43" s="111"/>
-      <c r="AC43" s="111"/>
-      <c r="AD43" s="111"/>
-      <c r="AE43" s="111"/>
+      <c r="X43" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="46"/>
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="46" t="s">
+        <v>47</v>
+      </c>
       <c r="AF43" s="46"/>
-      <c r="AG43" s="46"/>
+      <c r="AG43" s="46" t="s">
+        <v>48</v>
+      </c>
       <c r="AH43" s="46"/>
       <c r="AI43" s="46"/>
       <c r="AJ43" s="46"/>
@@ -4083,18 +4068,20 @@
     <row r="44" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="119"/>
-      <c r="N44" s="119"/>
-      <c r="O44" s="120"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="114"/>
       <c r="P44" s="73"/>
       <c r="Q44" s="38"/>
       <c r="R44" s="19"/>
@@ -4102,22 +4089,26 @@
       <c r="U44" s="18"/>
       <c r="V44" s="18"/>
       <c r="W44" s="45"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="65"/>
-      <c r="AC44" s="65"/>
-      <c r="AD44" s="65"/>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="65"/>
-      <c r="AG44" s="65"/>
-      <c r="AH44" s="65"/>
-      <c r="AI44" s="65"/>
-      <c r="AJ44" s="65"/>
-      <c r="AK44" s="66"/>
+      <c r="X44" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="46"/>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="46"/>
+      <c r="AE44" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH44" s="46"/>
+      <c r="AI44" s="46"/>
+      <c r="AJ44" s="46"/>
+      <c r="AK44" s="46"/>
       <c r="AL44" s="47"/>
       <c r="AM44" s="18"/>
       <c r="AN44" s="18"/>
@@ -4130,45 +4121,41 @@
     <row r="45" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="17"/>
       <c r="C45" s="37"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="90"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="73"/>
       <c r="Q45" s="38"/>
       <c r="R45" s="19"/>
       <c r="T45" s="17"/>
       <c r="U45" s="18"/>
       <c r="V45" s="18"/>
       <c r="W45" s="45"/>
-      <c r="X45" s="46"/>
-      <c r="Y45" s="67"/>
-      <c r="Z45" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA45" s="46"/>
-      <c r="AB45" s="46"/>
-      <c r="AC45" s="46"/>
-      <c r="AD45" s="46"/>
-      <c r="AE45" s="46" t="s">
-        <v>69</v>
-      </c>
+      <c r="X45" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y45" s="111"/>
+      <c r="Z45" s="111"/>
+      <c r="AA45" s="111"/>
+      <c r="AB45" s="111"/>
+      <c r="AC45" s="111"/>
+      <c r="AD45" s="111"/>
+      <c r="AE45" s="111"/>
       <c r="AF45" s="46"/>
-      <c r="AG45" s="46" t="s">
-        <v>74</v>
-      </c>
+      <c r="AG45" s="46"/>
       <c r="AH45" s="46"/>
       <c r="AI45" s="46"/>
       <c r="AJ45" s="46"/>
-      <c r="AK45" s="68"/>
+      <c r="AK45" s="46"/>
       <c r="AL45" s="47"/>
       <c r="AM45" s="18"/>
       <c r="AN45" s="18"/>
@@ -4181,19 +4168,19 @@
     <row r="46" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="17"/>
       <c r="C46" s="37"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="77"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="120"/>
       <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="18"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="73"/>
       <c r="Q46" s="38"/>
       <c r="R46" s="19"/>
       <c r="T46" s="17"/>
@@ -4201,21 +4188,21 @@
       <c r="V46" s="18"/>
       <c r="W46" s="45"/>
       <c r="X46" s="46"/>
-      <c r="Y46" s="67"/>
-      <c r="Z46" s="46"/>
-      <c r="AA46" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB46" s="46"/>
-      <c r="AC46" s="46"/>
-      <c r="AD46" s="46"/>
-      <c r="AE46" s="46"/>
-      <c r="AF46" s="46"/>
-      <c r="AG46" s="46"/>
-      <c r="AH46" s="46"/>
-      <c r="AI46" s="46"/>
-      <c r="AJ46" s="46"/>
-      <c r="AK46" s="68"/>
+      <c r="Y46" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z46" s="65"/>
+      <c r="AA46" s="65"/>
+      <c r="AB46" s="65"/>
+      <c r="AC46" s="65"/>
+      <c r="AD46" s="65"/>
+      <c r="AE46" s="65"/>
+      <c r="AF46" s="65"/>
+      <c r="AG46" s="65"/>
+      <c r="AH46" s="65"/>
+      <c r="AI46" s="65"/>
+      <c r="AJ46" s="65"/>
+      <c r="AK46" s="66"/>
       <c r="AL46" s="47"/>
       <c r="AM46" s="18"/>
       <c r="AN46" s="18"/>
@@ -4228,21 +4215,19 @@
     <row r="47" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="17"/>
       <c r="C47" s="37"/>
-      <c r="D47" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="90"/>
       <c r="Q47" s="38"/>
       <c r="R47" s="19"/>
       <c r="T47" s="17"/>
@@ -4251,19 +4236,19 @@
       <c r="W47" s="45"/>
       <c r="X47" s="46"/>
       <c r="Y47" s="67"/>
-      <c r="Z47" s="46"/>
+      <c r="Z47" s="46" t="s">
+        <v>72</v>
+      </c>
       <c r="AA47" s="46"/>
-      <c r="AB47" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="AB47" s="46"/>
       <c r="AC47" s="46"/>
       <c r="AD47" s="46"/>
       <c r="AE47" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF47" s="46"/>
       <c r="AG47" s="46" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH47" s="46"/>
       <c r="AI47" s="46"/>
@@ -4281,19 +4266,19 @@
     <row r="48" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="17"/>
       <c r="C48" s="37"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="95"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="18"/>
       <c r="Q48" s="38"/>
       <c r="R48" s="19"/>
       <c r="T48" s="17"/>
@@ -4302,20 +4287,16 @@
       <c r="W48" s="45"/>
       <c r="X48" s="46"/>
       <c r="Y48" s="67"/>
-      <c r="Z48" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="AB48" s="46"/>
       <c r="AC48" s="46"/>
       <c r="AD48" s="46"/>
-      <c r="AE48" s="46" t="s">
-        <v>69</v>
-      </c>
+      <c r="AE48" s="46"/>
       <c r="AF48" s="46"/>
-      <c r="AG48" s="46" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG48" s="46"/>
       <c r="AH48" s="46"/>
       <c r="AI48" s="46"/>
       <c r="AJ48" s="46"/>
@@ -4329,26 +4310,24 @@
       <c r="AR48" s="18"/>
       <c r="AS48" s="19"/>
     </row>
-    <row r="49" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B49" s="17"/>
       <c r="C49" s="37"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="112" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="113"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="114"/>
+      <c r="D49" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="18"/>
-      <c r="J49" s="121" t="s">
-        <v>98</v>
-      </c>
-      <c r="K49" s="122"/>
-      <c r="L49" s="122"/>
-      <c r="M49" s="122"/>
-      <c r="N49" s="122"/>
-      <c r="O49" s="123"/>
-      <c r="P49" s="97"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
       <c r="Q49" s="38"/>
       <c r="R49" s="19"/>
       <c r="T49" s="17"/>
@@ -4358,15 +4337,19 @@
       <c r="X49" s="46"/>
       <c r="Y49" s="67"/>
       <c r="Z49" s="46"/>
-      <c r="AA49" s="46" t="s">
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AB49" s="46"/>
       <c r="AC49" s="46"/>
       <c r="AD49" s="46"/>
-      <c r="AE49" s="46"/>
+      <c r="AE49" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="AF49" s="46"/>
-      <c r="AG49" s="46"/>
+      <c r="AG49" s="46" t="s">
+        <v>79</v>
+      </c>
       <c r="AH49" s="46"/>
       <c r="AI49" s="46"/>
       <c r="AJ49" s="46"/>
@@ -4383,19 +4366,19 @@
     <row r="50" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="17"/>
       <c r="C50" s="37"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="117"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="97"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="95"/>
       <c r="Q50" s="38"/>
       <c r="R50" s="19"/>
       <c r="T50" s="17"/>
@@ -4404,19 +4387,19 @@
       <c r="W50" s="45"/>
       <c r="X50" s="46"/>
       <c r="Y50" s="67"/>
-      <c r="Z50" s="46"/>
+      <c r="Z50" s="46" t="s">
+        <v>67</v>
+      </c>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="AB50" s="46"/>
       <c r="AC50" s="46"/>
       <c r="AD50" s="46"/>
       <c r="AE50" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF50" s="46"/>
       <c r="AG50" s="46" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH50" s="46"/>
       <c r="AI50" s="46"/>
@@ -4435,19 +4418,21 @@
       <c r="B51" s="17"/>
       <c r="C51" s="37"/>
       <c r="D51" s="96"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="117"/>
+      <c r="E51" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="114"/>
       <c r="I51" s="18"/>
-      <c r="J51" s="112" t="s">
-        <v>99</v>
-      </c>
-      <c r="K51" s="113"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="113"/>
-      <c r="N51" s="113"/>
-      <c r="O51" s="114"/>
+      <c r="J51" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="123"/>
       <c r="P51" s="97"/>
       <c r="Q51" s="38"/>
       <c r="R51" s="19"/>
@@ -4457,20 +4442,16 @@
       <c r="W51" s="45"/>
       <c r="X51" s="46"/>
       <c r="Y51" s="67"/>
-      <c r="Z51" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA51" s="46"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="AB51" s="46"/>
       <c r="AC51" s="46"/>
       <c r="AD51" s="46"/>
-      <c r="AE51" s="46" t="s">
-        <v>69</v>
-      </c>
+      <c r="AE51" s="46"/>
       <c r="AF51" s="46"/>
-      <c r="AG51" s="46" t="s">
-        <v>77</v>
-      </c>
+      <c r="AG51" s="46"/>
       <c r="AH51" s="46"/>
       <c r="AI51" s="46"/>
       <c r="AJ51" s="46"/>
@@ -4493,12 +4474,12 @@
       <c r="G52" s="116"/>
       <c r="H52" s="117"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="116"/>
-      <c r="M52" s="116"/>
-      <c r="N52" s="116"/>
-      <c r="O52" s="117"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
       <c r="P52" s="97"/>
       <c r="Q52" s="38"/>
       <c r="R52" s="19"/>
@@ -4509,15 +4490,19 @@
       <c r="X52" s="46"/>
       <c r="Y52" s="67"/>
       <c r="Z52" s="46"/>
-      <c r="AA52" s="46" t="s">
+      <c r="AA52" s="46"/>
+      <c r="AB52" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AB52" s="46"/>
       <c r="AC52" s="46"/>
       <c r="AD52" s="46"/>
-      <c r="AE52" s="46"/>
+      <c r="AE52" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="AF52" s="46"/>
-      <c r="AG52" s="46"/>
+      <c r="AG52" s="46" t="s">
+        <v>80</v>
+      </c>
       <c r="AH52" s="46"/>
       <c r="AI52" s="46"/>
       <c r="AJ52" s="46"/>
@@ -4534,18 +4519,20 @@
     <row r="53" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="17"/>
       <c r="C53" s="37"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="118"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="120"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="K53" s="113"/>
+      <c r="L53" s="113"/>
+      <c r="M53" s="113"/>
+      <c r="N53" s="113"/>
+      <c r="O53" s="114"/>
       <c r="P53" s="97"/>
       <c r="Q53" s="38"/>
       <c r="R53" s="19"/>
@@ -4555,19 +4542,19 @@
       <c r="W53" s="45"/>
       <c r="X53" s="46"/>
       <c r="Y53" s="67"/>
-      <c r="Z53" s="46"/>
+      <c r="Z53" s="46" t="s">
+        <v>75</v>
+      </c>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="AB53" s="46"/>
       <c r="AC53" s="46"/>
       <c r="AD53" s="46"/>
       <c r="AE53" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF53" s="46"/>
       <c r="AG53" s="46" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH53" s="46"/>
       <c r="AI53" s="46"/>
@@ -4582,22 +4569,22 @@
       <c r="AR53" s="18"/>
       <c r="AS53" s="19"/>
     </row>
-    <row r="54" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="17"/>
       <c r="C54" s="37"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="101"/>
-      <c r="M54" s="101"/>
-      <c r="N54" s="101"/>
-      <c r="O54" s="101"/>
-      <c r="P54" s="102"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="116"/>
+      <c r="O54" s="117"/>
+      <c r="P54" s="97"/>
       <c r="Q54" s="38"/>
       <c r="R54" s="19"/>
       <c r="T54" s="17"/>
@@ -4607,19 +4594,15 @@
       <c r="X54" s="46"/>
       <c r="Y54" s="67"/>
       <c r="Z54" s="46"/>
-      <c r="AA54" s="46"/>
-      <c r="AB54" s="46" t="s">
-        <v>82</v>
-      </c>
+      <c r="AA54" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB54" s="46"/>
       <c r="AC54" s="46"/>
       <c r="AD54" s="46"/>
-      <c r="AE54" s="46" t="s">
-        <v>69</v>
-      </c>
+      <c r="AE54" s="46"/>
       <c r="AF54" s="46"/>
-      <c r="AG54" s="46" t="s">
-        <v>85</v>
-      </c>
+      <c r="AG54" s="46"/>
       <c r="AH54" s="46"/>
       <c r="AI54" s="46"/>
       <c r="AJ54" s="46"/>
@@ -4633,48 +4616,48 @@
       <c r="AR54" s="18"/>
       <c r="AS54" s="19"/>
     </row>
-    <row r="55" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="17"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="41"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="119"/>
+      <c r="M55" s="119"/>
+      <c r="N55" s="119"/>
+      <c r="O55" s="120"/>
+      <c r="P55" s="97"/>
+      <c r="Q55" s="38"/>
       <c r="R55" s="19"/>
       <c r="T55" s="17"/>
       <c r="U55" s="18"/>
       <c r="V55" s="18"/>
       <c r="W55" s="45"/>
       <c r="X55" s="46"/>
-      <c r="Y55" s="69"/>
-      <c r="Z55" s="70"/>
-      <c r="AA55" s="70"/>
-      <c r="AB55" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC55" s="70"/>
-      <c r="AD55" s="70"/>
-      <c r="AE55" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF55" s="70"/>
-      <c r="AG55" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH55" s="70"/>
-      <c r="AI55" s="70"/>
-      <c r="AJ55" s="70"/>
-      <c r="AK55" s="71"/>
+      <c r="Y55" s="67"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="46"/>
+      <c r="AB55" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC55" s="46"/>
+      <c r="AD55" s="46"/>
+      <c r="AE55" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF55" s="46"/>
+      <c r="AG55" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH55" s="46"/>
+      <c r="AI55" s="46"/>
+      <c r="AJ55" s="46"/>
+      <c r="AK55" s="68"/>
       <c r="AL55" s="47"/>
       <c r="AM55" s="18"/>
       <c r="AN55" s="18"/>
@@ -4685,41 +4668,47 @@
       <c r="AS55" s="19"/>
     </row>
     <row r="56" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="25"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="101"/>
+      <c r="N56" s="101"/>
+      <c r="O56" s="101"/>
+      <c r="P56" s="102"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="19"/>
       <c r="T56" s="17"/>
       <c r="U56" s="18"/>
       <c r="V56" s="18"/>
       <c r="W56" s="45"/>
       <c r="X56" s="46"/>
-      <c r="Y56" s="46"/>
-      <c r="Z56" s="46"/>
-      <c r="AA56" s="46"/>
-      <c r="AB56" s="46"/>
-      <c r="AC56" s="46"/>
-      <c r="AD56" s="46"/>
-      <c r="AE56" s="46"/>
-      <c r="AF56" s="46"/>
-      <c r="AG56" s="46"/>
-      <c r="AH56" s="46"/>
-      <c r="AI56" s="46"/>
-      <c r="AJ56" s="46"/>
-      <c r="AK56" s="46"/>
+      <c r="Y56" s="69"/>
+      <c r="Z56" s="70"/>
+      <c r="AA56" s="70"/>
+      <c r="AB56" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC56" s="70"/>
+      <c r="AD56" s="70"/>
+      <c r="AE56" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF56" s="70"/>
+      <c r="AG56" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH56" s="70"/>
+      <c r="AI56" s="70"/>
+      <c r="AJ56" s="70"/>
+      <c r="AK56" s="71"/>
       <c r="AL56" s="47"/>
       <c r="AM56" s="18"/>
       <c r="AN56" s="18"/>
@@ -4729,27 +4718,42 @@
       <c r="AR56" s="18"/>
       <c r="AS56" s="19"/>
     </row>
-    <row r="57" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="17"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="19"/>
       <c r="T57" s="17"/>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
       <c r="W57" s="45"/>
       <c r="X57" s="46"/>
-      <c r="Y57" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z57" s="104"/>
-      <c r="AA57" s="104"/>
-      <c r="AB57" s="104"/>
-      <c r="AC57" s="104"/>
-      <c r="AD57" s="104"/>
-      <c r="AE57" s="104"/>
-      <c r="AF57" s="104"/>
-      <c r="AG57" s="104"/>
-      <c r="AH57" s="104"/>
-      <c r="AI57" s="104"/>
-      <c r="AJ57" s="104"/>
-      <c r="AK57" s="105"/>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46"/>
+      <c r="AA57" s="46"/>
+      <c r="AB57" s="46"/>
+      <c r="AC57" s="46"/>
+      <c r="AD57" s="46"/>
+      <c r="AE57" s="46"/>
+      <c r="AF57" s="46"/>
+      <c r="AG57" s="46"/>
+      <c r="AH57" s="46"/>
+      <c r="AI57" s="46"/>
+      <c r="AJ57" s="46"/>
+      <c r="AK57" s="46"/>
       <c r="AL57" s="47"/>
       <c r="AM57" s="18"/>
       <c r="AN57" s="18"/>
@@ -4760,30 +4764,43 @@
       <c r="AS57" s="19"/>
     </row>
     <row r="58" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="25"/>
       <c r="T58" s="17"/>
       <c r="U58" s="18"/>
       <c r="V58" s="18"/>
       <c r="W58" s="45"/>
       <c r="X58" s="46"/>
-      <c r="Y58" s="106"/>
-      <c r="Z58" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA58" s="46"/>
-      <c r="AB58" s="46"/>
-      <c r="AC58" s="46"/>
-      <c r="AD58" s="46"/>
-      <c r="AE58" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF58" s="46"/>
-      <c r="AG58" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH58" s="46"/>
-      <c r="AI58" s="46"/>
-      <c r="AJ58" s="46"/>
-      <c r="AK58" s="107"/>
+      <c r="Y58" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z58" s="104"/>
+      <c r="AA58" s="104"/>
+      <c r="AB58" s="104"/>
+      <c r="AC58" s="104"/>
+      <c r="AD58" s="104"/>
+      <c r="AE58" s="104"/>
+      <c r="AF58" s="104"/>
+      <c r="AG58" s="104"/>
+      <c r="AH58" s="104"/>
+      <c r="AI58" s="104"/>
+      <c r="AJ58" s="104"/>
+      <c r="AK58" s="105"/>
       <c r="AL58" s="47"/>
       <c r="AM58" s="18"/>
       <c r="AN58" s="18"/>
@@ -4800,16 +4817,20 @@
       <c r="W59" s="45"/>
       <c r="X59" s="46"/>
       <c r="Y59" s="106"/>
-      <c r="Z59" s="46"/>
-      <c r="AA59" s="46" t="s">
-        <v>78</v>
-      </c>
+      <c r="Z59" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA59" s="46"/>
       <c r="AB59" s="46"/>
       <c r="AC59" s="46"/>
       <c r="AD59" s="46"/>
-      <c r="AE59" s="46"/>
+      <c r="AE59" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="AF59" s="46"/>
-      <c r="AG59" s="46"/>
+      <c r="AG59" s="46" t="s">
+        <v>73</v>
+      </c>
       <c r="AH59" s="46"/>
       <c r="AI59" s="46"/>
       <c r="AJ59" s="46"/>
@@ -4831,19 +4852,15 @@
       <c r="X60" s="46"/>
       <c r="Y60" s="106"/>
       <c r="Z60" s="46"/>
-      <c r="AA60" s="46"/>
-      <c r="AB60" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="AA60" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB60" s="46"/>
       <c r="AC60" s="46"/>
       <c r="AD60" s="46"/>
-      <c r="AE60" s="46" t="s">
-        <v>69</v>
-      </c>
+      <c r="AE60" s="46"/>
       <c r="AF60" s="46"/>
-      <c r="AG60" s="46" t="s">
-        <v>80</v>
-      </c>
+      <c r="AG60" s="46"/>
       <c r="AH60" s="46"/>
       <c r="AI60" s="46"/>
       <c r="AJ60" s="46"/>
@@ -4864,19 +4881,19 @@
       <c r="W61" s="45"/>
       <c r="X61" s="46"/>
       <c r="Y61" s="106"/>
-      <c r="Z61" s="46" t="s">
-        <v>68</v>
-      </c>
+      <c r="Z61" s="46"/>
       <c r="AA61" s="46"/>
-      <c r="AB61" s="46"/>
+      <c r="AB61" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="AC61" s="46"/>
       <c r="AD61" s="46"/>
       <c r="AE61" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF61" s="46"/>
       <c r="AG61" s="46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH61" s="46"/>
       <c r="AI61" s="46"/>
@@ -4898,16 +4915,20 @@
       <c r="W62" s="45"/>
       <c r="X62" s="46"/>
       <c r="Y62" s="106"/>
-      <c r="Z62" s="46"/>
-      <c r="AA62" s="46" t="s">
-        <v>78</v>
-      </c>
+      <c r="Z62" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA62" s="46"/>
       <c r="AB62" s="46"/>
       <c r="AC62" s="46"/>
       <c r="AD62" s="46"/>
-      <c r="AE62" s="46"/>
+      <c r="AE62" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="AF62" s="46"/>
-      <c r="AG62" s="46"/>
+      <c r="AG62" s="46" t="s">
+        <v>74</v>
+      </c>
       <c r="AH62" s="46"/>
       <c r="AI62" s="46"/>
       <c r="AJ62" s="46"/>
@@ -4929,19 +4950,15 @@
       <c r="X63" s="46"/>
       <c r="Y63" s="106"/>
       <c r="Z63" s="46"/>
-      <c r="AA63" s="46"/>
-      <c r="AB63" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="AA63" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB63" s="46"/>
       <c r="AC63" s="46"/>
       <c r="AD63" s="46"/>
-      <c r="AE63" s="46" t="s">
-        <v>69</v>
-      </c>
+      <c r="AE63" s="46"/>
       <c r="AF63" s="46"/>
-      <c r="AG63" s="46" t="s">
-        <v>81</v>
-      </c>
+      <c r="AG63" s="46"/>
       <c r="AH63" s="46"/>
       <c r="AI63" s="46"/>
       <c r="AJ63" s="46"/>
@@ -4962,19 +4979,19 @@
       <c r="W64" s="45"/>
       <c r="X64" s="46"/>
       <c r="Y64" s="106"/>
-      <c r="Z64" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="Z64" s="46"/>
       <c r="AA64" s="46"/>
-      <c r="AB64" s="46"/>
+      <c r="AB64" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="AC64" s="46"/>
       <c r="AD64" s="46"/>
       <c r="AE64" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF64" s="46"/>
       <c r="AG64" s="46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH64" s="46"/>
       <c r="AI64" s="46"/>
@@ -4996,16 +5013,20 @@
       <c r="W65" s="45"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="106"/>
-      <c r="Z65" s="46"/>
-      <c r="AA65" s="46" t="s">
-        <v>78</v>
-      </c>
+      <c r="Z65" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA65" s="46"/>
       <c r="AB65" s="46"/>
       <c r="AC65" s="46"/>
       <c r="AD65" s="46"/>
-      <c r="AE65" s="46"/>
+      <c r="AE65" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="AF65" s="46"/>
-      <c r="AG65" s="46"/>
+      <c r="AG65" s="46" t="s">
+        <v>76</v>
+      </c>
       <c r="AH65" s="46"/>
       <c r="AI65" s="46"/>
       <c r="AJ65" s="46"/>
@@ -5027,19 +5048,15 @@
       <c r="X66" s="46"/>
       <c r="Y66" s="106"/>
       <c r="Z66" s="46"/>
-      <c r="AA66" s="46"/>
-      <c r="AB66" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="AA66" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB66" s="46"/>
       <c r="AC66" s="46"/>
       <c r="AD66" s="46"/>
-      <c r="AE66" s="46" t="s">
-        <v>69</v>
-      </c>
+      <c r="AE66" s="46"/>
       <c r="AF66" s="46"/>
-      <c r="AG66" s="46" t="s">
-        <v>84</v>
-      </c>
+      <c r="AG66" s="46"/>
       <c r="AH66" s="46"/>
       <c r="AI66" s="46"/>
       <c r="AJ66" s="46"/>
@@ -5063,16 +5080,16 @@
       <c r="Z67" s="46"/>
       <c r="AA67" s="46"/>
       <c r="AB67" s="46" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AC67" s="46"/>
       <c r="AD67" s="46"/>
       <c r="AE67" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF67" s="46"/>
       <c r="AG67" s="46" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AH67" s="46"/>
       <c r="AI67" s="46"/>
@@ -5097,16 +5114,16 @@
       <c r="Z68" s="109"/>
       <c r="AA68" s="109"/>
       <c r="AB68" s="109" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AC68" s="109"/>
       <c r="AD68" s="109"/>
       <c r="AE68" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF68" s="109"/>
       <c r="AG68" s="109" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AH68" s="109"/>
       <c r="AI68" s="109"/>
@@ -5176,7 +5193,6 @@
       <c r="AQ70" s="18"/>
       <c r="AR70" s="18"/>
       <c r="AS70" s="19"/>
-      <c r="AT70" s="30"/>
     </row>
     <row r="71" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T71" s="17"/>
@@ -5192,7 +5208,7 @@
       <c r="AD71" s="18"/>
       <c r="AE71" s="18"/>
       <c r="AF71" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG71" s="32"/>
       <c r="AH71" s="18"/>
@@ -5235,10 +5251,38 @@
       <c r="AQ72" s="24"/>
       <c r="AR72" s="24"/>
       <c r="AS72" s="25"/>
+      <c r="AT72" s="30"/>
+    </row>
+    <row r="74" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T74" s="30"/>
+      <c r="U74" s="30"/>
+      <c r="V74" s="30"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="30"/>
+      <c r="AA74" s="30"/>
+      <c r="AB74" s="30"/>
+      <c r="AC74" s="30"/>
+      <c r="AD74" s="30"/>
+      <c r="AE74" s="30"/>
+      <c r="AF74" s="30"/>
+      <c r="AG74" s="30"/>
+      <c r="AH74" s="30"/>
+      <c r="AI74" s="30"/>
+      <c r="AJ74" s="30"/>
+      <c r="AK74" s="30"/>
+      <c r="AL74" s="30"/>
+      <c r="AM74" s="30"/>
+      <c r="AN74" s="30"/>
+      <c r="AO74" s="30"/>
+      <c r="AP74" s="30"/>
+      <c r="AQ74" s="30"/>
+      <c r="AR74" s="30"/>
     </row>
     <row r="75" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>15</v>
@@ -5261,31 +5305,6 @@
     <row r="76" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q76" s="30"/>
       <c r="S76" s="30"/>
-      <c r="T76" s="30"/>
-      <c r="U76" s="30"/>
-      <c r="V76" s="30"/>
-      <c r="W76" s="30"/>
-      <c r="X76" s="30"/>
-      <c r="Y76" s="30"/>
-      <c r="Z76" s="30"/>
-      <c r="AA76" s="30"/>
-      <c r="AB76" s="30"/>
-      <c r="AC76" s="30"/>
-      <c r="AD76" s="30"/>
-      <c r="AE76" s="30"/>
-      <c r="AF76" s="30"/>
-      <c r="AG76" s="30"/>
-      <c r="AH76" s="30"/>
-      <c r="AI76" s="30"/>
-      <c r="AJ76" s="30"/>
-      <c r="AK76" s="30"/>
-      <c r="AL76" s="30"/>
-      <c r="AM76" s="30"/>
-      <c r="AN76" s="30"/>
-      <c r="AO76" s="30"/>
-      <c r="AP76" s="30"/>
-      <c r="AQ76" s="30"/>
-      <c r="AR76" s="30"/>
     </row>
     <row r="77" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
@@ -5302,7 +5321,7 @@
     </row>
     <row r="79" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>19</v>
@@ -5310,7 +5329,7 @@
     </row>
     <row r="80" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
@@ -5340,15 +5359,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E49:H53"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J51:O53"/>
-    <mergeCell ref="D32:I33"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="K32:P33"/>
-    <mergeCell ref="E40:H44"/>
-    <mergeCell ref="J40:O40"/>
-    <mergeCell ref="J42:O44"/>
+    <mergeCell ref="E51:H55"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J53:O55"/>
+    <mergeCell ref="D34:I35"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="K34:P35"/>
+    <mergeCell ref="E42:H46"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="J44:O46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
+++ b/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
@@ -15,7 +15,7 @@
     <sheet name="スクリーンオブジェクトをJSONで返却する方法" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$A$1:$AS$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$A$1:$AS$84</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スクリーンオブジェクトをJSONで返却する方法!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="109">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -609,32 +609,6 @@
   </si>
   <si>
     <r>
-      <t>screenObjId(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>regionId(</t>
     </r>
     <r>
@@ -692,7 +666,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015/1/28</t>
+    <t>attDto[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>targetScreenId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>├</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -700,7 +682,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>attDto[1]</t>
+    <r>
+      <t>targetScreenId(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/1/29</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2352,7 +2360,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT83"/>
+  <dimension ref="A1:AT84"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -2510,7 +2518,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="31" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2847,7 +2855,7 @@
         <v>55</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
@@ -2867,7 +2875,7 @@
         <v>55</v>
       </c>
       <c r="AD15" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE15" s="18"/>
       <c r="AF15" s="18"/>
@@ -2901,7 +2909,7 @@
         <v>55</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
@@ -2921,7 +2929,7 @@
         <v>55</v>
       </c>
       <c r="AD16" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE16" s="18"/>
       <c r="AF16" s="18"/>
@@ -2955,7 +2963,7 @@
         <v>55</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
@@ -2965,17 +2973,17 @@
         <v>55</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="AD17" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE17" s="18"/>
       <c r="AF17" s="18"/>
@@ -2998,7 +3006,7 @@
         <v>55</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -3019,7 +3027,7 @@
         <v>55</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
@@ -3029,7 +3037,7 @@
         <v>55</v>
       </c>
       <c r="AD18" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE18" s="18"/>
       <c r="AF18" s="18"/>
@@ -3045,7 +3053,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>87</v>
@@ -3090,8 +3098,12 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
@@ -3186,7 +3198,7 @@
       <c r="AA22" s="18"/>
       <c r="AB22" s="18"/>
       <c r="AC22" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD22" s="18" t="s">
         <v>62</v>
@@ -3196,60 +3208,79 @@
       <c r="AG22" s="19"/>
     </row>
     <row r="23" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="25"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="19"/>
     </row>
     <row r="24" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="25"/>
     </row>
     <row r="25" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="26" t="s">
-        <v>56</v>
-      </c>
+      <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -3266,8 +3297,8 @@
       <c r="P25" s="26"/>
     </row>
     <row r="26" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="1" t="s">
-        <v>36</v>
+      <c r="B26" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -3286,7 +3317,7 @@
     </row>
     <row r="27" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -3304,7 +3335,9 @@
       <c r="P27" s="26"/>
     </row>
     <row r="28" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="26"/>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -3321,122 +3354,92 @@
       <c r="P28" s="26"/>
     </row>
     <row r="29" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="13"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="13"/>
-    </row>
-    <row r="30" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
-      <c r="C30" s="51" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+    </row>
+    <row r="30" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="13"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="13"/>
+    </row>
+    <row r="31" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="17"/>
+      <c r="C31" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="19"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="18"/>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="18"/>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="18"/>
-      <c r="AO30" s="18"/>
-      <c r="AP30" s="18"/>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="18"/>
-      <c r="AS30" s="19"/>
-    </row>
-    <row r="31" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="52"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
       <c r="R31" s="19"/>
       <c r="T31" s="17"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="U31" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="V31" s="18"/>
       <c r="W31" s="18"/>
       <c r="X31" s="18"/>
       <c r="Y31" s="18"/>
@@ -3463,28 +3466,26 @@
     </row>
     <row r="32" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="17"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="132"/>
-      <c r="Q32" s="53"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="52"/>
       <c r="R32" s="19"/>
       <c r="T32" s="17"/>
       <c r="U32" s="18"/>
       <c r="V32" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W32" s="18"/>
       <c r="X32" s="18"/>
@@ -3513,45 +3514,45 @@
     <row r="33" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="17"/>
       <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
+      <c r="D33" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="132"/>
       <c r="Q33" s="53"/>
       <c r="R33" s="19"/>
       <c r="T33" s="17"/>
       <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="V33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="18"/>
+      <c r="AJ33" s="18"/>
+      <c r="AK33" s="18"/>
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="18"/>
       <c r="AN33" s="18"/>
       <c r="AO33" s="18"/>
       <c r="AP33" s="18"/>
@@ -3562,51 +3563,45 @@
     <row r="34" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="17"/>
       <c r="C34" s="76"/>
-      <c r="D34" s="124" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="126"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
       <c r="J34" s="77"/>
-      <c r="K34" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="L34" s="125"/>
-      <c r="M34" s="125"/>
-      <c r="N34" s="125"/>
-      <c r="O34" s="125"/>
-      <c r="P34" s="126"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
       <c r="Q34" s="53"/>
       <c r="R34" s="19"/>
       <c r="T34" s="17"/>
       <c r="U34" s="18"/>
       <c r="V34" s="18"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH34" s="59"/>
-      <c r="AI34" s="59"/>
-      <c r="AJ34" s="59"/>
-      <c r="AK34" s="59"/>
-      <c r="AL34" s="60"/>
-      <c r="AM34" s="18"/>
+      <c r="W34" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="51" t="s">
+        <v>50</v>
+      </c>
       <c r="AN34" s="18"/>
       <c r="AO34" s="18"/>
       <c r="AP34" s="18"/>
@@ -3617,19 +3612,23 @@
     <row r="35" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="17"/>
       <c r="C35" s="76"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="129"/>
+      <c r="D35" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="125"/>
+      <c r="P35" s="126"/>
       <c r="Q35" s="53"/>
       <c r="R35" s="19"/>
       <c r="T35" s="17"/>
@@ -3637,7 +3636,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="58"/>
       <c r="X35" s="59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y35" s="59"/>
       <c r="Z35" s="59"/>
@@ -3650,7 +3649,7 @@
       </c>
       <c r="AF35" s="59"/>
       <c r="AG35" s="59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH35" s="59"/>
       <c r="AI35" s="59"/>
@@ -3665,30 +3664,30 @@
       <c r="AR35" s="18"/>
       <c r="AS35" s="19"/>
     </row>
-    <row r="36" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="17"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="54"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="53"/>
       <c r="R36" s="19"/>
       <c r="T36" s="17"/>
       <c r="U36" s="18"/>
       <c r="V36" s="18"/>
       <c r="W36" s="58"/>
       <c r="X36" s="59" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="Y36" s="59"/>
       <c r="Z36" s="59"/>
@@ -3696,9 +3695,13 @@
       <c r="AB36" s="59"/>
       <c r="AC36" s="59"/>
       <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
+      <c r="AE36" s="59" t="s">
+        <v>47</v>
+      </c>
       <c r="AF36" s="59"/>
-      <c r="AG36" s="59"/>
+      <c r="AG36" s="59" t="s">
+        <v>45</v>
+      </c>
       <c r="AH36" s="59"/>
       <c r="AI36" s="59"/>
       <c r="AJ36" s="59"/>
@@ -3712,32 +3715,32 @@
       <c r="AR36" s="18"/>
       <c r="AS36" s="19"/>
     </row>
-    <row r="37" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="54"/>
       <c r="R37" s="19"/>
       <c r="T37" s="17"/>
       <c r="U37" s="18"/>
       <c r="V37" s="18"/>
       <c r="W37" s="58"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59" t="s">
-        <v>88</v>
-      </c>
+      <c r="X37" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y37" s="59"/>
       <c r="Z37" s="59"/>
       <c r="AA37" s="59"/>
       <c r="AB37" s="59"/>
@@ -3759,11 +3762,9 @@
       <c r="AR37" s="18"/>
       <c r="AS37" s="19"/>
     </row>
-    <row r="38" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="17"/>
-      <c r="C38" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="C38" s="18"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
@@ -3784,21 +3785,17 @@
       <c r="V38" s="18"/>
       <c r="W38" s="58"/>
       <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59" t="s">
-        <v>38</v>
-      </c>
+      <c r="Y38" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z38" s="59"/>
       <c r="AA38" s="59"/>
       <c r="AB38" s="59"/>
       <c r="AC38" s="59"/>
       <c r="AD38" s="59"/>
-      <c r="AE38" s="59" t="s">
-        <v>47</v>
-      </c>
+      <c r="AE38" s="59"/>
       <c r="AF38" s="59"/>
-      <c r="AG38" s="59" t="s">
-        <v>42</v>
-      </c>
+      <c r="AG38" s="59"/>
       <c r="AH38" s="59"/>
       <c r="AI38" s="59"/>
       <c r="AJ38" s="59"/>
@@ -3812,23 +3809,25 @@
       <c r="AR38" s="18"/>
       <c r="AS38" s="19"/>
     </row>
-    <row r="39" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="17"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="36"/>
+      <c r="C39" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
       <c r="R39" s="19"/>
       <c r="T39" s="17"/>
       <c r="U39" s="18"/>
@@ -3837,7 +3836,7 @@
       <c r="X39" s="59"/>
       <c r="Y39" s="59"/>
       <c r="Z39" s="59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA39" s="59"/>
       <c r="AB39" s="59"/>
@@ -3848,7 +3847,7 @@
       </c>
       <c r="AF39" s="59"/>
       <c r="AG39" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH39" s="59"/>
       <c r="AI39" s="59"/>
@@ -3863,51 +3862,49 @@
       <c r="AR39" s="18"/>
       <c r="AS39" s="19"/>
     </row>
-    <row r="40" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="17"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="38"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="36"/>
       <c r="R40" s="19"/>
       <c r="T40" s="17"/>
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="62"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="62"/>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="62" t="s">
+      <c r="W40" s="58"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH40" s="62"/>
-      <c r="AI40" s="62"/>
-      <c r="AJ40" s="62"/>
-      <c r="AK40" s="62"/>
-      <c r="AL40" s="63"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="60"/>
       <c r="AM40" s="18"/>
       <c r="AN40" s="18"/>
       <c r="AO40" s="18"/>
@@ -3916,43 +3913,51 @@
       <c r="AR40" s="18"/>
       <c r="AS40" s="19"/>
     </row>
-    <row r="41" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="17"/>
       <c r="C41" s="37"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="88"/>
+      <c r="D41" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
       <c r="Q41" s="38"/>
       <c r="R41" s="19"/>
       <c r="T41" s="17"/>
       <c r="U41" s="18"/>
       <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
-      <c r="AI41" s="18"/>
-      <c r="AJ41" s="18"/>
-      <c r="AK41" s="18"/>
-      <c r="AL41" s="18"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="62"/>
+      <c r="Z41" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="62"/>
+      <c r="AD41" s="62"/>
+      <c r="AE41" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF41" s="62"/>
+      <c r="AG41" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH41" s="62"/>
+      <c r="AI41" s="62"/>
+      <c r="AJ41" s="62"/>
+      <c r="AK41" s="62"/>
+      <c r="AL41" s="63"/>
       <c r="AM41" s="18"/>
       <c r="AN41" s="18"/>
       <c r="AO41" s="18"/>
@@ -3964,49 +3969,41 @@
     <row r="42" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="17"/>
       <c r="C42" s="37"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="112" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="K42" s="122"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="123"/>
-      <c r="P42" s="73"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="88"/>
       <c r="Q42" s="38"/>
       <c r="R42" s="19"/>
       <c r="T42" s="17"/>
       <c r="U42" s="18"/>
       <c r="V42" s="18"/>
-      <c r="W42" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="43"/>
-      <c r="AD42" s="43"/>
-      <c r="AE42" s="43"/>
-      <c r="AF42" s="43"/>
-      <c r="AG42" s="43"/>
-      <c r="AH42" s="43"/>
-      <c r="AI42" s="43"/>
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="43"/>
-      <c r="AL42" s="44"/>
-      <c r="AM42" s="33" t="s">
-        <v>51</v>
-      </c>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="18"/>
       <c r="AN42" s="18"/>
       <c r="AO42" s="18"/>
       <c r="AP42" s="18"/>
@@ -4018,46 +4015,48 @@
       <c r="B43" s="17"/>
       <c r="C43" s="37"/>
       <c r="D43" s="89"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="117"/>
+      <c r="E43" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="114"/>
       <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
+      <c r="J43" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="123"/>
       <c r="P43" s="73"/>
       <c r="Q43" s="38"/>
       <c r="R43" s="19"/>
       <c r="T43" s="17"/>
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="46"/>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="46"/>
-      <c r="AE43" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF43" s="46"/>
-      <c r="AG43" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH43" s="46"/>
-      <c r="AI43" s="46"/>
-      <c r="AJ43" s="46"/>
-      <c r="AK43" s="46"/>
-      <c r="AL43" s="47"/>
-      <c r="AM43" s="18"/>
+      <c r="W43" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="43"/>
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="43"/>
+      <c r="AG43" s="43"/>
+      <c r="AH43" s="43"/>
+      <c r="AI43" s="43"/>
+      <c r="AJ43" s="43"/>
+      <c r="AK43" s="43"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="33" t="s">
+        <v>51</v>
+      </c>
       <c r="AN43" s="18"/>
       <c r="AO43" s="18"/>
       <c r="AP43" s="18"/>
@@ -4074,14 +4073,12 @@
       <c r="G44" s="116"/>
       <c r="H44" s="117"/>
       <c r="I44" s="18"/>
-      <c r="J44" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="114"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
       <c r="P44" s="73"/>
       <c r="Q44" s="38"/>
       <c r="R44" s="19"/>
@@ -4090,7 +4087,7 @@
       <c r="V44" s="18"/>
       <c r="W44" s="45"/>
       <c r="X44" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y44" s="46"/>
       <c r="Z44" s="46"/>
@@ -4103,7 +4100,7 @@
       </c>
       <c r="AF44" s="46"/>
       <c r="AG44" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH44" s="46"/>
       <c r="AI44" s="46"/>
@@ -4118,7 +4115,7 @@
       <c r="AR44" s="18"/>
       <c r="AS44" s="19"/>
     </row>
-    <row r="45" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="17"/>
       <c r="C45" s="37"/>
       <c r="D45" s="89"/>
@@ -4127,12 +4124,14 @@
       <c r="G45" s="116"/>
       <c r="H45" s="117"/>
       <c r="I45" s="18"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="117"/>
+      <c r="J45" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="114"/>
       <c r="P45" s="73"/>
       <c r="Q45" s="38"/>
       <c r="R45" s="19"/>
@@ -4140,18 +4139,22 @@
       <c r="U45" s="18"/>
       <c r="V45" s="18"/>
       <c r="W45" s="45"/>
-      <c r="X45" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y45" s="111"/>
-      <c r="Z45" s="111"/>
-      <c r="AA45" s="111"/>
-      <c r="AB45" s="111"/>
-      <c r="AC45" s="111"/>
-      <c r="AD45" s="111"/>
-      <c r="AE45" s="111"/>
+      <c r="X45" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="46"/>
+      <c r="AB45" s="46"/>
+      <c r="AC45" s="46"/>
+      <c r="AD45" s="46"/>
+      <c r="AE45" s="46" t="s">
+        <v>47</v>
+      </c>
       <c r="AF45" s="46"/>
-      <c r="AG45" s="46"/>
+      <c r="AG45" s="46" t="s">
+        <v>49</v>
+      </c>
       <c r="AH45" s="46"/>
       <c r="AI45" s="46"/>
       <c r="AJ45" s="46"/>
@@ -4165,21 +4168,21 @@
       <c r="AR45" s="18"/>
       <c r="AS45" s="19"/>
     </row>
-    <row r="46" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B46" s="17"/>
       <c r="C46" s="37"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="119"/>
-      <c r="O46" s="120"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="117"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="38"/>
       <c r="R46" s="19"/>
@@ -4187,22 +4190,22 @@
       <c r="U46" s="18"/>
       <c r="V46" s="18"/>
       <c r="W46" s="45"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z46" s="65"/>
-      <c r="AA46" s="65"/>
-      <c r="AB46" s="65"/>
-      <c r="AC46" s="65"/>
-      <c r="AD46" s="65"/>
-      <c r="AE46" s="65"/>
-      <c r="AF46" s="65"/>
-      <c r="AG46" s="65"/>
-      <c r="AH46" s="65"/>
-      <c r="AI46" s="65"/>
-      <c r="AJ46" s="65"/>
-      <c r="AK46" s="66"/>
+      <c r="X46" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y46" s="111"/>
+      <c r="Z46" s="111"/>
+      <c r="AA46" s="111"/>
+      <c r="AB46" s="111"/>
+      <c r="AC46" s="111"/>
+      <c r="AD46" s="111"/>
+      <c r="AE46" s="111"/>
+      <c r="AF46" s="46"/>
+      <c r="AG46" s="46"/>
+      <c r="AH46" s="46"/>
+      <c r="AI46" s="46"/>
+      <c r="AJ46" s="46"/>
+      <c r="AK46" s="46"/>
       <c r="AL46" s="47"/>
       <c r="AM46" s="18"/>
       <c r="AN46" s="18"/>
@@ -4212,22 +4215,22 @@
       <c r="AR46" s="18"/>
       <c r="AS46" s="19"/>
     </row>
-    <row r="47" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="17"/>
       <c r="C47" s="37"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="90"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="73"/>
       <c r="Q47" s="38"/>
       <c r="R47" s="19"/>
       <c r="T47" s="17"/>
@@ -4235,25 +4238,21 @@
       <c r="V47" s="18"/>
       <c r="W47" s="45"/>
       <c r="X47" s="46"/>
-      <c r="Y47" s="67"/>
-      <c r="Z47" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA47" s="46"/>
-      <c r="AB47" s="46"/>
-      <c r="AC47" s="46"/>
-      <c r="AD47" s="46"/>
-      <c r="AE47" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF47" s="46"/>
-      <c r="AG47" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH47" s="46"/>
-      <c r="AI47" s="46"/>
-      <c r="AJ47" s="46"/>
-      <c r="AK47" s="68"/>
+      <c r="Y47" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z47" s="65"/>
+      <c r="AA47" s="65"/>
+      <c r="AB47" s="65"/>
+      <c r="AC47" s="65"/>
+      <c r="AD47" s="65"/>
+      <c r="AE47" s="65"/>
+      <c r="AF47" s="65"/>
+      <c r="AG47" s="65"/>
+      <c r="AH47" s="65"/>
+      <c r="AI47" s="65"/>
+      <c r="AJ47" s="65"/>
+      <c r="AK47" s="66"/>
       <c r="AL47" s="47"/>
       <c r="AM47" s="18"/>
       <c r="AN47" s="18"/>
@@ -4263,22 +4262,22 @@
       <c r="AR47" s="18"/>
       <c r="AS47" s="19"/>
     </row>
-    <row r="48" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="17"/>
       <c r="C48" s="37"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="18"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="90"/>
       <c r="Q48" s="38"/>
       <c r="R48" s="19"/>
       <c r="T48" s="17"/>
@@ -4287,16 +4286,20 @@
       <c r="W48" s="45"/>
       <c r="X48" s="46"/>
       <c r="Y48" s="67"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46" t="s">
-        <v>77</v>
-      </c>
+      <c r="Z48" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA48" s="46"/>
       <c r="AB48" s="46"/>
       <c r="AC48" s="46"/>
       <c r="AD48" s="46"/>
-      <c r="AE48" s="46"/>
+      <c r="AE48" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="AF48" s="46"/>
-      <c r="AG48" s="46"/>
+      <c r="AG48" s="46" t="s">
+        <v>73</v>
+      </c>
       <c r="AH48" s="46"/>
       <c r="AI48" s="46"/>
       <c r="AJ48" s="46"/>
@@ -4310,23 +4313,21 @@
       <c r="AR48" s="18"/>
       <c r="AS48" s="19"/>
     </row>
-    <row r="49" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="17"/>
       <c r="C49" s="37"/>
-      <c r="D49" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="82"/>
       <c r="P49" s="18"/>
       <c r="Q49" s="38"/>
       <c r="R49" s="19"/>
@@ -4337,19 +4338,15 @@
       <c r="X49" s="46"/>
       <c r="Y49" s="67"/>
       <c r="Z49" s="46"/>
-      <c r="AA49" s="46"/>
-      <c r="AB49" s="46" t="s">
-        <v>78</v>
-      </c>
+      <c r="AA49" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB49" s="46"/>
       <c r="AC49" s="46"/>
       <c r="AD49" s="46"/>
-      <c r="AE49" s="46" t="s">
-        <v>68</v>
-      </c>
+      <c r="AE49" s="46"/>
       <c r="AF49" s="46"/>
-      <c r="AG49" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="AG49" s="46"/>
       <c r="AH49" s="46"/>
       <c r="AI49" s="46"/>
       <c r="AJ49" s="46"/>
@@ -4363,22 +4360,24 @@
       <c r="AR49" s="18"/>
       <c r="AS49" s="19"/>
     </row>
-    <row r="50" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B50" s="17"/>
       <c r="C50" s="37"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="95"/>
+      <c r="D50" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
       <c r="Q50" s="38"/>
       <c r="R50" s="19"/>
       <c r="T50" s="17"/>
@@ -4387,11 +4386,11 @@
       <c r="W50" s="45"/>
       <c r="X50" s="46"/>
       <c r="Y50" s="67"/>
-      <c r="Z50" s="46" t="s">
-        <v>67</v>
-      </c>
+      <c r="Z50" s="46"/>
       <c r="AA50" s="46"/>
-      <c r="AB50" s="46"/>
+      <c r="AB50" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="AC50" s="46"/>
       <c r="AD50" s="46"/>
       <c r="AE50" s="46" t="s">
@@ -4399,7 +4398,7 @@
       </c>
       <c r="AF50" s="46"/>
       <c r="AG50" s="46" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH50" s="46"/>
       <c r="AI50" s="46"/>
@@ -4417,23 +4416,19 @@
     <row r="51" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="17"/>
       <c r="C51" s="37"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="112" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="123"/>
-      <c r="P51" s="97"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="95"/>
       <c r="Q51" s="38"/>
       <c r="R51" s="19"/>
       <c r="T51" s="17"/>
@@ -4442,16 +4437,20 @@
       <c r="W51" s="45"/>
       <c r="X51" s="46"/>
       <c r="Y51" s="67"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="46" t="s">
-        <v>77</v>
-      </c>
+      <c r="Z51" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA51" s="46"/>
       <c r="AB51" s="46"/>
       <c r="AC51" s="46"/>
       <c r="AD51" s="46"/>
-      <c r="AE51" s="46"/>
+      <c r="AE51" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="AF51" s="46"/>
-      <c r="AG51" s="46"/>
+      <c r="AG51" s="46" t="s">
+        <v>74</v>
+      </c>
       <c r="AH51" s="46"/>
       <c r="AI51" s="46"/>
       <c r="AJ51" s="46"/>
@@ -4469,17 +4468,21 @@
       <c r="B52" s="17"/>
       <c r="C52" s="37"/>
       <c r="D52" s="96"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="117"/>
+      <c r="E52" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="114"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
+      <c r="J52" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="123"/>
       <c r="P52" s="97"/>
       <c r="Q52" s="38"/>
       <c r="R52" s="19"/>
@@ -4490,19 +4493,15 @@
       <c r="X52" s="46"/>
       <c r="Y52" s="67"/>
       <c r="Z52" s="46"/>
-      <c r="AA52" s="46"/>
-      <c r="AB52" s="46" t="s">
-        <v>78</v>
-      </c>
+      <c r="AA52" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB52" s="46"/>
       <c r="AC52" s="46"/>
       <c r="AD52" s="46"/>
-      <c r="AE52" s="46" t="s">
-        <v>68</v>
-      </c>
+      <c r="AE52" s="46"/>
       <c r="AF52" s="46"/>
-      <c r="AG52" s="46" t="s">
-        <v>80</v>
-      </c>
+      <c r="AG52" s="46"/>
       <c r="AH52" s="46"/>
       <c r="AI52" s="46"/>
       <c r="AJ52" s="46"/>
@@ -4525,14 +4524,12 @@
       <c r="G53" s="116"/>
       <c r="H53" s="117"/>
       <c r="I53" s="18"/>
-      <c r="J53" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="K53" s="113"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="113"/>
-      <c r="N53" s="113"/>
-      <c r="O53" s="114"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
       <c r="P53" s="97"/>
       <c r="Q53" s="38"/>
       <c r="R53" s="19"/>
@@ -4542,11 +4539,11 @@
       <c r="W53" s="45"/>
       <c r="X53" s="46"/>
       <c r="Y53" s="67"/>
-      <c r="Z53" s="46" t="s">
-        <v>75</v>
-      </c>
+      <c r="Z53" s="46"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="46"/>
+      <c r="AB53" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="AC53" s="46"/>
       <c r="AD53" s="46"/>
       <c r="AE53" s="46" t="s">
@@ -4554,7 +4551,7 @@
       </c>
       <c r="AF53" s="46"/>
       <c r="AG53" s="46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH53" s="46"/>
       <c r="AI53" s="46"/>
@@ -4578,12 +4575,14 @@
       <c r="G54" s="116"/>
       <c r="H54" s="117"/>
       <c r="I54" s="18"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="116"/>
-      <c r="M54" s="116"/>
-      <c r="N54" s="116"/>
-      <c r="O54" s="117"/>
+      <c r="J54" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="K54" s="113"/>
+      <c r="L54" s="113"/>
+      <c r="M54" s="113"/>
+      <c r="N54" s="113"/>
+      <c r="O54" s="114"/>
       <c r="P54" s="97"/>
       <c r="Q54" s="38"/>
       <c r="R54" s="19"/>
@@ -4593,16 +4592,20 @@
       <c r="W54" s="45"/>
       <c r="X54" s="46"/>
       <c r="Y54" s="67"/>
-      <c r="Z54" s="46"/>
-      <c r="AA54" s="46" t="s">
-        <v>77</v>
-      </c>
+      <c r="Z54" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA54" s="46"/>
       <c r="AB54" s="46"/>
       <c r="AC54" s="46"/>
       <c r="AD54" s="46"/>
-      <c r="AE54" s="46"/>
+      <c r="AE54" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="AF54" s="46"/>
-      <c r="AG54" s="46"/>
+      <c r="AG54" s="46" t="s">
+        <v>76</v>
+      </c>
       <c r="AH54" s="46"/>
       <c r="AI54" s="46"/>
       <c r="AJ54" s="46"/>
@@ -4619,18 +4622,18 @@
     <row r="55" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="17"/>
       <c r="C55" s="37"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="118"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="120"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
+      <c r="M55" s="116"/>
+      <c r="N55" s="116"/>
+      <c r="O55" s="117"/>
       <c r="P55" s="97"/>
       <c r="Q55" s="38"/>
       <c r="R55" s="19"/>
@@ -4641,19 +4644,15 @@
       <c r="X55" s="46"/>
       <c r="Y55" s="67"/>
       <c r="Z55" s="46"/>
-      <c r="AA55" s="46"/>
-      <c r="AB55" s="46" t="s">
-        <v>78</v>
-      </c>
+      <c r="AA55" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB55" s="46"/>
       <c r="AC55" s="46"/>
       <c r="AD55" s="46"/>
-      <c r="AE55" s="46" t="s">
-        <v>68</v>
-      </c>
+      <c r="AE55" s="46"/>
       <c r="AF55" s="46"/>
-      <c r="AG55" s="46" t="s">
-        <v>81</v>
-      </c>
+      <c r="AG55" s="46"/>
       <c r="AH55" s="46"/>
       <c r="AI55" s="46"/>
       <c r="AJ55" s="46"/>
@@ -4667,22 +4666,22 @@
       <c r="AR55" s="18"/>
       <c r="AS55" s="19"/>
     </row>
-    <row r="56" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="17"/>
       <c r="C56" s="37"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
-      <c r="L56" s="101"/>
-      <c r="M56" s="101"/>
-      <c r="N56" s="101"/>
-      <c r="O56" s="101"/>
-      <c r="P56" s="102"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="118"/>
+      <c r="K56" s="119"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="119"/>
+      <c r="N56" s="119"/>
+      <c r="O56" s="120"/>
+      <c r="P56" s="97"/>
       <c r="Q56" s="38"/>
       <c r="R56" s="19"/>
       <c r="T56" s="17"/>
@@ -4690,25 +4689,25 @@
       <c r="V56" s="18"/>
       <c r="W56" s="45"/>
       <c r="X56" s="46"/>
-      <c r="Y56" s="69"/>
-      <c r="Z56" s="70"/>
-      <c r="AA56" s="70"/>
-      <c r="AB56" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC56" s="70"/>
-      <c r="AD56" s="70"/>
-      <c r="AE56" s="70" t="s">
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="46"/>
+      <c r="AB56" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC56" s="46"/>
+      <c r="AD56" s="46"/>
+      <c r="AE56" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AF56" s="70"/>
-      <c r="AG56" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH56" s="70"/>
-      <c r="AI56" s="70"/>
-      <c r="AJ56" s="70"/>
-      <c r="AK56" s="71"/>
+      <c r="AF56" s="46"/>
+      <c r="AG56" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH56" s="46"/>
+      <c r="AI56" s="46"/>
+      <c r="AJ56" s="46"/>
+      <c r="AK56" s="68"/>
       <c r="AL56" s="47"/>
       <c r="AM56" s="18"/>
       <c r="AN56" s="18"/>
@@ -4720,40 +4719,46 @@
     </row>
     <row r="57" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B57" s="17"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="41"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="101"/>
+      <c r="N57" s="101"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="102"/>
+      <c r="Q57" s="38"/>
       <c r="R57" s="19"/>
       <c r="T57" s="17"/>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
       <c r="W57" s="45"/>
       <c r="X57" s="46"/>
-      <c r="Y57" s="46"/>
-      <c r="Z57" s="46"/>
-      <c r="AA57" s="46"/>
-      <c r="AB57" s="46"/>
-      <c r="AC57" s="46"/>
-      <c r="AD57" s="46"/>
-      <c r="AE57" s="46"/>
-      <c r="AF57" s="46"/>
-      <c r="AG57" s="46"/>
-      <c r="AH57" s="46"/>
-      <c r="AI57" s="46"/>
-      <c r="AJ57" s="46"/>
-      <c r="AK57" s="46"/>
+      <c r="Y57" s="69"/>
+      <c r="Z57" s="70"/>
+      <c r="AA57" s="70"/>
+      <c r="AB57" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC57" s="70"/>
+      <c r="AD57" s="70"/>
+      <c r="AE57" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF57" s="70"/>
+      <c r="AG57" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH57" s="70"/>
+      <c r="AI57" s="70"/>
+      <c r="AJ57" s="70"/>
+      <c r="AK57" s="71"/>
       <c r="AL57" s="47"/>
       <c r="AM57" s="18"/>
       <c r="AN57" s="18"/>
@@ -4763,44 +4768,42 @@
       <c r="AR57" s="18"/>
       <c r="AS57" s="19"/>
     </row>
-    <row r="58" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="25"/>
+    <row r="58" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="17"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="19"/>
       <c r="T58" s="17"/>
       <c r="U58" s="18"/>
       <c r="V58" s="18"/>
       <c r="W58" s="45"/>
       <c r="X58" s="46"/>
-      <c r="Y58" s="103" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z58" s="104"/>
-      <c r="AA58" s="104"/>
-      <c r="AB58" s="104"/>
-      <c r="AC58" s="104"/>
-      <c r="AD58" s="104"/>
-      <c r="AE58" s="104"/>
-      <c r="AF58" s="104"/>
-      <c r="AG58" s="104"/>
-      <c r="AH58" s="104"/>
-      <c r="AI58" s="104"/>
-      <c r="AJ58" s="104"/>
-      <c r="AK58" s="105"/>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="46"/>
+      <c r="AA58" s="46"/>
+      <c r="AB58" s="46"/>
+      <c r="AC58" s="46"/>
+      <c r="AD58" s="46"/>
+      <c r="AE58" s="46"/>
+      <c r="AF58" s="46"/>
+      <c r="AG58" s="46"/>
+      <c r="AH58" s="46"/>
+      <c r="AI58" s="46"/>
+      <c r="AJ58" s="46"/>
+      <c r="AK58" s="46"/>
       <c r="AL58" s="47"/>
       <c r="AM58" s="18"/>
       <c r="AN58" s="18"/>
@@ -4811,30 +4814,43 @@
       <c r="AS58" s="19"/>
     </row>
     <row r="59" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="25"/>
       <c r="T59" s="17"/>
       <c r="U59" s="18"/>
       <c r="V59" s="18"/>
       <c r="W59" s="45"/>
       <c r="X59" s="46"/>
-      <c r="Y59" s="106"/>
-      <c r="Z59" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA59" s="46"/>
-      <c r="AB59" s="46"/>
-      <c r="AC59" s="46"/>
-      <c r="AD59" s="46"/>
-      <c r="AE59" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF59" s="46"/>
-      <c r="AG59" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH59" s="46"/>
-      <c r="AI59" s="46"/>
-      <c r="AJ59" s="46"/>
-      <c r="AK59" s="107"/>
+      <c r="Y59" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z59" s="104"/>
+      <c r="AA59" s="104"/>
+      <c r="AB59" s="104"/>
+      <c r="AC59" s="104"/>
+      <c r="AD59" s="104"/>
+      <c r="AE59" s="104"/>
+      <c r="AF59" s="104"/>
+      <c r="AG59" s="104"/>
+      <c r="AH59" s="104"/>
+      <c r="AI59" s="104"/>
+      <c r="AJ59" s="104"/>
+      <c r="AK59" s="105"/>
       <c r="AL59" s="47"/>
       <c r="AM59" s="18"/>
       <c r="AN59" s="18"/>
@@ -4851,16 +4867,20 @@
       <c r="W60" s="45"/>
       <c r="X60" s="46"/>
       <c r="Y60" s="106"/>
-      <c r="Z60" s="46"/>
-      <c r="AA60" s="46" t="s">
-        <v>77</v>
-      </c>
+      <c r="Z60" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA60" s="46"/>
       <c r="AB60" s="46"/>
       <c r="AC60" s="46"/>
       <c r="AD60" s="46"/>
-      <c r="AE60" s="46"/>
+      <c r="AE60" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="AF60" s="46"/>
-      <c r="AG60" s="46"/>
+      <c r="AG60" s="46" t="s">
+        <v>73</v>
+      </c>
       <c r="AH60" s="46"/>
       <c r="AI60" s="46"/>
       <c r="AJ60" s="46"/>
@@ -4882,19 +4902,15 @@
       <c r="X61" s="46"/>
       <c r="Y61" s="106"/>
       <c r="Z61" s="46"/>
-      <c r="AA61" s="46"/>
-      <c r="AB61" s="46" t="s">
-        <v>78</v>
-      </c>
+      <c r="AA61" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB61" s="46"/>
       <c r="AC61" s="46"/>
       <c r="AD61" s="46"/>
-      <c r="AE61" s="46" t="s">
-        <v>68</v>
-      </c>
+      <c r="AE61" s="46"/>
       <c r="AF61" s="46"/>
-      <c r="AG61" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="AG61" s="46"/>
       <c r="AH61" s="46"/>
       <c r="AI61" s="46"/>
       <c r="AJ61" s="46"/>
@@ -4915,11 +4931,11 @@
       <c r="W62" s="45"/>
       <c r="X62" s="46"/>
       <c r="Y62" s="106"/>
-      <c r="Z62" s="46" t="s">
-        <v>67</v>
-      </c>
+      <c r="Z62" s="46"/>
       <c r="AA62" s="46"/>
-      <c r="AB62" s="46"/>
+      <c r="AB62" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="AC62" s="46"/>
       <c r="AD62" s="46"/>
       <c r="AE62" s="46" t="s">
@@ -4927,7 +4943,7 @@
       </c>
       <c r="AF62" s="46"/>
       <c r="AG62" s="46" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH62" s="46"/>
       <c r="AI62" s="46"/>
@@ -4949,16 +4965,20 @@
       <c r="W63" s="45"/>
       <c r="X63" s="46"/>
       <c r="Y63" s="106"/>
-      <c r="Z63" s="46"/>
-      <c r="AA63" s="46" t="s">
-        <v>77</v>
-      </c>
+      <c r="Z63" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA63" s="46"/>
       <c r="AB63" s="46"/>
       <c r="AC63" s="46"/>
       <c r="AD63" s="46"/>
-      <c r="AE63" s="46"/>
+      <c r="AE63" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="AF63" s="46"/>
-      <c r="AG63" s="46"/>
+      <c r="AG63" s="46" t="s">
+        <v>74</v>
+      </c>
       <c r="AH63" s="46"/>
       <c r="AI63" s="46"/>
       <c r="AJ63" s="46"/>
@@ -4980,19 +5000,15 @@
       <c r="X64" s="46"/>
       <c r="Y64" s="106"/>
       <c r="Z64" s="46"/>
-      <c r="AA64" s="46"/>
-      <c r="AB64" s="46" t="s">
-        <v>78</v>
-      </c>
+      <c r="AA64" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB64" s="46"/>
       <c r="AC64" s="46"/>
       <c r="AD64" s="46"/>
-      <c r="AE64" s="46" t="s">
-        <v>68</v>
-      </c>
+      <c r="AE64" s="46"/>
       <c r="AF64" s="46"/>
-      <c r="AG64" s="46" t="s">
-        <v>80</v>
-      </c>
+      <c r="AG64" s="46"/>
       <c r="AH64" s="46"/>
       <c r="AI64" s="46"/>
       <c r="AJ64" s="46"/>
@@ -5013,11 +5029,11 @@
       <c r="W65" s="45"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="106"/>
-      <c r="Z65" s="46" t="s">
-        <v>75</v>
-      </c>
+      <c r="Z65" s="46"/>
       <c r="AA65" s="46"/>
-      <c r="AB65" s="46"/>
+      <c r="AB65" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="AC65" s="46"/>
       <c r="AD65" s="46"/>
       <c r="AE65" s="46" t="s">
@@ -5025,7 +5041,7 @@
       </c>
       <c r="AF65" s="46"/>
       <c r="AG65" s="46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH65" s="46"/>
       <c r="AI65" s="46"/>
@@ -5047,16 +5063,20 @@
       <c r="W66" s="45"/>
       <c r="X66" s="46"/>
       <c r="Y66" s="106"/>
-      <c r="Z66" s="46"/>
-      <c r="AA66" s="46" t="s">
-        <v>77</v>
-      </c>
+      <c r="Z66" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA66" s="46"/>
       <c r="AB66" s="46"/>
       <c r="AC66" s="46"/>
       <c r="AD66" s="46"/>
-      <c r="AE66" s="46"/>
+      <c r="AE66" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="AF66" s="46"/>
-      <c r="AG66" s="46"/>
+      <c r="AG66" s="46" t="s">
+        <v>76</v>
+      </c>
       <c r="AH66" s="46"/>
       <c r="AI66" s="46"/>
       <c r="AJ66" s="46"/>
@@ -5078,19 +5098,15 @@
       <c r="X67" s="46"/>
       <c r="Y67" s="106"/>
       <c r="Z67" s="46"/>
-      <c r="AA67" s="46"/>
-      <c r="AB67" s="46" t="s">
-        <v>78</v>
-      </c>
+      <c r="AA67" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB67" s="46"/>
       <c r="AC67" s="46"/>
       <c r="AD67" s="46"/>
-      <c r="AE67" s="46" t="s">
-        <v>68</v>
-      </c>
+      <c r="AE67" s="46"/>
       <c r="AF67" s="46"/>
-      <c r="AG67" s="46" t="s">
-        <v>81</v>
-      </c>
+      <c r="AG67" s="46"/>
       <c r="AH67" s="46"/>
       <c r="AI67" s="46"/>
       <c r="AJ67" s="46"/>
@@ -5104,31 +5120,31 @@
       <c r="AR67" s="18"/>
       <c r="AS67" s="19"/>
     </row>
-    <row r="68" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T68" s="17"/>
       <c r="U68" s="18"/>
       <c r="V68" s="18"/>
       <c r="W68" s="45"/>
       <c r="X68" s="46"/>
-      <c r="Y68" s="108"/>
-      <c r="Z68" s="109"/>
-      <c r="AA68" s="109"/>
-      <c r="AB68" s="109" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC68" s="109"/>
-      <c r="AD68" s="109"/>
-      <c r="AE68" s="109" t="s">
+      <c r="Y68" s="106"/>
+      <c r="Z68" s="46"/>
+      <c r="AA68" s="46"/>
+      <c r="AB68" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC68" s="46"/>
+      <c r="AD68" s="46"/>
+      <c r="AE68" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AF68" s="109"/>
-      <c r="AG68" s="109" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH68" s="109"/>
-      <c r="AI68" s="109"/>
-      <c r="AJ68" s="109"/>
-      <c r="AK68" s="110"/>
+      <c r="AF68" s="46"/>
+      <c r="AG68" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH68" s="46"/>
+      <c r="AI68" s="46"/>
+      <c r="AJ68" s="46"/>
+      <c r="AK68" s="107"/>
       <c r="AL68" s="47"/>
       <c r="AM68" s="18"/>
       <c r="AN68" s="18"/>
@@ -5138,26 +5154,32 @@
       <c r="AR68" s="18"/>
       <c r="AS68" s="19"/>
     </row>
-    <row r="69" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="T69" s="17"/>
       <c r="U69" s="18"/>
       <c r="V69" s="18"/>
-      <c r="W69" s="48"/>
-      <c r="X69" s="49"/>
-      <c r="Y69" s="49"/>
-      <c r="Z69" s="49"/>
-      <c r="AA69" s="49"/>
-      <c r="AB69" s="49"/>
-      <c r="AC69" s="49"/>
-      <c r="AD69" s="49"/>
-      <c r="AE69" s="49"/>
-      <c r="AF69" s="49"/>
-      <c r="AG69" s="49"/>
-      <c r="AH69" s="49"/>
-      <c r="AI69" s="49"/>
-      <c r="AJ69" s="49"/>
-      <c r="AK69" s="49"/>
-      <c r="AL69" s="50"/>
+      <c r="W69" s="45"/>
+      <c r="X69" s="46"/>
+      <c r="Y69" s="108"/>
+      <c r="Z69" s="109"/>
+      <c r="AA69" s="109"/>
+      <c r="AB69" s="109" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC69" s="109"/>
+      <c r="AD69" s="109"/>
+      <c r="AE69" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF69" s="109"/>
+      <c r="AG69" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH69" s="109"/>
+      <c r="AI69" s="109"/>
+      <c r="AJ69" s="109"/>
+      <c r="AK69" s="110"/>
+      <c r="AL69" s="47"/>
       <c r="AM69" s="18"/>
       <c r="AN69" s="18"/>
       <c r="AO69" s="18"/>
@@ -5170,22 +5192,22 @@
       <c r="T70" s="17"/>
       <c r="U70" s="18"/>
       <c r="V70" s="18"/>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
-      <c r="Y70" s="18"/>
-      <c r="Z70" s="18"/>
-      <c r="AA70" s="18"/>
-      <c r="AB70" s="18"/>
-      <c r="AC70" s="18"/>
-      <c r="AD70" s="18"/>
-      <c r="AE70" s="18"/>
-      <c r="AF70" s="18"/>
-      <c r="AG70" s="18"/>
-      <c r="AH70" s="18"/>
-      <c r="AI70" s="18"/>
-      <c r="AJ70" s="18"/>
-      <c r="AK70" s="18"/>
-      <c r="AL70" s="18"/>
+      <c r="W70" s="48"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+      <c r="Z70" s="49"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
+      <c r="AD70" s="49"/>
+      <c r="AE70" s="49"/>
+      <c r="AF70" s="49"/>
+      <c r="AG70" s="49"/>
+      <c r="AH70" s="49"/>
+      <c r="AI70" s="49"/>
+      <c r="AJ70" s="49"/>
+      <c r="AK70" s="49"/>
+      <c r="AL70" s="50"/>
       <c r="AM70" s="18"/>
       <c r="AN70" s="18"/>
       <c r="AO70" s="18"/>
@@ -5207,10 +5229,8 @@
       <c r="AC71" s="18"/>
       <c r="AD71" s="18"/>
       <c r="AE71" s="18"/>
-      <c r="AF71" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG71" s="32"/>
+      <c r="AF71" s="18"/>
+      <c r="AG71" s="18"/>
       <c r="AH71" s="18"/>
       <c r="AI71" s="18"/>
       <c r="AJ71" s="18"/>
@@ -5225,149 +5245,179 @@
       <c r="AS71" s="19"/>
     </row>
     <row r="72" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="T72" s="23"/>
-      <c r="U72" s="24"/>
-      <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="24"/>
-      <c r="Y72" s="24"/>
-      <c r="Z72" s="24"/>
-      <c r="AA72" s="24"/>
-      <c r="AB72" s="24"/>
-      <c r="AC72" s="24"/>
-      <c r="AD72" s="24"/>
-      <c r="AE72" s="24"/>
-      <c r="AF72" s="24"/>
-      <c r="AG72" s="24"/>
-      <c r="AH72" s="24"/>
-      <c r="AI72" s="24"/>
-      <c r="AJ72" s="24"/>
-      <c r="AK72" s="24"/>
-      <c r="AL72" s="24"/>
-      <c r="AM72" s="24"/>
-      <c r="AN72" s="24"/>
-      <c r="AO72" s="24"/>
-      <c r="AP72" s="24"/>
-      <c r="AQ72" s="24"/>
-      <c r="AR72" s="24"/>
-      <c r="AS72" s="25"/>
-      <c r="AT72" s="30"/>
-    </row>
-    <row r="74" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="T74" s="30"/>
-      <c r="U74" s="30"/>
-      <c r="V74" s="30"/>
-      <c r="W74" s="30"/>
-      <c r="X74" s="30"/>
-      <c r="Y74" s="30"/>
-      <c r="Z74" s="30"/>
-      <c r="AA74" s="30"/>
-      <c r="AB74" s="30"/>
-      <c r="AC74" s="30"/>
-      <c r="AD74" s="30"/>
-      <c r="AE74" s="30"/>
-      <c r="AF74" s="30"/>
-      <c r="AG74" s="30"/>
-      <c r="AH74" s="30"/>
-      <c r="AI74" s="30"/>
-      <c r="AJ74" s="30"/>
-      <c r="AK74" s="30"/>
-      <c r="AL74" s="30"/>
-      <c r="AM74" s="30"/>
-      <c r="AN74" s="30"/>
-      <c r="AO74" s="30"/>
-      <c r="AP74" s="30"/>
-      <c r="AQ74" s="30"/>
-      <c r="AR74" s="30"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="18"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="18"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="18"/>
+      <c r="AA72" s="18"/>
+      <c r="AB72" s="18"/>
+      <c r="AC72" s="18"/>
+      <c r="AD72" s="18"/>
+      <c r="AE72" s="18"/>
+      <c r="AF72" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG72" s="32"/>
+      <c r="AH72" s="18"/>
+      <c r="AI72" s="18"/>
+      <c r="AJ72" s="18"/>
+      <c r="AK72" s="18"/>
+      <c r="AL72" s="18"/>
+      <c r="AM72" s="18"/>
+      <c r="AN72" s="18"/>
+      <c r="AO72" s="18"/>
+      <c r="AP72" s="18"/>
+      <c r="AQ72" s="18"/>
+      <c r="AR72" s="18"/>
+      <c r="AS72" s="19"/>
+    </row>
+    <row r="73" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T73" s="23"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="24"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="24"/>
+      <c r="Z73" s="24"/>
+      <c r="AA73" s="24"/>
+      <c r="AB73" s="24"/>
+      <c r="AC73" s="24"/>
+      <c r="AD73" s="24"/>
+      <c r="AE73" s="24"/>
+      <c r="AF73" s="24"/>
+      <c r="AG73" s="24"/>
+      <c r="AH73" s="24"/>
+      <c r="AI73" s="24"/>
+      <c r="AJ73" s="24"/>
+      <c r="AK73" s="24"/>
+      <c r="AL73" s="24"/>
+      <c r="AM73" s="24"/>
+      <c r="AN73" s="24"/>
+      <c r="AO73" s="24"/>
+      <c r="AP73" s="24"/>
+      <c r="AQ73" s="24"/>
+      <c r="AR73" s="24"/>
+      <c r="AS73" s="25"/>
+      <c r="AT73" s="30"/>
     </row>
     <row r="75" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B75" s="30" t="s">
+      <c r="T75" s="30"/>
+      <c r="U75" s="30"/>
+      <c r="V75" s="30"/>
+      <c r="W75" s="30"/>
+      <c r="X75" s="30"/>
+      <c r="Y75" s="30"/>
+      <c r="Z75" s="30"/>
+      <c r="AA75" s="30"/>
+      <c r="AB75" s="30"/>
+      <c r="AC75" s="30"/>
+      <c r="AD75" s="30"/>
+      <c r="AE75" s="30"/>
+      <c r="AF75" s="30"/>
+      <c r="AG75" s="30"/>
+      <c r="AH75" s="30"/>
+      <c r="AI75" s="30"/>
+      <c r="AJ75" s="30"/>
+      <c r="AK75" s="30"/>
+      <c r="AL75" s="30"/>
+      <c r="AM75" s="30"/>
+      <c r="AN75" s="30"/>
+      <c r="AO75" s="30"/>
+      <c r="AP75" s="30"/>
+      <c r="AQ75" s="30"/>
+      <c r="AR75" s="30"/>
+    </row>
+    <row r="76" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="30"/>
-    </row>
-    <row r="76" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q76" s="30"/>
-      <c r="S76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
     </row>
     <row r="77" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
+      <c r="Q77" s="30"/>
+      <c r="S77" s="30"/>
+    </row>
+    <row r="78" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="81" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="28" t="s">
-        <v>12</v>
+      <c r="C81" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R81" s="30"/>
     </row>
     <row r="82" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="R82" s="30"/>
     </row>
     <row r="83" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E51:H55"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J53:O55"/>
-    <mergeCell ref="D34:I35"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="K34:P35"/>
-    <mergeCell ref="E42:H46"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="J44:O46"/>
+    <mergeCell ref="E52:H56"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J54:O56"/>
+    <mergeCell ref="D35:I36"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="K35:P36"/>
+    <mergeCell ref="E43:H47"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="J45:O47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
+++ b/80_補足資料/D-002_スクリーンオブジェクトをJSONで返却する方法【IF】.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\80_補足資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\80_補足資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="110">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -439,10 +439,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>jun-nakashima</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AttrDto</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -709,6 +705,14 @@
   </si>
   <si>
     <t>2015/1/29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layoutTypeCdAlias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>naoya-suzuki</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2462,7 +2466,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="5" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -2518,7 +2522,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -2691,7 +2695,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2795,7 +2799,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -2804,7 +2808,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
@@ -2820,7 +2824,7 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD14" s="18"/>
       <c r="AE14" s="18"/>
@@ -2855,7 +2859,7 @@
         <v>55</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
@@ -2875,7 +2879,7 @@
         <v>55</v>
       </c>
       <c r="AD15" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE15" s="18"/>
       <c r="AF15" s="18"/>
@@ -2887,7 +2891,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -2898,7 +2902,7 @@
         <v>55</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2909,7 +2913,7 @@
         <v>55</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
@@ -2919,7 +2923,7 @@
         <v>55</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
@@ -2929,7 +2933,7 @@
         <v>55</v>
       </c>
       <c r="AD16" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE16" s="18"/>
       <c r="AF16" s="18"/>
@@ -2941,7 +2945,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -2963,7 +2967,7 @@
         <v>55</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
@@ -2973,17 +2977,17 @@
         <v>55</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD17" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE17" s="18"/>
       <c r="AF17" s="18"/>
@@ -2992,10 +2996,10 @@
     <row r="18" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -3006,7 +3010,7 @@
         <v>55</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -3027,7 +3031,7 @@
         <v>55</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
@@ -3037,7 +3041,7 @@
         <v>55</v>
       </c>
       <c r="AD18" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE18" s="18"/>
       <c r="AF18" s="18"/>
@@ -3045,8 +3049,12 @@
     </row>
     <row r="19" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -3056,7 +3064,7 @@
         <v>55</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
@@ -3073,7 +3081,7 @@
         <v>54</v>
       </c>
       <c r="X19" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
@@ -3083,7 +3091,7 @@
         <v>55</v>
       </c>
       <c r="AD19" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE19" s="18"/>
       <c r="AF19" s="18"/>
@@ -3102,7 +3110,7 @@
         <v>54</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
@@ -3125,7 +3133,7 @@
         <v>55</v>
       </c>
       <c r="AD20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE20" s="18"/>
       <c r="AF20" s="18"/>
@@ -3163,7 +3171,7 @@
         <v>55</v>
       </c>
       <c r="AD21" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE21" s="18"/>
       <c r="AF21" s="18"/>
@@ -3201,7 +3209,7 @@
         <v>55</v>
       </c>
       <c r="AD22" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE22" s="18"/>
       <c r="AF22" s="18"/>
@@ -3239,7 +3247,7 @@
         <v>54</v>
       </c>
       <c r="AD23" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE23" s="18"/>
       <c r="AF23" s="18"/>
@@ -3738,7 +3746,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="58"/>
       <c r="X37" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y37" s="59"/>
       <c r="Z37" s="59"/>
@@ -3786,7 +3794,7 @@
       <c r="W38" s="58"/>
       <c r="X38" s="59"/>
       <c r="Y38" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z38" s="59"/>
       <c r="AA38" s="59"/>
@@ -3917,7 +3925,7 @@
       <c r="B41" s="17"/>
       <c r="C41" s="37"/>
       <c r="D41" s="91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -4016,14 +4024,14 @@
       <c r="C43" s="37"/>
       <c r="D43" s="89"/>
       <c r="E43" s="112" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F43" s="113"/>
       <c r="G43" s="113"/>
       <c r="H43" s="114"/>
       <c r="I43" s="18"/>
       <c r="J43" s="121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K43" s="122"/>
       <c r="L43" s="122"/>
@@ -4037,7 +4045,7 @@
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
       <c r="W43" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X43" s="43"/>
       <c r="Y43" s="43"/>
@@ -4125,7 +4133,7 @@
       <c r="H45" s="117"/>
       <c r="I45" s="18"/>
       <c r="J45" s="112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K45" s="113"/>
       <c r="L45" s="113"/>
@@ -4191,7 +4199,7 @@
       <c r="V46" s="18"/>
       <c r="W46" s="45"/>
       <c r="X46" s="111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y46" s="111"/>
       <c r="Z46" s="111"/>
@@ -4239,7 +4247,7 @@
       <c r="W47" s="45"/>
       <c r="X47" s="46"/>
       <c r="Y47" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z47" s="65"/>
       <c r="AA47" s="65"/>
@@ -4287,18 +4295,18 @@
       <c r="X48" s="46"/>
       <c r="Y48" s="67"/>
       <c r="Z48" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA48" s="46"/>
       <c r="AB48" s="46"/>
       <c r="AC48" s="46"/>
       <c r="AD48" s="46"/>
       <c r="AE48" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF48" s="46"/>
       <c r="AG48" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH48" s="46"/>
       <c r="AI48" s="46"/>
@@ -4339,7 +4347,7 @@
       <c r="Y49" s="67"/>
       <c r="Z49" s="46"/>
       <c r="AA49" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB49" s="46"/>
       <c r="AC49" s="46"/>
@@ -4364,7 +4372,7 @@
       <c r="B50" s="17"/>
       <c r="C50" s="37"/>
       <c r="D50" s="92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
@@ -4389,16 +4397,16 @@
       <c r="Z50" s="46"/>
       <c r="AA50" s="46"/>
       <c r="AB50" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC50" s="46"/>
       <c r="AD50" s="46"/>
       <c r="AE50" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF50" s="46"/>
       <c r="AG50" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH50" s="46"/>
       <c r="AI50" s="46"/>
@@ -4438,18 +4446,18 @@
       <c r="X51" s="46"/>
       <c r="Y51" s="67"/>
       <c r="Z51" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA51" s="46"/>
       <c r="AB51" s="46"/>
       <c r="AC51" s="46"/>
       <c r="AD51" s="46"/>
       <c r="AE51" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF51" s="46"/>
       <c r="AG51" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH51" s="46"/>
       <c r="AI51" s="46"/>
@@ -4469,14 +4477,14 @@
       <c r="C52" s="37"/>
       <c r="D52" s="96"/>
       <c r="E52" s="112" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
       <c r="H52" s="114"/>
       <c r="I52" s="18"/>
       <c r="J52" s="121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K52" s="122"/>
       <c r="L52" s="122"/>
@@ -4494,7 +4502,7 @@
       <c r="Y52" s="67"/>
       <c r="Z52" s="46"/>
       <c r="AA52" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB52" s="46"/>
       <c r="AC52" s="46"/>
@@ -4542,16 +4550,16 @@
       <c r="Z53" s="46"/>
       <c r="AA53" s="46"/>
       <c r="AB53" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC53" s="46"/>
       <c r="AD53" s="46"/>
       <c r="AE53" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF53" s="46"/>
       <c r="AG53" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH53" s="46"/>
       <c r="AI53" s="46"/>
@@ -4576,7 +4584,7 @@
       <c r="H54" s="117"/>
       <c r="I54" s="18"/>
       <c r="J54" s="112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
@@ -4593,18 +4601,18 @@
       <c r="X54" s="46"/>
       <c r="Y54" s="67"/>
       <c r="Z54" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA54" s="46"/>
       <c r="AB54" s="46"/>
       <c r="AC54" s="46"/>
       <c r="AD54" s="46"/>
       <c r="AE54" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF54" s="46"/>
       <c r="AG54" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH54" s="46"/>
       <c r="AI54" s="46"/>
@@ -4645,7 +4653,7 @@
       <c r="Y55" s="67"/>
       <c r="Z55" s="46"/>
       <c r="AA55" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB55" s="46"/>
       <c r="AC55" s="46"/>
@@ -4693,16 +4701,16 @@
       <c r="Z56" s="46"/>
       <c r="AA56" s="46"/>
       <c r="AB56" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC56" s="46"/>
       <c r="AD56" s="46"/>
       <c r="AE56" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF56" s="46"/>
       <c r="AG56" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH56" s="46"/>
       <c r="AI56" s="46"/>
@@ -4744,16 +4752,16 @@
       <c r="Z57" s="70"/>
       <c r="AA57" s="70"/>
       <c r="AB57" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC57" s="70"/>
       <c r="AD57" s="70"/>
       <c r="AE57" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF57" s="70"/>
       <c r="AG57" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH57" s="70"/>
       <c r="AI57" s="70"/>
@@ -4837,7 +4845,7 @@
       <c r="W59" s="45"/>
       <c r="X59" s="46"/>
       <c r="Y59" s="103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z59" s="104"/>
       <c r="AA59" s="104"/>
@@ -4868,18 +4876,18 @@
       <c r="X60" s="46"/>
       <c r="Y60" s="106"/>
       <c r="Z60" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA60" s="46"/>
       <c r="AB60" s="46"/>
       <c r="AC60" s="46"/>
       <c r="AD60" s="46"/>
       <c r="AE60" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF60" s="46"/>
       <c r="AG60" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH60" s="46"/>
       <c r="AI60" s="46"/>
@@ -4903,7 +4911,7 @@
       <c r="Y61" s="106"/>
       <c r="Z61" s="46"/>
       <c r="AA61" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB61" s="46"/>
       <c r="AC61" s="46"/>
@@ -4934,16 +4942,16 @@
       <c r="Z62" s="46"/>
       <c r="AA62" s="46"/>
       <c r="AB62" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC62" s="46"/>
       <c r="AD62" s="46"/>
       <c r="AE62" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF62" s="46"/>
       <c r="AG62" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH62" s="46"/>
       <c r="AI62" s="46"/>
@@ -4966,18 +4974,18 @@
       <c r="X63" s="46"/>
       <c r="Y63" s="106"/>
       <c r="Z63" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA63" s="46"/>
       <c r="AB63" s="46"/>
       <c r="AC63" s="46"/>
       <c r="AD63" s="46"/>
       <c r="AE63" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF63" s="46"/>
       <c r="AG63" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH63" s="46"/>
       <c r="AI63" s="46"/>
@@ -5001,7 +5009,7 @@
       <c r="Y64" s="106"/>
       <c r="Z64" s="46"/>
       <c r="AA64" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB64" s="46"/>
       <c r="AC64" s="46"/>
@@ -5032,16 +5040,16 @@
       <c r="Z65" s="46"/>
       <c r="AA65" s="46"/>
       <c r="AB65" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC65" s="46"/>
       <c r="AD65" s="46"/>
       <c r="AE65" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF65" s="46"/>
       <c r="AG65" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH65" s="46"/>
       <c r="AI65" s="46"/>
@@ -5064,18 +5072,18 @@
       <c r="X66" s="46"/>
       <c r="Y66" s="106"/>
       <c r="Z66" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA66" s="46"/>
       <c r="AB66" s="46"/>
       <c r="AC66" s="46"/>
       <c r="AD66" s="46"/>
       <c r="AE66" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF66" s="46"/>
       <c r="AG66" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH66" s="46"/>
       <c r="AI66" s="46"/>
@@ -5099,7 +5107,7 @@
       <c r="Y67" s="106"/>
       <c r="Z67" s="46"/>
       <c r="AA67" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB67" s="46"/>
       <c r="AC67" s="46"/>
@@ -5130,16 +5138,16 @@
       <c r="Z68" s="46"/>
       <c r="AA68" s="46"/>
       <c r="AB68" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC68" s="46"/>
       <c r="AD68" s="46"/>
       <c r="AE68" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF68" s="46"/>
       <c r="AG68" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH68" s="46"/>
       <c r="AI68" s="46"/>
@@ -5164,16 +5172,16 @@
       <c r="Z69" s="109"/>
       <c r="AA69" s="109"/>
       <c r="AB69" s="109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC69" s="109"/>
       <c r="AD69" s="109"/>
       <c r="AE69" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF69" s="109"/>
       <c r="AG69" s="109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH69" s="109"/>
       <c r="AI69" s="109"/>
@@ -5258,7 +5266,7 @@
       <c r="AD72" s="18"/>
       <c r="AE72" s="18"/>
       <c r="AF72" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG72" s="32"/>
       <c r="AH72" s="18"/>
@@ -5332,7 +5340,7 @@
     </row>
     <row r="76" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>15</v>
@@ -5371,7 +5379,7 @@
     </row>
     <row r="80" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
@@ -5379,7 +5387,7 @@
     </row>
     <row r="81" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>19</v>
